--- a/Research Related/Models Comparison.xlsx
+++ b/Research Related/Models Comparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Azriely College\Software Engineering - First Degree - B.Sc\4-6 Years Degree\Sixth Year\Final Project\Analyzing-Simulations-Data-using-Prompt-Engineering\Research Related\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23700E86-00D6-4168-9E8A-7C439967CF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A18CD36-02E9-47A3-8260-0D2C081DFBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -767,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -856,6 +856,41 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -913,46 +948,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1235,10 +1234,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1250,14 +1250,14 @@
     <col min="5" max="5" width="30.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="14" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="63" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="28" t="s">
@@ -1266,16 +1266,16 @@
       <c r="D1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="62" t="s">
         <v>55</v>
       </c>
       <c r="I1" s="3"/>
@@ -1316,7 +1316,7 @@
       <c r="F2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="31" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="18" t="s">
@@ -1360,7 +1360,7 @@
       <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="32" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -1404,7 +1404,7 @@
       <c r="F4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="33" t="s">
         <v>50</v>
       </c>
       <c r="H4" s="11" t="s">
@@ -1448,7 +1448,7 @@
       <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="32" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -1492,10 +1492,10 @@
       <c r="F6" s="6">
         <v>4</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="32">
         <v>4</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="35" t="s">
         <v>46</v>
       </c>
       <c r="I6" s="3"/>
@@ -1536,10 +1536,10 @@
       <c r="F7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="35" t="s">
         <v>57</v>
       </c>
       <c r="I7" s="3"/>
@@ -1580,7 +1580,7 @@
       <c r="F8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="32" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="7" t="s">
@@ -1624,7 +1624,7 @@
       <c r="F9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="34" t="s">
         <v>54</v>
       </c>
       <c r="H9" s="15" t="s">
@@ -1657,7 +1657,7 @@
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
-      <c r="H10" s="50"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1679,15 +1679,15 @@
     </row>
     <row r="11" spans="1:26" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="50"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1710,19 +1710,19 @@
       <c r="A12" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="42" t="str">
+      <c r="B12" s="55" t="str">
         <f>Data!A1</f>
         <v>Paragraphs</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42" t="str">
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55" t="str">
         <f>Data!C1</f>
         <v>Suitability</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="55"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="50"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="25"/>
-      <c r="B13" s="33" t="str">
+      <c r="B13" s="46" t="str">
         <f>IF(A12=A1,Data!B1,
 IF(A12=B1,Data!B2,
 IF(A12=C1,Data!B3,
@@ -1754,9 +1754,9 @@
 IF(A12=H1,Data!B8,""))))))))</f>
         <v>Gemma is a lightweight, open-source model designed for accessibility and developer use.</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="43" t="str">
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="56" t="str">
         <f>IF(A12=A1,Data!D1,
 IF(A12=B1,Data!D2,
 IF(A12=C1,Data!D3,
@@ -1767,9 +1767,9 @@
 IF(A12=H1,Data!D8,""))))))))</f>
         <v>???</v>
       </c>
-      <c r="F13" s="44"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="50"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1790,13 +1790,13 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="21"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
       <c r="G14" s="20"/>
-      <c r="H14" s="50"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1817,13 +1817,13 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
       <c r="G15" s="20"/>
-      <c r="H15" s="50"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1844,13 +1844,13 @@
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="50"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1871,13 +1871,13 @@
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="50"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1898,13 +1898,13 @@
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="19"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="50"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1925,13 +1925,13 @@
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
       <c r="G19" s="20"/>
-      <c r="H19" s="50"/>
+      <c r="H19" s="30"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1955,10 +1955,10 @@
       <c r="B20" s="20"/>
       <c r="C20" s="1"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="20"/>
-      <c r="H20" s="50"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1977,10 +1977,10 @@
       <c r="B21" s="20"/>
       <c r="C21" s="1"/>
       <c r="D21" s="19"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="48"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
       <c r="G21" s="20"/>
-      <c r="H21" s="50"/>
+      <c r="H21" s="30"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2002,7 +2002,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="50"/>
+      <c r="H22" s="30"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2027,7 +2027,7 @@
       <c r="B23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="50"/>
+      <c r="H23" s="30"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2052,7 +2052,7 @@
       <c r="B24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="50"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2077,7 +2077,7 @@
       <c r="B25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="50"/>
+      <c r="H25" s="30"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2102,7 +2102,7 @@
       <c r="B26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="50"/>
+      <c r="H26" s="30"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2127,7 +2127,7 @@
       <c r="B27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="50"/>
+      <c r="H27" s="30"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2152,7 +2152,7 @@
       <c r="B28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="50"/>
+      <c r="H28" s="30"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2177,7 +2177,7 @@
       <c r="B29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="50"/>
+      <c r="H29" s="30"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2202,7 +2202,7 @@
       <c r="B30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="50"/>
+      <c r="H30" s="30"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2227,7 +2227,7 @@
       <c r="B31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="50"/>
+      <c r="H31" s="30"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2252,7 +2252,7 @@
       <c r="B32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="50"/>
+      <c r="H32" s="30"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2277,7 +2277,7 @@
       <c r="B33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="50"/>
+      <c r="H33" s="30"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2302,7 +2302,7 @@
       <c r="B34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="50"/>
+      <c r="H34" s="30"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -2327,7 +2327,7 @@
       <c r="B35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="50"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -2352,7 +2352,7 @@
       <c r="B36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="50"/>
+      <c r="H36" s="30"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -2377,7 +2377,7 @@
       <c r="B37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="50"/>
+      <c r="H37" s="30"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -2402,7 +2402,7 @@
       <c r="B38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="50"/>
+      <c r="H38" s="30"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -2427,7 +2427,7 @@
       <c r="B39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="50"/>
+      <c r="H39" s="30"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2455,7 +2455,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="50"/>
+      <c r="H40" s="30"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -2483,7 +2483,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="50"/>
+      <c r="H41" s="30"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2511,7 +2511,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="50"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2539,7 +2539,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="50"/>
+      <c r="H43" s="30"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -2567,7 +2567,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="50"/>
+      <c r="H44" s="30"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -2595,7 +2595,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="50"/>
+      <c r="H45" s="30"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -2623,7 +2623,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="50"/>
+      <c r="H46" s="30"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -2651,7 +2651,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="50"/>
+      <c r="H47" s="30"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -2679,7 +2679,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="50"/>
+      <c r="H48" s="30"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -2707,7 +2707,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="50"/>
+      <c r="H49" s="30"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -2735,7 +2735,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="50"/>
+      <c r="H50" s="30"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -2763,7 +2763,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="50"/>
+      <c r="H51" s="30"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -2791,7 +2791,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="50"/>
+      <c r="H52" s="30"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -2819,7 +2819,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="50"/>
+      <c r="H53" s="30"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -2847,7 +2847,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="50"/>
+      <c r="H54" s="30"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -2875,7 +2875,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="50"/>
+      <c r="H55" s="30"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -2903,7 +2903,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="50"/>
+      <c r="H56" s="30"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -2931,7 +2931,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="50"/>
+      <c r="H57" s="30"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -2959,7 +2959,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="50"/>
+      <c r="H58" s="30"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -2987,7 +2987,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="50"/>
+      <c r="H59" s="30"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -3015,7 +3015,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="50"/>
+      <c r="H60" s="30"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -3043,7 +3043,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="50"/>
+      <c r="H61" s="30"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -3071,7 +3071,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="50"/>
+      <c r="H62" s="30"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -3099,7 +3099,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="50"/>
+      <c r="H63" s="30"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -3127,7 +3127,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="50"/>
+      <c r="H64" s="30"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -3155,7 +3155,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="50"/>
+      <c r="H65" s="30"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -3183,7 +3183,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="50"/>
+      <c r="H66" s="30"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -3211,7 +3211,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="50"/>
+      <c r="H67" s="30"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -3239,7 +3239,7 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="50"/>
+      <c r="H68" s="30"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -3267,7 +3267,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="50"/>
+      <c r="H69" s="30"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -3295,7 +3295,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="50"/>
+      <c r="H70" s="30"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -3323,7 +3323,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="50"/>
+      <c r="H71" s="30"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -3351,7 +3351,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="50"/>
+      <c r="H72" s="30"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -3379,7 +3379,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="50"/>
+      <c r="H73" s="30"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -3407,7 +3407,7 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="50"/>
+      <c r="H74" s="30"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -3435,7 +3435,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="50"/>
+      <c r="H75" s="30"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -3463,7 +3463,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="50"/>
+      <c r="H76" s="30"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -3491,7 +3491,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="50"/>
+      <c r="H77" s="30"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -3519,7 +3519,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="50"/>
+      <c r="H78" s="30"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -3547,7 +3547,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="50"/>
+      <c r="H79" s="30"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -3575,7 +3575,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="50"/>
+      <c r="H80" s="30"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -3603,7 +3603,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="50"/>
+      <c r="H81" s="30"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -3631,7 +3631,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="50"/>
+      <c r="H82" s="30"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -3659,7 +3659,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="50"/>
+      <c r="H83" s="30"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -3687,7 +3687,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="50"/>
+      <c r="H84" s="30"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -3715,7 +3715,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="50"/>
+      <c r="H85" s="30"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -3743,7 +3743,7 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-      <c r="H86" s="50"/>
+      <c r="H86" s="30"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -3771,7 +3771,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="H87" s="50"/>
+      <c r="H87" s="30"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -3799,7 +3799,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-      <c r="H88" s="50"/>
+      <c r="H88" s="30"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -3827,7 +3827,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="50"/>
+      <c r="H89" s="30"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -3855,7 +3855,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="50"/>
+      <c r="H90" s="30"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -3883,7 +3883,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="50"/>
+      <c r="H91" s="30"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -3911,7 +3911,7 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="50"/>
+      <c r="H92" s="30"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -3939,7 +3939,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="50"/>
+      <c r="H93" s="30"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -3967,7 +3967,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="H94" s="50"/>
+      <c r="H94" s="30"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -3995,7 +3995,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="50"/>
+      <c r="H95" s="30"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -4023,7 +4023,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="50"/>
+      <c r="H96" s="30"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -4051,7 +4051,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="50"/>
+      <c r="H97" s="30"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -4079,7 +4079,7 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="50"/>
+      <c r="H98" s="30"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -4107,7 +4107,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="50"/>
+      <c r="H99" s="30"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -4135,7 +4135,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="50"/>
+      <c r="H100" s="30"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -4163,7 +4163,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-      <c r="H101" s="50"/>
+      <c r="H101" s="30"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -4191,7 +4191,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-      <c r="H102" s="50"/>
+      <c r="H102" s="30"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -4219,7 +4219,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-      <c r="H103" s="50"/>
+      <c r="H103" s="30"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
@@ -4247,7 +4247,7 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
-      <c r="H104" s="50"/>
+      <c r="H104" s="30"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -4275,7 +4275,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
-      <c r="H105" s="50"/>
+      <c r="H105" s="30"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -4303,7 +4303,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
-      <c r="H106" s="50"/>
+      <c r="H106" s="30"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -4331,7 +4331,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
-      <c r="H107" s="50"/>
+      <c r="H107" s="30"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -4359,7 +4359,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
-      <c r="H108" s="50"/>
+      <c r="H108" s="30"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -4387,7 +4387,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
-      <c r="H109" s="50"/>
+      <c r="H109" s="30"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -4415,7 +4415,7 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
-      <c r="H110" s="50"/>
+      <c r="H110" s="30"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
@@ -4443,7 +4443,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
-      <c r="H111" s="50"/>
+      <c r="H111" s="30"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
@@ -4471,7 +4471,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
-      <c r="H112" s="50"/>
+      <c r="H112" s="30"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -4499,7 +4499,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
-      <c r="H113" s="50"/>
+      <c r="H113" s="30"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
@@ -4527,7 +4527,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
-      <c r="H114" s="50"/>
+      <c r="H114" s="30"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
@@ -4555,7 +4555,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
-      <c r="H115" s="50"/>
+      <c r="H115" s="30"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
@@ -4583,7 +4583,7 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
-      <c r="H116" s="50"/>
+      <c r="H116" s="30"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -4611,7 +4611,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
-      <c r="H117" s="50"/>
+      <c r="H117" s="30"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
@@ -4639,7 +4639,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
-      <c r="H118" s="50"/>
+      <c r="H118" s="30"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
@@ -4667,7 +4667,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
-      <c r="H119" s="50"/>
+      <c r="H119" s="30"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
@@ -4695,7 +4695,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
-      <c r="H120" s="50"/>
+      <c r="H120" s="30"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
@@ -4723,7 +4723,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
-      <c r="H121" s="50"/>
+      <c r="H121" s="30"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
@@ -4751,7 +4751,7 @@
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
-      <c r="H122" s="50"/>
+      <c r="H122" s="30"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
@@ -4779,7 +4779,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
-      <c r="H123" s="50"/>
+      <c r="H123" s="30"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
@@ -4807,7 +4807,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
-      <c r="H124" s="50"/>
+      <c r="H124" s="30"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
@@ -4835,7 +4835,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
-      <c r="H125" s="50"/>
+      <c r="H125" s="30"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
@@ -4863,7 +4863,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
-      <c r="H126" s="50"/>
+      <c r="H126" s="30"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
@@ -4891,7 +4891,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
-      <c r="H127" s="50"/>
+      <c r="H127" s="30"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
@@ -4919,7 +4919,7 @@
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
-      <c r="H128" s="50"/>
+      <c r="H128" s="30"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
@@ -4947,7 +4947,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
-      <c r="H129" s="50"/>
+      <c r="H129" s="30"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
@@ -4975,7 +4975,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
-      <c r="H130" s="50"/>
+      <c r="H130" s="30"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
@@ -5003,7 +5003,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
-      <c r="H131" s="50"/>
+      <c r="H131" s="30"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
@@ -5031,7 +5031,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
-      <c r="H132" s="50"/>
+      <c r="H132" s="30"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
@@ -5059,7 +5059,7 @@
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
-      <c r="H133" s="50"/>
+      <c r="H133" s="30"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
@@ -5087,7 +5087,7 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
-      <c r="H134" s="50"/>
+      <c r="H134" s="30"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
@@ -5115,7 +5115,7 @@
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
-      <c r="H135" s="50"/>
+      <c r="H135" s="30"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
@@ -5143,7 +5143,7 @@
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
-      <c r="H136" s="50"/>
+      <c r="H136" s="30"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
@@ -5171,7 +5171,7 @@
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
-      <c r="H137" s="50"/>
+      <c r="H137" s="30"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
@@ -5199,7 +5199,7 @@
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
-      <c r="H138" s="50"/>
+      <c r="H138" s="30"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
@@ -5227,7 +5227,7 @@
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
-      <c r="H139" s="50"/>
+      <c r="H139" s="30"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
@@ -5255,7 +5255,7 @@
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
-      <c r="H140" s="50"/>
+      <c r="H140" s="30"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
@@ -5283,7 +5283,7 @@
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
-      <c r="H141" s="50"/>
+      <c r="H141" s="30"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
@@ -5311,7 +5311,7 @@
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
-      <c r="H142" s="50"/>
+      <c r="H142" s="30"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
@@ -5339,7 +5339,7 @@
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
-      <c r="H143" s="50"/>
+      <c r="H143" s="30"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
@@ -5367,7 +5367,7 @@
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
-      <c r="H144" s="50"/>
+      <c r="H144" s="30"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
@@ -5395,7 +5395,7 @@
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
-      <c r="H145" s="50"/>
+      <c r="H145" s="30"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
@@ -5423,7 +5423,7 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
-      <c r="H146" s="50"/>
+      <c r="H146" s="30"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
@@ -5451,7 +5451,7 @@
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
-      <c r="H147" s="50"/>
+      <c r="H147" s="30"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
@@ -5479,7 +5479,7 @@
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
-      <c r="H148" s="50"/>
+      <c r="H148" s="30"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
@@ -5507,7 +5507,7 @@
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
-      <c r="H149" s="50"/>
+      <c r="H149" s="30"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
@@ -5535,7 +5535,7 @@
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
-      <c r="H150" s="50"/>
+      <c r="H150" s="30"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
@@ -5563,7 +5563,7 @@
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
-      <c r="H151" s="50"/>
+      <c r="H151" s="30"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
@@ -5591,7 +5591,7 @@
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
-      <c r="H152" s="50"/>
+      <c r="H152" s="30"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
@@ -5619,7 +5619,7 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
-      <c r="H153" s="50"/>
+      <c r="H153" s="30"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
@@ -5647,7 +5647,7 @@
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
-      <c r="H154" s="50"/>
+      <c r="H154" s="30"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
@@ -5675,7 +5675,7 @@
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
-      <c r="H155" s="50"/>
+      <c r="H155" s="30"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
@@ -5703,7 +5703,7 @@
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
-      <c r="H156" s="50"/>
+      <c r="H156" s="30"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
@@ -5731,7 +5731,7 @@
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
-      <c r="H157" s="50"/>
+      <c r="H157" s="30"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
@@ -5759,7 +5759,7 @@
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
-      <c r="H158" s="50"/>
+      <c r="H158" s="30"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
@@ -5787,7 +5787,7 @@
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
-      <c r="H159" s="50"/>
+      <c r="H159" s="30"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
@@ -5815,7 +5815,7 @@
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
-      <c r="H160" s="50"/>
+      <c r="H160" s="30"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
@@ -5843,7 +5843,7 @@
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
-      <c r="H161" s="50"/>
+      <c r="H161" s="30"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
@@ -5871,7 +5871,7 @@
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
-      <c r="H162" s="50"/>
+      <c r="H162" s="30"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
@@ -5899,7 +5899,7 @@
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
-      <c r="H163" s="50"/>
+      <c r="H163" s="30"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
@@ -5927,7 +5927,7 @@
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
-      <c r="H164" s="50"/>
+      <c r="H164" s="30"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
@@ -5955,7 +5955,7 @@
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
-      <c r="H165" s="50"/>
+      <c r="H165" s="30"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
@@ -5983,7 +5983,7 @@
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
-      <c r="H166" s="50"/>
+      <c r="H166" s="30"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
@@ -6011,7 +6011,7 @@
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
-      <c r="H167" s="50"/>
+      <c r="H167" s="30"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
@@ -6039,7 +6039,7 @@
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
-      <c r="H168" s="50"/>
+      <c r="H168" s="30"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
@@ -6067,7 +6067,7 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
-      <c r="H169" s="50"/>
+      <c r="H169" s="30"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
@@ -6095,7 +6095,7 @@
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
-      <c r="H170" s="50"/>
+      <c r="H170" s="30"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
@@ -6123,7 +6123,7 @@
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
-      <c r="H171" s="50"/>
+      <c r="H171" s="30"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
@@ -6151,7 +6151,7 @@
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
-      <c r="H172" s="50"/>
+      <c r="H172" s="30"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
@@ -6179,7 +6179,7 @@
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
-      <c r="H173" s="50"/>
+      <c r="H173" s="30"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
@@ -6207,7 +6207,7 @@
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
-      <c r="H174" s="50"/>
+      <c r="H174" s="30"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
@@ -6235,7 +6235,7 @@
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
-      <c r="H175" s="50"/>
+      <c r="H175" s="30"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
@@ -6263,7 +6263,7 @@
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
-      <c r="H176" s="50"/>
+      <c r="H176" s="30"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
@@ -6291,7 +6291,7 @@
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
-      <c r="H177" s="50"/>
+      <c r="H177" s="30"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
@@ -6319,7 +6319,7 @@
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
-      <c r="H178" s="50"/>
+      <c r="H178" s="30"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
@@ -6347,7 +6347,7 @@
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
-      <c r="H179" s="50"/>
+      <c r="H179" s="30"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
@@ -6375,7 +6375,7 @@
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
-      <c r="H180" s="50"/>
+      <c r="H180" s="30"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
@@ -6403,7 +6403,7 @@
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
-      <c r="H181" s="50"/>
+      <c r="H181" s="30"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
@@ -6431,7 +6431,7 @@
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
-      <c r="H182" s="50"/>
+      <c r="H182" s="30"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
@@ -6459,7 +6459,7 @@
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
-      <c r="H183" s="50"/>
+      <c r="H183" s="30"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
@@ -6487,7 +6487,7 @@
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
-      <c r="H184" s="50"/>
+      <c r="H184" s="30"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
@@ -6515,7 +6515,7 @@
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
-      <c r="H185" s="50"/>
+      <c r="H185" s="30"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
@@ -6543,7 +6543,7 @@
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
-      <c r="H186" s="50"/>
+      <c r="H186" s="30"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
@@ -6571,7 +6571,7 @@
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
-      <c r="H187" s="50"/>
+      <c r="H187" s="30"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
@@ -6599,7 +6599,7 @@
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
-      <c r="H188" s="50"/>
+      <c r="H188" s="30"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
@@ -6627,7 +6627,7 @@
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
-      <c r="H189" s="50"/>
+      <c r="H189" s="30"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
@@ -6655,7 +6655,7 @@
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
-      <c r="H190" s="50"/>
+      <c r="H190" s="30"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
@@ -6683,7 +6683,7 @@
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
-      <c r="H191" s="50"/>
+      <c r="H191" s="30"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
@@ -6711,7 +6711,7 @@
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
-      <c r="H192" s="50"/>
+      <c r="H192" s="30"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
@@ -6739,7 +6739,7 @@
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
-      <c r="H193" s="50"/>
+      <c r="H193" s="30"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
@@ -6767,7 +6767,7 @@
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
-      <c r="H194" s="50"/>
+      <c r="H194" s="30"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
@@ -6795,7 +6795,7 @@
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
-      <c r="H195" s="50"/>
+      <c r="H195" s="30"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
@@ -6823,7 +6823,7 @@
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
-      <c r="H196" s="50"/>
+      <c r="H196" s="30"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
@@ -6851,7 +6851,7 @@
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
-      <c r="H197" s="50"/>
+      <c r="H197" s="30"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
@@ -6879,7 +6879,7 @@
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
-      <c r="H198" s="50"/>
+      <c r="H198" s="30"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
@@ -6907,7 +6907,7 @@
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
-      <c r="H199" s="50"/>
+      <c r="H199" s="30"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
@@ -6935,7 +6935,7 @@
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
-      <c r="H200" s="50"/>
+      <c r="H200" s="30"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
@@ -6963,7 +6963,7 @@
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
-      <c r="H201" s="50"/>
+      <c r="H201" s="30"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
@@ -6991,7 +6991,7 @@
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
-      <c r="H202" s="50"/>
+      <c r="H202" s="30"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
@@ -7019,7 +7019,7 @@
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
-      <c r="H203" s="50"/>
+      <c r="H203" s="30"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
@@ -7047,7 +7047,7 @@
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
-      <c r="H204" s="50"/>
+      <c r="H204" s="30"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
@@ -7075,7 +7075,7 @@
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
-      <c r="H205" s="50"/>
+      <c r="H205" s="30"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
@@ -7103,7 +7103,7 @@
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
-      <c r="H206" s="50"/>
+      <c r="H206" s="30"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
@@ -7131,7 +7131,7 @@
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
-      <c r="H207" s="50"/>
+      <c r="H207" s="30"/>
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
@@ -7159,7 +7159,7 @@
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
-      <c r="H208" s="50"/>
+      <c r="H208" s="30"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
@@ -7187,7 +7187,7 @@
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
-      <c r="H209" s="50"/>
+      <c r="H209" s="30"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
@@ -7215,7 +7215,7 @@
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
-      <c r="H210" s="50"/>
+      <c r="H210" s="30"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
@@ -7243,7 +7243,7 @@
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
-      <c r="H211" s="50"/>
+      <c r="H211" s="30"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
@@ -7271,7 +7271,7 @@
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
-      <c r="H212" s="50"/>
+      <c r="H212" s="30"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
@@ -7299,7 +7299,7 @@
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
-      <c r="H213" s="50"/>
+      <c r="H213" s="30"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
@@ -7327,7 +7327,7 @@
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
-      <c r="H214" s="50"/>
+      <c r="H214" s="30"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
@@ -7355,7 +7355,7 @@
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
-      <c r="H215" s="50"/>
+      <c r="H215" s="30"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
@@ -7383,7 +7383,7 @@
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
-      <c r="H216" s="50"/>
+      <c r="H216" s="30"/>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
@@ -7411,7 +7411,7 @@
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
-      <c r="H217" s="50"/>
+      <c r="H217" s="30"/>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
@@ -7439,7 +7439,7 @@
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
-      <c r="H218" s="50"/>
+      <c r="H218" s="30"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
@@ -7467,7 +7467,7 @@
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
-      <c r="H219" s="50"/>
+      <c r="H219" s="30"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
@@ -7495,7 +7495,7 @@
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
-      <c r="H220" s="50"/>
+      <c r="H220" s="30"/>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
@@ -7523,7 +7523,7 @@
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
-      <c r="H221" s="50"/>
+      <c r="H221" s="30"/>
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
@@ -7551,7 +7551,7 @@
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
-      <c r="H222" s="50"/>
+      <c r="H222" s="30"/>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
@@ -7579,7 +7579,7 @@
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
-      <c r="H223" s="50"/>
+      <c r="H223" s="30"/>
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
@@ -7607,7 +7607,7 @@
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
-      <c r="H224" s="50"/>
+      <c r="H224" s="30"/>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
@@ -7635,7 +7635,7 @@
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
-      <c r="H225" s="50"/>
+      <c r="H225" s="30"/>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
@@ -7663,7 +7663,7 @@
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
-      <c r="H226" s="50"/>
+      <c r="H226" s="30"/>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
@@ -7691,7 +7691,7 @@
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
-      <c r="H227" s="50"/>
+      <c r="H227" s="30"/>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
@@ -7719,7 +7719,7 @@
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
-      <c r="H228" s="50"/>
+      <c r="H228" s="30"/>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
@@ -7747,7 +7747,7 @@
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
-      <c r="H229" s="50"/>
+      <c r="H229" s="30"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
@@ -7775,7 +7775,7 @@
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
-      <c r="H230" s="50"/>
+      <c r="H230" s="30"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
@@ -7803,7 +7803,7 @@
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
-      <c r="H231" s="50"/>
+      <c r="H231" s="30"/>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
@@ -7831,7 +7831,7 @@
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
-      <c r="H232" s="50"/>
+      <c r="H232" s="30"/>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
@@ -7859,7 +7859,7 @@
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
-      <c r="H233" s="50"/>
+      <c r="H233" s="30"/>
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
@@ -7887,7 +7887,7 @@
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
-      <c r="H234" s="50"/>
+      <c r="H234" s="30"/>
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
@@ -7915,7 +7915,7 @@
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
-      <c r="H235" s="50"/>
+      <c r="H235" s="30"/>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
@@ -7943,7 +7943,7 @@
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
-      <c r="H236" s="50"/>
+      <c r="H236" s="30"/>
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
@@ -7971,7 +7971,7 @@
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
-      <c r="H237" s="50"/>
+      <c r="H237" s="30"/>
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
@@ -7999,7 +7999,7 @@
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
-      <c r="H238" s="50"/>
+      <c r="H238" s="30"/>
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
@@ -8027,7 +8027,7 @@
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
-      <c r="H239" s="50"/>
+      <c r="H239" s="30"/>
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
@@ -8055,7 +8055,7 @@
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
-      <c r="H240" s="50"/>
+      <c r="H240" s="30"/>
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
@@ -8083,7 +8083,7 @@
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
-      <c r="H241" s="50"/>
+      <c r="H241" s="30"/>
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
@@ -8111,7 +8111,7 @@
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
-      <c r="H242" s="50"/>
+      <c r="H242" s="30"/>
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
@@ -8139,7 +8139,7 @@
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
-      <c r="H243" s="50"/>
+      <c r="H243" s="30"/>
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
@@ -8167,7 +8167,7 @@
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
-      <c r="H244" s="50"/>
+      <c r="H244" s="30"/>
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
@@ -8195,7 +8195,7 @@
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
-      <c r="H245" s="50"/>
+      <c r="H245" s="30"/>
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
@@ -8223,7 +8223,7 @@
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
-      <c r="H246" s="50"/>
+      <c r="H246" s="30"/>
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
@@ -8251,7 +8251,7 @@
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
-      <c r="H247" s="50"/>
+      <c r="H247" s="30"/>
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
@@ -8279,7 +8279,7 @@
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
-      <c r="H248" s="50"/>
+      <c r="H248" s="30"/>
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
@@ -8307,7 +8307,7 @@
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
-      <c r="H249" s="50"/>
+      <c r="H249" s="30"/>
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
@@ -8335,7 +8335,7 @@
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
-      <c r="H250" s="50"/>
+      <c r="H250" s="30"/>
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
@@ -8363,7 +8363,7 @@
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
-      <c r="H251" s="50"/>
+      <c r="H251" s="30"/>
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
@@ -8391,7 +8391,7 @@
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
-      <c r="H252" s="50"/>
+      <c r="H252" s="30"/>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
@@ -8419,7 +8419,7 @@
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
-      <c r="H253" s="50"/>
+      <c r="H253" s="30"/>
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
@@ -8447,7 +8447,7 @@
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
-      <c r="H254" s="50"/>
+      <c r="H254" s="30"/>
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
@@ -8475,7 +8475,7 @@
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
-      <c r="H255" s="50"/>
+      <c r="H255" s="30"/>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
@@ -8503,7 +8503,7 @@
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
-      <c r="H256" s="50"/>
+      <c r="H256" s="30"/>
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
@@ -8531,7 +8531,7 @@
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
-      <c r="H257" s="50"/>
+      <c r="H257" s="30"/>
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
@@ -8559,7 +8559,7 @@
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
-      <c r="H258" s="50"/>
+      <c r="H258" s="30"/>
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
       <c r="K258" s="1"/>
@@ -8587,7 +8587,7 @@
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
-      <c r="H259" s="50"/>
+      <c r="H259" s="30"/>
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
@@ -8615,7 +8615,7 @@
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
-      <c r="H260" s="50"/>
+      <c r="H260" s="30"/>
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
       <c r="K260" s="1"/>
@@ -8643,7 +8643,7 @@
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
-      <c r="H261" s="50"/>
+      <c r="H261" s="30"/>
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
@@ -8671,7 +8671,7 @@
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
-      <c r="H262" s="50"/>
+      <c r="H262" s="30"/>
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
@@ -8699,7 +8699,7 @@
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
-      <c r="H263" s="50"/>
+      <c r="H263" s="30"/>
       <c r="I263" s="1"/>
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
@@ -8727,7 +8727,7 @@
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
-      <c r="H264" s="50"/>
+      <c r="H264" s="30"/>
       <c r="I264" s="1"/>
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
@@ -8755,7 +8755,7 @@
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
-      <c r="H265" s="50"/>
+      <c r="H265" s="30"/>
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
@@ -8783,7 +8783,7 @@
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
-      <c r="H266" s="50"/>
+      <c r="H266" s="30"/>
       <c r="I266" s="1"/>
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
@@ -8811,7 +8811,7 @@
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
-      <c r="H267" s="50"/>
+      <c r="H267" s="30"/>
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
@@ -8839,7 +8839,7 @@
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
-      <c r="H268" s="50"/>
+      <c r="H268" s="30"/>
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
@@ -8867,7 +8867,7 @@
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
-      <c r="H269" s="50"/>
+      <c r="H269" s="30"/>
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
@@ -8895,7 +8895,7 @@
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
-      <c r="H270" s="50"/>
+      <c r="H270" s="30"/>
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
       <c r="K270" s="1"/>
@@ -8923,7 +8923,7 @@
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
-      <c r="H271" s="50"/>
+      <c r="H271" s="30"/>
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
       <c r="K271" s="1"/>
@@ -8951,7 +8951,7 @@
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
-      <c r="H272" s="50"/>
+      <c r="H272" s="30"/>
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
       <c r="K272" s="1"/>
@@ -8979,7 +8979,7 @@
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
-      <c r="H273" s="50"/>
+      <c r="H273" s="30"/>
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
@@ -9007,7 +9007,7 @@
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
-      <c r="H274" s="50"/>
+      <c r="H274" s="30"/>
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
@@ -9035,7 +9035,7 @@
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
-      <c r="H275" s="50"/>
+      <c r="H275" s="30"/>
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
@@ -9063,7 +9063,7 @@
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
-      <c r="H276" s="50"/>
+      <c r="H276" s="30"/>
       <c r="I276" s="1"/>
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
@@ -9091,7 +9091,7 @@
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
-      <c r="H277" s="50"/>
+      <c r="H277" s="30"/>
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
@@ -9119,7 +9119,7 @@
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
-      <c r="H278" s="50"/>
+      <c r="H278" s="30"/>
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
       <c r="K278" s="1"/>
@@ -9147,7 +9147,7 @@
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
-      <c r="H279" s="50"/>
+      <c r="H279" s="30"/>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
@@ -9175,7 +9175,7 @@
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
-      <c r="H280" s="50"/>
+      <c r="H280" s="30"/>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
@@ -9203,7 +9203,7 @@
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
-      <c r="H281" s="50"/>
+      <c r="H281" s="30"/>
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
@@ -9231,7 +9231,7 @@
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
-      <c r="H282" s="50"/>
+      <c r="H282" s="30"/>
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
@@ -9259,7 +9259,7 @@
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
-      <c r="H283" s="50"/>
+      <c r="H283" s="30"/>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
@@ -9287,7 +9287,7 @@
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
-      <c r="H284" s="50"/>
+      <c r="H284" s="30"/>
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
       <c r="K284" s="1"/>
@@ -9315,7 +9315,7 @@
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
-      <c r="H285" s="50"/>
+      <c r="H285" s="30"/>
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
@@ -9343,7 +9343,7 @@
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
-      <c r="H286" s="50"/>
+      <c r="H286" s="30"/>
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
@@ -9371,7 +9371,7 @@
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
-      <c r="H287" s="50"/>
+      <c r="H287" s="30"/>
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
       <c r="K287" s="1"/>
@@ -9399,7 +9399,7 @@
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
-      <c r="H288" s="50"/>
+      <c r="H288" s="30"/>
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
       <c r="K288" s="1"/>
@@ -9427,7 +9427,7 @@
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
-      <c r="H289" s="50"/>
+      <c r="H289" s="30"/>
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
@@ -9455,7 +9455,7 @@
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
-      <c r="H290" s="50"/>
+      <c r="H290" s="30"/>
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
@@ -9483,7 +9483,7 @@
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
-      <c r="H291" s="50"/>
+      <c r="H291" s="30"/>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
       <c r="K291" s="1"/>
@@ -9511,7 +9511,7 @@
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
-      <c r="H292" s="50"/>
+      <c r="H292" s="30"/>
       <c r="I292" s="1"/>
       <c r="J292" s="1"/>
       <c r="K292" s="1"/>
@@ -9539,7 +9539,7 @@
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
-      <c r="H293" s="50"/>
+      <c r="H293" s="30"/>
       <c r="I293" s="1"/>
       <c r="J293" s="1"/>
       <c r="K293" s="1"/>
@@ -9567,7 +9567,7 @@
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
-      <c r="H294" s="50"/>
+      <c r="H294" s="30"/>
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
       <c r="K294" s="1"/>
@@ -9595,7 +9595,7 @@
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
-      <c r="H295" s="50"/>
+      <c r="H295" s="30"/>
       <c r="I295" s="1"/>
       <c r="J295" s="1"/>
       <c r="K295" s="1"/>
@@ -9623,7 +9623,7 @@
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
-      <c r="H296" s="50"/>
+      <c r="H296" s="30"/>
       <c r="I296" s="1"/>
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
@@ -9651,7 +9651,7 @@
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
-      <c r="H297" s="50"/>
+      <c r="H297" s="30"/>
       <c r="I297" s="1"/>
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
@@ -9679,7 +9679,7 @@
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
-      <c r="H298" s="50"/>
+      <c r="H298" s="30"/>
       <c r="I298" s="1"/>
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
@@ -9707,7 +9707,7 @@
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
-      <c r="H299" s="50"/>
+      <c r="H299" s="30"/>
       <c r="I299" s="1"/>
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
@@ -9735,7 +9735,7 @@
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
-      <c r="H300" s="50"/>
+      <c r="H300" s="30"/>
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
       <c r="K300" s="1"/>
@@ -9763,7 +9763,7 @@
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
-      <c r="H301" s="50"/>
+      <c r="H301" s="30"/>
       <c r="I301" s="1"/>
       <c r="J301" s="1"/>
       <c r="K301" s="1"/>
@@ -9791,7 +9791,7 @@
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
-      <c r="H302" s="50"/>
+      <c r="H302" s="30"/>
       <c r="I302" s="1"/>
       <c r="J302" s="1"/>
       <c r="K302" s="1"/>
@@ -9819,7 +9819,7 @@
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
-      <c r="H303" s="50"/>
+      <c r="H303" s="30"/>
       <c r="I303" s="1"/>
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
@@ -9847,7 +9847,7 @@
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
-      <c r="H304" s="50"/>
+      <c r="H304" s="30"/>
       <c r="I304" s="1"/>
       <c r="J304" s="1"/>
       <c r="K304" s="1"/>
@@ -9875,7 +9875,7 @@
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
-      <c r="H305" s="50"/>
+      <c r="H305" s="30"/>
       <c r="I305" s="1"/>
       <c r="J305" s="1"/>
       <c r="K305" s="1"/>
@@ -9903,7 +9903,7 @@
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
-      <c r="H306" s="50"/>
+      <c r="H306" s="30"/>
       <c r="I306" s="1"/>
       <c r="J306" s="1"/>
       <c r="K306" s="1"/>
@@ -9931,7 +9931,7 @@
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
-      <c r="H307" s="50"/>
+      <c r="H307" s="30"/>
       <c r="I307" s="1"/>
       <c r="J307" s="1"/>
       <c r="K307" s="1"/>
@@ -9959,7 +9959,7 @@
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
-      <c r="H308" s="50"/>
+      <c r="H308" s="30"/>
       <c r="I308" s="1"/>
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
@@ -9987,7 +9987,7 @@
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
-      <c r="H309" s="50"/>
+      <c r="H309" s="30"/>
       <c r="I309" s="1"/>
       <c r="J309" s="1"/>
       <c r="K309" s="1"/>
@@ -10015,7 +10015,7 @@
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
-      <c r="H310" s="50"/>
+      <c r="H310" s="30"/>
       <c r="I310" s="1"/>
       <c r="J310" s="1"/>
       <c r="K310" s="1"/>
@@ -10043,7 +10043,7 @@
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
-      <c r="H311" s="50"/>
+      <c r="H311" s="30"/>
       <c r="I311" s="1"/>
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
@@ -10071,7 +10071,7 @@
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
-      <c r="H312" s="50"/>
+      <c r="H312" s="30"/>
       <c r="I312" s="1"/>
       <c r="J312" s="1"/>
       <c r="K312" s="1"/>
@@ -10099,7 +10099,7 @@
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
-      <c r="H313" s="50"/>
+      <c r="H313" s="30"/>
       <c r="I313" s="1"/>
       <c r="J313" s="1"/>
       <c r="K313" s="1"/>
@@ -10127,7 +10127,7 @@
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
-      <c r="H314" s="50"/>
+      <c r="H314" s="30"/>
       <c r="I314" s="1"/>
       <c r="J314" s="1"/>
       <c r="K314" s="1"/>
@@ -10155,7 +10155,7 @@
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
-      <c r="H315" s="50"/>
+      <c r="H315" s="30"/>
       <c r="I315" s="1"/>
       <c r="J315" s="1"/>
       <c r="K315" s="1"/>
@@ -10183,7 +10183,7 @@
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
-      <c r="H316" s="50"/>
+      <c r="H316" s="30"/>
       <c r="I316" s="1"/>
       <c r="J316" s="1"/>
       <c r="K316" s="1"/>
@@ -10211,7 +10211,7 @@
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
-      <c r="H317" s="50"/>
+      <c r="H317" s="30"/>
       <c r="I317" s="1"/>
       <c r="J317" s="1"/>
       <c r="K317" s="1"/>
@@ -10239,7 +10239,7 @@
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
-      <c r="H318" s="50"/>
+      <c r="H318" s="30"/>
       <c r="I318" s="1"/>
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
@@ -10267,7 +10267,7 @@
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
-      <c r="H319" s="50"/>
+      <c r="H319" s="30"/>
       <c r="I319" s="1"/>
       <c r="J319" s="1"/>
       <c r="K319" s="1"/>
@@ -10295,7 +10295,7 @@
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
-      <c r="H320" s="50"/>
+      <c r="H320" s="30"/>
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
       <c r="K320" s="1"/>
@@ -10323,7 +10323,7 @@
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
-      <c r="H321" s="50"/>
+      <c r="H321" s="30"/>
       <c r="I321" s="1"/>
       <c r="J321" s="1"/>
       <c r="K321" s="1"/>
@@ -10351,7 +10351,7 @@
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
-      <c r="H322" s="50"/>
+      <c r="H322" s="30"/>
       <c r="I322" s="1"/>
       <c r="J322" s="1"/>
       <c r="K322" s="1"/>
@@ -10379,7 +10379,7 @@
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
-      <c r="H323" s="50"/>
+      <c r="H323" s="30"/>
       <c r="I323" s="1"/>
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
@@ -10407,7 +10407,7 @@
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
-      <c r="H324" s="50"/>
+      <c r="H324" s="30"/>
       <c r="I324" s="1"/>
       <c r="J324" s="1"/>
       <c r="K324" s="1"/>
@@ -10435,7 +10435,7 @@
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
-      <c r="H325" s="50"/>
+      <c r="H325" s="30"/>
       <c r="I325" s="1"/>
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
@@ -10463,7 +10463,7 @@
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
-      <c r="H326" s="50"/>
+      <c r="H326" s="30"/>
       <c r="I326" s="1"/>
       <c r="J326" s="1"/>
       <c r="K326" s="1"/>
@@ -10491,7 +10491,7 @@
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
-      <c r="H327" s="50"/>
+      <c r="H327" s="30"/>
       <c r="I327" s="1"/>
       <c r="J327" s="1"/>
       <c r="K327" s="1"/>
@@ -10519,7 +10519,7 @@
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
-      <c r="H328" s="50"/>
+      <c r="H328" s="30"/>
       <c r="I328" s="1"/>
       <c r="J328" s="1"/>
       <c r="K328" s="1"/>
@@ -10547,7 +10547,7 @@
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
-      <c r="H329" s="50"/>
+      <c r="H329" s="30"/>
       <c r="I329" s="1"/>
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
@@ -10575,7 +10575,7 @@
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
-      <c r="H330" s="50"/>
+      <c r="H330" s="30"/>
       <c r="I330" s="1"/>
       <c r="J330" s="1"/>
       <c r="K330" s="1"/>
@@ -10603,7 +10603,7 @@
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
-      <c r="H331" s="50"/>
+      <c r="H331" s="30"/>
       <c r="I331" s="1"/>
       <c r="J331" s="1"/>
       <c r="K331" s="1"/>
@@ -10631,7 +10631,7 @@
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
-      <c r="H332" s="50"/>
+      <c r="H332" s="30"/>
       <c r="I332" s="1"/>
       <c r="J332" s="1"/>
       <c r="K332" s="1"/>
@@ -10659,7 +10659,7 @@
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
-      <c r="H333" s="50"/>
+      <c r="H333" s="30"/>
       <c r="I333" s="1"/>
       <c r="J333" s="1"/>
       <c r="K333" s="1"/>
@@ -10687,7 +10687,7 @@
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
-      <c r="H334" s="50"/>
+      <c r="H334" s="30"/>
       <c r="I334" s="1"/>
       <c r="J334" s="1"/>
       <c r="K334" s="1"/>
@@ -10715,7 +10715,7 @@
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
-      <c r="H335" s="50"/>
+      <c r="H335" s="30"/>
       <c r="I335" s="1"/>
       <c r="J335" s="1"/>
       <c r="K335" s="1"/>
@@ -10743,7 +10743,7 @@
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
-      <c r="H336" s="50"/>
+      <c r="H336" s="30"/>
       <c r="I336" s="1"/>
       <c r="J336" s="1"/>
       <c r="K336" s="1"/>
@@ -10771,7 +10771,7 @@
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
-      <c r="H337" s="50"/>
+      <c r="H337" s="30"/>
       <c r="I337" s="1"/>
       <c r="J337" s="1"/>
       <c r="K337" s="1"/>
@@ -10799,7 +10799,7 @@
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
-      <c r="H338" s="50"/>
+      <c r="H338" s="30"/>
       <c r="I338" s="1"/>
       <c r="J338" s="1"/>
       <c r="K338" s="1"/>
@@ -10827,7 +10827,7 @@
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
-      <c r="H339" s="50"/>
+      <c r="H339" s="30"/>
       <c r="I339" s="1"/>
       <c r="J339" s="1"/>
       <c r="K339" s="1"/>
@@ -10855,7 +10855,7 @@
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
-      <c r="H340" s="50"/>
+      <c r="H340" s="30"/>
       <c r="I340" s="1"/>
       <c r="J340" s="1"/>
       <c r="K340" s="1"/>
@@ -10883,7 +10883,7 @@
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
-      <c r="H341" s="50"/>
+      <c r="H341" s="30"/>
       <c r="I341" s="1"/>
       <c r="J341" s="1"/>
       <c r="K341" s="1"/>
@@ -10911,7 +10911,7 @@
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
-      <c r="H342" s="50"/>
+      <c r="H342" s="30"/>
       <c r="I342" s="1"/>
       <c r="J342" s="1"/>
       <c r="K342" s="1"/>
@@ -10939,7 +10939,7 @@
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
-      <c r="H343" s="50"/>
+      <c r="H343" s="30"/>
       <c r="I343" s="1"/>
       <c r="J343" s="1"/>
       <c r="K343" s="1"/>
@@ -10967,7 +10967,7 @@
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
-      <c r="H344" s="50"/>
+      <c r="H344" s="30"/>
       <c r="I344" s="1"/>
       <c r="J344" s="1"/>
       <c r="K344" s="1"/>
@@ -10995,7 +10995,7 @@
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
-      <c r="H345" s="50"/>
+      <c r="H345" s="30"/>
       <c r="I345" s="1"/>
       <c r="J345" s="1"/>
       <c r="K345" s="1"/>
@@ -11023,7 +11023,7 @@
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
-      <c r="H346" s="50"/>
+      <c r="H346" s="30"/>
       <c r="I346" s="1"/>
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
@@ -11051,7 +11051,7 @@
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
-      <c r="H347" s="50"/>
+      <c r="H347" s="30"/>
       <c r="I347" s="1"/>
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
@@ -11079,7 +11079,7 @@
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
-      <c r="H348" s="50"/>
+      <c r="H348" s="30"/>
       <c r="I348" s="1"/>
       <c r="J348" s="1"/>
       <c r="K348" s="1"/>
@@ -11107,7 +11107,7 @@
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
-      <c r="H349" s="50"/>
+      <c r="H349" s="30"/>
       <c r="I349" s="1"/>
       <c r="J349" s="1"/>
       <c r="K349" s="1"/>
@@ -11135,7 +11135,7 @@
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
-      <c r="H350" s="50"/>
+      <c r="H350" s="30"/>
       <c r="I350" s="1"/>
       <c r="J350" s="1"/>
       <c r="K350" s="1"/>
@@ -11163,7 +11163,7 @@
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
-      <c r="H351" s="50"/>
+      <c r="H351" s="30"/>
       <c r="I351" s="1"/>
       <c r="J351" s="1"/>
       <c r="K351" s="1"/>
@@ -11191,7 +11191,7 @@
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
-      <c r="H352" s="50"/>
+      <c r="H352" s="30"/>
       <c r="I352" s="1"/>
       <c r="J352" s="1"/>
       <c r="K352" s="1"/>
@@ -11219,7 +11219,7 @@
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
-      <c r="H353" s="50"/>
+      <c r="H353" s="30"/>
       <c r="I353" s="1"/>
       <c r="J353" s="1"/>
       <c r="K353" s="1"/>
@@ -11247,7 +11247,7 @@
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
-      <c r="H354" s="50"/>
+      <c r="H354" s="30"/>
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
       <c r="K354" s="1"/>
@@ -11275,7 +11275,7 @@
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
-      <c r="H355" s="50"/>
+      <c r="H355" s="30"/>
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
       <c r="K355" s="1"/>
@@ -11303,7 +11303,7 @@
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
-      <c r="H356" s="50"/>
+      <c r="H356" s="30"/>
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
       <c r="K356" s="1"/>
@@ -11331,7 +11331,7 @@
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
-      <c r="H357" s="50"/>
+      <c r="H357" s="30"/>
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
       <c r="K357" s="1"/>
@@ -11359,7 +11359,7 @@
       <c r="E358" s="1"/>
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
-      <c r="H358" s="50"/>
+      <c r="H358" s="30"/>
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
       <c r="K358" s="1"/>
@@ -11387,7 +11387,7 @@
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
-      <c r="H359" s="50"/>
+      <c r="H359" s="30"/>
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
       <c r="K359" s="1"/>
@@ -11415,7 +11415,7 @@
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
-      <c r="H360" s="50"/>
+      <c r="H360" s="30"/>
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
       <c r="K360" s="1"/>
@@ -11443,7 +11443,7 @@
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
-      <c r="H361" s="50"/>
+      <c r="H361" s="30"/>
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
       <c r="K361" s="1"/>
@@ -11471,7 +11471,7 @@
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
-      <c r="H362" s="50"/>
+      <c r="H362" s="30"/>
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
       <c r="K362" s="1"/>
@@ -11499,7 +11499,7 @@
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
-      <c r="H363" s="50"/>
+      <c r="H363" s="30"/>
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
       <c r="K363" s="1"/>
@@ -11527,7 +11527,7 @@
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
       <c r="G364" s="1"/>
-      <c r="H364" s="50"/>
+      <c r="H364" s="30"/>
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
       <c r="K364" s="1"/>
@@ -11555,7 +11555,7 @@
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
-      <c r="H365" s="50"/>
+      <c r="H365" s="30"/>
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
       <c r="K365" s="1"/>
@@ -11583,7 +11583,7 @@
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
       <c r="G366" s="1"/>
-      <c r="H366" s="50"/>
+      <c r="H366" s="30"/>
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
       <c r="K366" s="1"/>
@@ -11611,7 +11611,7 @@
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
-      <c r="H367" s="50"/>
+      <c r="H367" s="30"/>
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
       <c r="K367" s="1"/>
@@ -11639,7 +11639,7 @@
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
       <c r="G368" s="1"/>
-      <c r="H368" s="50"/>
+      <c r="H368" s="30"/>
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
       <c r="K368" s="1"/>
@@ -11667,7 +11667,7 @@
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
       <c r="G369" s="1"/>
-      <c r="H369" s="50"/>
+      <c r="H369" s="30"/>
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
       <c r="K369" s="1"/>
@@ -11695,7 +11695,7 @@
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
       <c r="G370" s="1"/>
-      <c r="H370" s="50"/>
+      <c r="H370" s="30"/>
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
       <c r="K370" s="1"/>
@@ -11723,7 +11723,7 @@
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
-      <c r="H371" s="50"/>
+      <c r="H371" s="30"/>
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
       <c r="K371" s="1"/>
@@ -11751,7 +11751,7 @@
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
-      <c r="H372" s="50"/>
+      <c r="H372" s="30"/>
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
       <c r="K372" s="1"/>
@@ -11779,7 +11779,7 @@
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
-      <c r="H373" s="50"/>
+      <c r="H373" s="30"/>
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
       <c r="K373" s="1"/>
@@ -11807,7 +11807,7 @@
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
       <c r="G374" s="1"/>
-      <c r="H374" s="50"/>
+      <c r="H374" s="30"/>
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
       <c r="K374" s="1"/>
@@ -11835,7 +11835,7 @@
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
-      <c r="H375" s="50"/>
+      <c r="H375" s="30"/>
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
       <c r="K375" s="1"/>
@@ -11863,7 +11863,7 @@
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
       <c r="G376" s="1"/>
-      <c r="H376" s="50"/>
+      <c r="H376" s="30"/>
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
       <c r="K376" s="1"/>
@@ -11891,7 +11891,7 @@
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
-      <c r="H377" s="50"/>
+      <c r="H377" s="30"/>
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
       <c r="K377" s="1"/>
@@ -11919,7 +11919,7 @@
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
       <c r="G378" s="1"/>
-      <c r="H378" s="50"/>
+      <c r="H378" s="30"/>
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
       <c r="K378" s="1"/>
@@ -11947,7 +11947,7 @@
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
-      <c r="H379" s="50"/>
+      <c r="H379" s="30"/>
       <c r="I379" s="1"/>
       <c r="J379" s="1"/>
       <c r="K379" s="1"/>
@@ -11975,7 +11975,7 @@
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
       <c r="G380" s="1"/>
-      <c r="H380" s="50"/>
+      <c r="H380" s="30"/>
       <c r="I380" s="1"/>
       <c r="J380" s="1"/>
       <c r="K380" s="1"/>
@@ -12003,7 +12003,7 @@
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
       <c r="G381" s="1"/>
-      <c r="H381" s="50"/>
+      <c r="H381" s="30"/>
       <c r="I381" s="1"/>
       <c r="J381" s="1"/>
       <c r="K381" s="1"/>
@@ -12031,7 +12031,7 @@
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
       <c r="G382" s="1"/>
-      <c r="H382" s="50"/>
+      <c r="H382" s="30"/>
       <c r="I382" s="1"/>
       <c r="J382" s="1"/>
       <c r="K382" s="1"/>
@@ -12059,7 +12059,7 @@
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
       <c r="G383" s="1"/>
-      <c r="H383" s="50"/>
+      <c r="H383" s="30"/>
       <c r="I383" s="1"/>
       <c r="J383" s="1"/>
       <c r="K383" s="1"/>
@@ -12087,7 +12087,7 @@
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
       <c r="G384" s="1"/>
-      <c r="H384" s="50"/>
+      <c r="H384" s="30"/>
       <c r="I384" s="1"/>
       <c r="J384" s="1"/>
       <c r="K384" s="1"/>
@@ -12115,7 +12115,7 @@
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
       <c r="G385" s="1"/>
-      <c r="H385" s="50"/>
+      <c r="H385" s="30"/>
       <c r="I385" s="1"/>
       <c r="J385" s="1"/>
       <c r="K385" s="1"/>
@@ -12143,7 +12143,7 @@
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
       <c r="G386" s="1"/>
-      <c r="H386" s="50"/>
+      <c r="H386" s="30"/>
       <c r="I386" s="1"/>
       <c r="J386" s="1"/>
       <c r="K386" s="1"/>
@@ -12171,7 +12171,7 @@
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
       <c r="G387" s="1"/>
-      <c r="H387" s="50"/>
+      <c r="H387" s="30"/>
       <c r="I387" s="1"/>
       <c r="J387" s="1"/>
       <c r="K387" s="1"/>
@@ -12199,7 +12199,7 @@
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
       <c r="G388" s="1"/>
-      <c r="H388" s="50"/>
+      <c r="H388" s="30"/>
       <c r="I388" s="1"/>
       <c r="J388" s="1"/>
       <c r="K388" s="1"/>
@@ -12227,7 +12227,7 @@
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
       <c r="G389" s="1"/>
-      <c r="H389" s="50"/>
+      <c r="H389" s="30"/>
       <c r="I389" s="1"/>
       <c r="J389" s="1"/>
       <c r="K389" s="1"/>
@@ -12255,7 +12255,7 @@
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
-      <c r="H390" s="50"/>
+      <c r="H390" s="30"/>
       <c r="I390" s="1"/>
       <c r="J390" s="1"/>
       <c r="K390" s="1"/>
@@ -12283,7 +12283,7 @@
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
-      <c r="H391" s="50"/>
+      <c r="H391" s="30"/>
       <c r="I391" s="1"/>
       <c r="J391" s="1"/>
       <c r="K391" s="1"/>
@@ -12311,7 +12311,7 @@
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
-      <c r="H392" s="50"/>
+      <c r="H392" s="30"/>
       <c r="I392" s="1"/>
       <c r="J392" s="1"/>
       <c r="K392" s="1"/>
@@ -12339,7 +12339,7 @@
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
-      <c r="H393" s="50"/>
+      <c r="H393" s="30"/>
       <c r="I393" s="1"/>
       <c r="J393" s="1"/>
       <c r="K393" s="1"/>
@@ -12367,7 +12367,7 @@
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
       <c r="G394" s="1"/>
-      <c r="H394" s="50"/>
+      <c r="H394" s="30"/>
       <c r="I394" s="1"/>
       <c r="J394" s="1"/>
       <c r="K394" s="1"/>
@@ -12395,7 +12395,7 @@
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
-      <c r="H395" s="50"/>
+      <c r="H395" s="30"/>
       <c r="I395" s="1"/>
       <c r="J395" s="1"/>
       <c r="K395" s="1"/>
@@ -12423,7 +12423,7 @@
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
       <c r="G396" s="1"/>
-      <c r="H396" s="50"/>
+      <c r="H396" s="30"/>
       <c r="I396" s="1"/>
       <c r="J396" s="1"/>
       <c r="K396" s="1"/>
@@ -12451,7 +12451,7 @@
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
       <c r="G397" s="1"/>
-      <c r="H397" s="50"/>
+      <c r="H397" s="30"/>
       <c r="I397" s="1"/>
       <c r="J397" s="1"/>
       <c r="K397" s="1"/>
@@ -12479,7 +12479,7 @@
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
       <c r="G398" s="1"/>
-      <c r="H398" s="50"/>
+      <c r="H398" s="30"/>
       <c r="I398" s="1"/>
       <c r="J398" s="1"/>
       <c r="K398" s="1"/>
@@ -12507,7 +12507,7 @@
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
       <c r="G399" s="1"/>
-      <c r="H399" s="50"/>
+      <c r="H399" s="30"/>
       <c r="I399" s="1"/>
       <c r="J399" s="1"/>
       <c r="K399" s="1"/>
@@ -12535,7 +12535,7 @@
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
       <c r="G400" s="1"/>
-      <c r="H400" s="50"/>
+      <c r="H400" s="30"/>
       <c r="I400" s="1"/>
       <c r="J400" s="1"/>
       <c r="K400" s="1"/>
@@ -12563,7 +12563,7 @@
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
       <c r="G401" s="1"/>
-      <c r="H401" s="50"/>
+      <c r="H401" s="30"/>
       <c r="I401" s="1"/>
       <c r="J401" s="1"/>
       <c r="K401" s="1"/>
@@ -12591,7 +12591,7 @@
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
       <c r="G402" s="1"/>
-      <c r="H402" s="50"/>
+      <c r="H402" s="30"/>
       <c r="I402" s="1"/>
       <c r="J402" s="1"/>
       <c r="K402" s="1"/>
@@ -12619,7 +12619,7 @@
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
       <c r="G403" s="1"/>
-      <c r="H403" s="50"/>
+      <c r="H403" s="30"/>
       <c r="I403" s="1"/>
       <c r="J403" s="1"/>
       <c r="K403" s="1"/>
@@ -12647,7 +12647,7 @@
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
       <c r="G404" s="1"/>
-      <c r="H404" s="50"/>
+      <c r="H404" s="30"/>
       <c r="I404" s="1"/>
       <c r="J404" s="1"/>
       <c r="K404" s="1"/>
@@ -12675,7 +12675,7 @@
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
       <c r="G405" s="1"/>
-      <c r="H405" s="50"/>
+      <c r="H405" s="30"/>
       <c r="I405" s="1"/>
       <c r="J405" s="1"/>
       <c r="K405" s="1"/>
@@ -12703,7 +12703,7 @@
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
       <c r="G406" s="1"/>
-      <c r="H406" s="50"/>
+      <c r="H406" s="30"/>
       <c r="I406" s="1"/>
       <c r="J406" s="1"/>
       <c r="K406" s="1"/>
@@ -12731,7 +12731,7 @@
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
       <c r="G407" s="1"/>
-      <c r="H407" s="50"/>
+      <c r="H407" s="30"/>
       <c r="I407" s="1"/>
       <c r="J407" s="1"/>
       <c r="K407" s="1"/>
@@ -12759,7 +12759,7 @@
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
       <c r="G408" s="1"/>
-      <c r="H408" s="50"/>
+      <c r="H408" s="30"/>
       <c r="I408" s="1"/>
       <c r="J408" s="1"/>
       <c r="K408" s="1"/>
@@ -12787,7 +12787,7 @@
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
       <c r="G409" s="1"/>
-      <c r="H409" s="50"/>
+      <c r="H409" s="30"/>
       <c r="I409" s="1"/>
       <c r="J409" s="1"/>
       <c r="K409" s="1"/>
@@ -12815,7 +12815,7 @@
       <c r="E410" s="1"/>
       <c r="F410" s="1"/>
       <c r="G410" s="1"/>
-      <c r="H410" s="50"/>
+      <c r="H410" s="30"/>
       <c r="I410" s="1"/>
       <c r="J410" s="1"/>
       <c r="K410" s="1"/>
@@ -12843,7 +12843,7 @@
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
       <c r="G411" s="1"/>
-      <c r="H411" s="50"/>
+      <c r="H411" s="30"/>
       <c r="I411" s="1"/>
       <c r="J411" s="1"/>
       <c r="K411" s="1"/>
@@ -12871,7 +12871,7 @@
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
       <c r="G412" s="1"/>
-      <c r="H412" s="50"/>
+      <c r="H412" s="30"/>
       <c r="I412" s="1"/>
       <c r="J412" s="1"/>
       <c r="K412" s="1"/>
@@ -12899,7 +12899,7 @@
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
       <c r="G413" s="1"/>
-      <c r="H413" s="50"/>
+      <c r="H413" s="30"/>
       <c r="I413" s="1"/>
       <c r="J413" s="1"/>
       <c r="K413" s="1"/>
@@ -12927,7 +12927,7 @@
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
       <c r="G414" s="1"/>
-      <c r="H414" s="50"/>
+      <c r="H414" s="30"/>
       <c r="I414" s="1"/>
       <c r="J414" s="1"/>
       <c r="K414" s="1"/>
@@ -12955,7 +12955,7 @@
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
       <c r="G415" s="1"/>
-      <c r="H415" s="50"/>
+      <c r="H415" s="30"/>
       <c r="I415" s="1"/>
       <c r="J415" s="1"/>
       <c r="K415" s="1"/>
@@ -12983,7 +12983,7 @@
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
       <c r="G416" s="1"/>
-      <c r="H416" s="50"/>
+      <c r="H416" s="30"/>
       <c r="I416" s="1"/>
       <c r="J416" s="1"/>
       <c r="K416" s="1"/>
@@ -13011,7 +13011,7 @@
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
       <c r="G417" s="1"/>
-      <c r="H417" s="50"/>
+      <c r="H417" s="30"/>
       <c r="I417" s="1"/>
       <c r="J417" s="1"/>
       <c r="K417" s="1"/>
@@ -13039,7 +13039,7 @@
       <c r="E418" s="1"/>
       <c r="F418" s="1"/>
       <c r="G418" s="1"/>
-      <c r="H418" s="50"/>
+      <c r="H418" s="30"/>
       <c r="I418" s="1"/>
       <c r="J418" s="1"/>
       <c r="K418" s="1"/>
@@ -13067,7 +13067,7 @@
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
       <c r="G419" s="1"/>
-      <c r="H419" s="50"/>
+      <c r="H419" s="30"/>
       <c r="I419" s="1"/>
       <c r="J419" s="1"/>
       <c r="K419" s="1"/>
@@ -13095,7 +13095,7 @@
       <c r="E420" s="1"/>
       <c r="F420" s="1"/>
       <c r="G420" s="1"/>
-      <c r="H420" s="50"/>
+      <c r="H420" s="30"/>
       <c r="I420" s="1"/>
       <c r="J420" s="1"/>
       <c r="K420" s="1"/>
@@ -13123,7 +13123,7 @@
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
       <c r="G421" s="1"/>
-      <c r="H421" s="50"/>
+      <c r="H421" s="30"/>
       <c r="I421" s="1"/>
       <c r="J421" s="1"/>
       <c r="K421" s="1"/>
@@ -13151,7 +13151,7 @@
       <c r="E422" s="1"/>
       <c r="F422" s="1"/>
       <c r="G422" s="1"/>
-      <c r="H422" s="50"/>
+      <c r="H422" s="30"/>
       <c r="I422" s="1"/>
       <c r="J422" s="1"/>
       <c r="K422" s="1"/>
@@ -13179,7 +13179,7 @@
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
       <c r="G423" s="1"/>
-      <c r="H423" s="50"/>
+      <c r="H423" s="30"/>
       <c r="I423" s="1"/>
       <c r="J423" s="1"/>
       <c r="K423" s="1"/>
@@ -13207,7 +13207,7 @@
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
       <c r="G424" s="1"/>
-      <c r="H424" s="50"/>
+      <c r="H424" s="30"/>
       <c r="I424" s="1"/>
       <c r="J424" s="1"/>
       <c r="K424" s="1"/>
@@ -13235,7 +13235,7 @@
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
       <c r="G425" s="1"/>
-      <c r="H425" s="50"/>
+      <c r="H425" s="30"/>
       <c r="I425" s="1"/>
       <c r="J425" s="1"/>
       <c r="K425" s="1"/>
@@ -13263,7 +13263,7 @@
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
       <c r="G426" s="1"/>
-      <c r="H426" s="50"/>
+      <c r="H426" s="30"/>
       <c r="I426" s="1"/>
       <c r="J426" s="1"/>
       <c r="K426" s="1"/>
@@ -13291,7 +13291,7 @@
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
       <c r="G427" s="1"/>
-      <c r="H427" s="50"/>
+      <c r="H427" s="30"/>
       <c r="I427" s="1"/>
       <c r="J427" s="1"/>
       <c r="K427" s="1"/>
@@ -13319,7 +13319,7 @@
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
       <c r="G428" s="1"/>
-      <c r="H428" s="50"/>
+      <c r="H428" s="30"/>
       <c r="I428" s="1"/>
       <c r="J428" s="1"/>
       <c r="K428" s="1"/>
@@ -13347,7 +13347,7 @@
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
       <c r="G429" s="1"/>
-      <c r="H429" s="50"/>
+      <c r="H429" s="30"/>
       <c r="I429" s="1"/>
       <c r="J429" s="1"/>
       <c r="K429" s="1"/>
@@ -13375,7 +13375,7 @@
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
       <c r="G430" s="1"/>
-      <c r="H430" s="50"/>
+      <c r="H430" s="30"/>
       <c r="I430" s="1"/>
       <c r="J430" s="1"/>
       <c r="K430" s="1"/>
@@ -13403,7 +13403,7 @@
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
       <c r="G431" s="1"/>
-      <c r="H431" s="50"/>
+      <c r="H431" s="30"/>
       <c r="I431" s="1"/>
       <c r="J431" s="1"/>
       <c r="K431" s="1"/>
@@ -13431,7 +13431,7 @@
       <c r="E432" s="1"/>
       <c r="F432" s="1"/>
       <c r="G432" s="1"/>
-      <c r="H432" s="50"/>
+      <c r="H432" s="30"/>
       <c r="I432" s="1"/>
       <c r="J432" s="1"/>
       <c r="K432" s="1"/>
@@ -13459,7 +13459,7 @@
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
       <c r="G433" s="1"/>
-      <c r="H433" s="50"/>
+      <c r="H433" s="30"/>
       <c r="I433" s="1"/>
       <c r="J433" s="1"/>
       <c r="K433" s="1"/>
@@ -13487,7 +13487,7 @@
       <c r="E434" s="1"/>
       <c r="F434" s="1"/>
       <c r="G434" s="1"/>
-      <c r="H434" s="50"/>
+      <c r="H434" s="30"/>
       <c r="I434" s="1"/>
       <c r="J434" s="1"/>
       <c r="K434" s="1"/>
@@ -13515,7 +13515,7 @@
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
       <c r="G435" s="1"/>
-      <c r="H435" s="50"/>
+      <c r="H435" s="30"/>
       <c r="I435" s="1"/>
       <c r="J435" s="1"/>
       <c r="K435" s="1"/>
@@ -13543,7 +13543,7 @@
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
       <c r="G436" s="1"/>
-      <c r="H436" s="50"/>
+      <c r="H436" s="30"/>
       <c r="I436" s="1"/>
       <c r="J436" s="1"/>
       <c r="K436" s="1"/>
@@ -13571,7 +13571,7 @@
       <c r="E437" s="1"/>
       <c r="F437" s="1"/>
       <c r="G437" s="1"/>
-      <c r="H437" s="50"/>
+      <c r="H437" s="30"/>
       <c r="I437" s="1"/>
       <c r="J437" s="1"/>
       <c r="K437" s="1"/>
@@ -13599,7 +13599,7 @@
       <c r="E438" s="1"/>
       <c r="F438" s="1"/>
       <c r="G438" s="1"/>
-      <c r="H438" s="50"/>
+      <c r="H438" s="30"/>
       <c r="I438" s="1"/>
       <c r="J438" s="1"/>
       <c r="K438" s="1"/>
@@ -13627,7 +13627,7 @@
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
       <c r="G439" s="1"/>
-      <c r="H439" s="50"/>
+      <c r="H439" s="30"/>
       <c r="I439" s="1"/>
       <c r="J439" s="1"/>
       <c r="K439" s="1"/>
@@ -13655,7 +13655,7 @@
       <c r="E440" s="1"/>
       <c r="F440" s="1"/>
       <c r="G440" s="1"/>
-      <c r="H440" s="50"/>
+      <c r="H440" s="30"/>
       <c r="I440" s="1"/>
       <c r="J440" s="1"/>
       <c r="K440" s="1"/>
@@ -13683,7 +13683,7 @@
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
       <c r="G441" s="1"/>
-      <c r="H441" s="50"/>
+      <c r="H441" s="30"/>
       <c r="I441" s="1"/>
       <c r="J441" s="1"/>
       <c r="K441" s="1"/>
@@ -13711,7 +13711,7 @@
       <c r="E442" s="1"/>
       <c r="F442" s="1"/>
       <c r="G442" s="1"/>
-      <c r="H442" s="50"/>
+      <c r="H442" s="30"/>
       <c r="I442" s="1"/>
       <c r="J442" s="1"/>
       <c r="K442" s="1"/>
@@ -13739,7 +13739,7 @@
       <c r="E443" s="1"/>
       <c r="F443" s="1"/>
       <c r="G443" s="1"/>
-      <c r="H443" s="50"/>
+      <c r="H443" s="30"/>
       <c r="I443" s="1"/>
       <c r="J443" s="1"/>
       <c r="K443" s="1"/>
@@ -13767,7 +13767,7 @@
       <c r="E444" s="1"/>
       <c r="F444" s="1"/>
       <c r="G444" s="1"/>
-      <c r="H444" s="50"/>
+      <c r="H444" s="30"/>
       <c r="I444" s="1"/>
       <c r="J444" s="1"/>
       <c r="K444" s="1"/>
@@ -13795,7 +13795,7 @@
       <c r="E445" s="1"/>
       <c r="F445" s="1"/>
       <c r="G445" s="1"/>
-      <c r="H445" s="50"/>
+      <c r="H445" s="30"/>
       <c r="I445" s="1"/>
       <c r="J445" s="1"/>
       <c r="K445" s="1"/>
@@ -13823,7 +13823,7 @@
       <c r="E446" s="1"/>
       <c r="F446" s="1"/>
       <c r="G446" s="1"/>
-      <c r="H446" s="50"/>
+      <c r="H446" s="30"/>
       <c r="I446" s="1"/>
       <c r="J446" s="1"/>
       <c r="K446" s="1"/>
@@ -13851,7 +13851,7 @@
       <c r="E447" s="1"/>
       <c r="F447" s="1"/>
       <c r="G447" s="1"/>
-      <c r="H447" s="50"/>
+      <c r="H447" s="30"/>
       <c r="I447" s="1"/>
       <c r="J447" s="1"/>
       <c r="K447" s="1"/>
@@ -13879,7 +13879,7 @@
       <c r="E448" s="1"/>
       <c r="F448" s="1"/>
       <c r="G448" s="1"/>
-      <c r="H448" s="50"/>
+      <c r="H448" s="30"/>
       <c r="I448" s="1"/>
       <c r="J448" s="1"/>
       <c r="K448" s="1"/>
@@ -13907,7 +13907,7 @@
       <c r="E449" s="1"/>
       <c r="F449" s="1"/>
       <c r="G449" s="1"/>
-      <c r="H449" s="50"/>
+      <c r="H449" s="30"/>
       <c r="I449" s="1"/>
       <c r="J449" s="1"/>
       <c r="K449" s="1"/>
@@ -13935,7 +13935,7 @@
       <c r="E450" s="1"/>
       <c r="F450" s="1"/>
       <c r="G450" s="1"/>
-      <c r="H450" s="50"/>
+      <c r="H450" s="30"/>
       <c r="I450" s="1"/>
       <c r="J450" s="1"/>
       <c r="K450" s="1"/>
@@ -13963,7 +13963,7 @@
       <c r="E451" s="1"/>
       <c r="F451" s="1"/>
       <c r="G451" s="1"/>
-      <c r="H451" s="50"/>
+      <c r="H451" s="30"/>
       <c r="I451" s="1"/>
       <c r="J451" s="1"/>
       <c r="K451" s="1"/>
@@ -13991,7 +13991,7 @@
       <c r="E452" s="1"/>
       <c r="F452" s="1"/>
       <c r="G452" s="1"/>
-      <c r="H452" s="50"/>
+      <c r="H452" s="30"/>
       <c r="I452" s="1"/>
       <c r="J452" s="1"/>
       <c r="K452" s="1"/>
@@ -14019,7 +14019,7 @@
       <c r="E453" s="1"/>
       <c r="F453" s="1"/>
       <c r="G453" s="1"/>
-      <c r="H453" s="50"/>
+      <c r="H453" s="30"/>
       <c r="I453" s="1"/>
       <c r="J453" s="1"/>
       <c r="K453" s="1"/>
@@ -14047,7 +14047,7 @@
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
       <c r="G454" s="1"/>
-      <c r="H454" s="50"/>
+      <c r="H454" s="30"/>
       <c r="I454" s="1"/>
       <c r="J454" s="1"/>
       <c r="K454" s="1"/>
@@ -14075,7 +14075,7 @@
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
       <c r="G455" s="1"/>
-      <c r="H455" s="50"/>
+      <c r="H455" s="30"/>
       <c r="I455" s="1"/>
       <c r="J455" s="1"/>
       <c r="K455" s="1"/>
@@ -14103,7 +14103,7 @@
       <c r="E456" s="1"/>
       <c r="F456" s="1"/>
       <c r="G456" s="1"/>
-      <c r="H456" s="50"/>
+      <c r="H456" s="30"/>
       <c r="I456" s="1"/>
       <c r="J456" s="1"/>
       <c r="K456" s="1"/>
@@ -14131,7 +14131,7 @@
       <c r="E457" s="1"/>
       <c r="F457" s="1"/>
       <c r="G457" s="1"/>
-      <c r="H457" s="50"/>
+      <c r="H457" s="30"/>
       <c r="I457" s="1"/>
       <c r="J457" s="1"/>
       <c r="K457" s="1"/>
@@ -14159,7 +14159,7 @@
       <c r="E458" s="1"/>
       <c r="F458" s="1"/>
       <c r="G458" s="1"/>
-      <c r="H458" s="50"/>
+      <c r="H458" s="30"/>
       <c r="I458" s="1"/>
       <c r="J458" s="1"/>
       <c r="K458" s="1"/>
@@ -14187,7 +14187,7 @@
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
       <c r="G459" s="1"/>
-      <c r="H459" s="50"/>
+      <c r="H459" s="30"/>
       <c r="I459" s="1"/>
       <c r="J459" s="1"/>
       <c r="K459" s="1"/>
@@ -14215,7 +14215,7 @@
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
       <c r="G460" s="1"/>
-      <c r="H460" s="50"/>
+      <c r="H460" s="30"/>
       <c r="I460" s="1"/>
       <c r="J460" s="1"/>
       <c r="K460" s="1"/>
@@ -14243,7 +14243,7 @@
       <c r="E461" s="1"/>
       <c r="F461" s="1"/>
       <c r="G461" s="1"/>
-      <c r="H461" s="50"/>
+      <c r="H461" s="30"/>
       <c r="I461" s="1"/>
       <c r="J461" s="1"/>
       <c r="K461" s="1"/>
@@ -14271,7 +14271,7 @@
       <c r="E462" s="1"/>
       <c r="F462" s="1"/>
       <c r="G462" s="1"/>
-      <c r="H462" s="50"/>
+      <c r="H462" s="30"/>
       <c r="I462" s="1"/>
       <c r="J462" s="1"/>
       <c r="K462" s="1"/>
@@ -14299,7 +14299,7 @@
       <c r="E463" s="1"/>
       <c r="F463" s="1"/>
       <c r="G463" s="1"/>
-      <c r="H463" s="50"/>
+      <c r="H463" s="30"/>
       <c r="I463" s="1"/>
       <c r="J463" s="1"/>
       <c r="K463" s="1"/>
@@ -14327,7 +14327,7 @@
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
       <c r="G464" s="1"/>
-      <c r="H464" s="50"/>
+      <c r="H464" s="30"/>
       <c r="I464" s="1"/>
       <c r="J464" s="1"/>
       <c r="K464" s="1"/>
@@ -14355,7 +14355,7 @@
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
       <c r="G465" s="1"/>
-      <c r="H465" s="50"/>
+      <c r="H465" s="30"/>
       <c r="I465" s="1"/>
       <c r="J465" s="1"/>
       <c r="K465" s="1"/>
@@ -14383,7 +14383,7 @@
       <c r="E466" s="1"/>
       <c r="F466" s="1"/>
       <c r="G466" s="1"/>
-      <c r="H466" s="50"/>
+      <c r="H466" s="30"/>
       <c r="I466" s="1"/>
       <c r="J466" s="1"/>
       <c r="K466" s="1"/>
@@ -14411,7 +14411,7 @@
       <c r="E467" s="1"/>
       <c r="F467" s="1"/>
       <c r="G467" s="1"/>
-      <c r="H467" s="50"/>
+      <c r="H467" s="30"/>
       <c r="I467" s="1"/>
       <c r="J467" s="1"/>
       <c r="K467" s="1"/>
@@ -14439,7 +14439,7 @@
       <c r="E468" s="1"/>
       <c r="F468" s="1"/>
       <c r="G468" s="1"/>
-      <c r="H468" s="50"/>
+      <c r="H468" s="30"/>
       <c r="I468" s="1"/>
       <c r="J468" s="1"/>
       <c r="K468" s="1"/>
@@ -14467,7 +14467,7 @@
       <c r="E469" s="1"/>
       <c r="F469" s="1"/>
       <c r="G469" s="1"/>
-      <c r="H469" s="50"/>
+      <c r="H469" s="30"/>
       <c r="I469" s="1"/>
       <c r="J469" s="1"/>
       <c r="K469" s="1"/>
@@ -14495,7 +14495,7 @@
       <c r="E470" s="1"/>
       <c r="F470" s="1"/>
       <c r="G470" s="1"/>
-      <c r="H470" s="50"/>
+      <c r="H470" s="30"/>
       <c r="I470" s="1"/>
       <c r="J470" s="1"/>
       <c r="K470" s="1"/>
@@ -14523,7 +14523,7 @@
       <c r="E471" s="1"/>
       <c r="F471" s="1"/>
       <c r="G471" s="1"/>
-      <c r="H471" s="50"/>
+      <c r="H471" s="30"/>
       <c r="I471" s="1"/>
       <c r="J471" s="1"/>
       <c r="K471" s="1"/>
@@ -14551,7 +14551,7 @@
       <c r="E472" s="1"/>
       <c r="F472" s="1"/>
       <c r="G472" s="1"/>
-      <c r="H472" s="50"/>
+      <c r="H472" s="30"/>
       <c r="I472" s="1"/>
       <c r="J472" s="1"/>
       <c r="K472" s="1"/>
@@ -14579,7 +14579,7 @@
       <c r="E473" s="1"/>
       <c r="F473" s="1"/>
       <c r="G473" s="1"/>
-      <c r="H473" s="50"/>
+      <c r="H473" s="30"/>
       <c r="I473" s="1"/>
       <c r="J473" s="1"/>
       <c r="K473" s="1"/>
@@ -14607,7 +14607,7 @@
       <c r="E474" s="1"/>
       <c r="F474" s="1"/>
       <c r="G474" s="1"/>
-      <c r="H474" s="50"/>
+      <c r="H474" s="30"/>
       <c r="I474" s="1"/>
       <c r="J474" s="1"/>
       <c r="K474" s="1"/>
@@ -14635,7 +14635,7 @@
       <c r="E475" s="1"/>
       <c r="F475" s="1"/>
       <c r="G475" s="1"/>
-      <c r="H475" s="50"/>
+      <c r="H475" s="30"/>
       <c r="I475" s="1"/>
       <c r="J475" s="1"/>
       <c r="K475" s="1"/>
@@ -14663,7 +14663,7 @@
       <c r="E476" s="1"/>
       <c r="F476" s="1"/>
       <c r="G476" s="1"/>
-      <c r="H476" s="50"/>
+      <c r="H476" s="30"/>
       <c r="I476" s="1"/>
       <c r="J476" s="1"/>
       <c r="K476" s="1"/>
@@ -14691,7 +14691,7 @@
       <c r="E477" s="1"/>
       <c r="F477" s="1"/>
       <c r="G477" s="1"/>
-      <c r="H477" s="50"/>
+      <c r="H477" s="30"/>
       <c r="I477" s="1"/>
       <c r="J477" s="1"/>
       <c r="K477" s="1"/>
@@ -14719,7 +14719,7 @@
       <c r="E478" s="1"/>
       <c r="F478" s="1"/>
       <c r="G478" s="1"/>
-      <c r="H478" s="50"/>
+      <c r="H478" s="30"/>
       <c r="I478" s="1"/>
       <c r="J478" s="1"/>
       <c r="K478" s="1"/>
@@ -14747,7 +14747,7 @@
       <c r="E479" s="1"/>
       <c r="F479" s="1"/>
       <c r="G479" s="1"/>
-      <c r="H479" s="50"/>
+      <c r="H479" s="30"/>
       <c r="I479" s="1"/>
       <c r="J479" s="1"/>
       <c r="K479" s="1"/>
@@ -14775,7 +14775,7 @@
       <c r="E480" s="1"/>
       <c r="F480" s="1"/>
       <c r="G480" s="1"/>
-      <c r="H480" s="50"/>
+      <c r="H480" s="30"/>
       <c r="I480" s="1"/>
       <c r="J480" s="1"/>
       <c r="K480" s="1"/>
@@ -14803,7 +14803,7 @@
       <c r="E481" s="1"/>
       <c r="F481" s="1"/>
       <c r="G481" s="1"/>
-      <c r="H481" s="50"/>
+      <c r="H481" s="30"/>
       <c r="I481" s="1"/>
       <c r="J481" s="1"/>
       <c r="K481" s="1"/>
@@ -14831,7 +14831,7 @@
       <c r="E482" s="1"/>
       <c r="F482" s="1"/>
       <c r="G482" s="1"/>
-      <c r="H482" s="50"/>
+      <c r="H482" s="30"/>
       <c r="I482" s="1"/>
       <c r="J482" s="1"/>
       <c r="K482" s="1"/>
@@ -14859,7 +14859,7 @@
       <c r="E483" s="1"/>
       <c r="F483" s="1"/>
       <c r="G483" s="1"/>
-      <c r="H483" s="50"/>
+      <c r="H483" s="30"/>
       <c r="I483" s="1"/>
       <c r="J483" s="1"/>
       <c r="K483" s="1"/>
@@ -14887,7 +14887,7 @@
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
       <c r="G484" s="1"/>
-      <c r="H484" s="50"/>
+      <c r="H484" s="30"/>
       <c r="I484" s="1"/>
       <c r="J484" s="1"/>
       <c r="K484" s="1"/>
@@ -14915,7 +14915,7 @@
       <c r="E485" s="1"/>
       <c r="F485" s="1"/>
       <c r="G485" s="1"/>
-      <c r="H485" s="50"/>
+      <c r="H485" s="30"/>
       <c r="I485" s="1"/>
       <c r="J485" s="1"/>
       <c r="K485" s="1"/>
@@ -14943,7 +14943,7 @@
       <c r="E486" s="1"/>
       <c r="F486" s="1"/>
       <c r="G486" s="1"/>
-      <c r="H486" s="50"/>
+      <c r="H486" s="30"/>
       <c r="I486" s="1"/>
       <c r="J486" s="1"/>
       <c r="K486" s="1"/>
@@ -14971,7 +14971,7 @@
       <c r="E487" s="1"/>
       <c r="F487" s="1"/>
       <c r="G487" s="1"/>
-      <c r="H487" s="50"/>
+      <c r="H487" s="30"/>
       <c r="I487" s="1"/>
       <c r="J487" s="1"/>
       <c r="K487" s="1"/>
@@ -14999,7 +14999,7 @@
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
       <c r="G488" s="1"/>
-      <c r="H488" s="50"/>
+      <c r="H488" s="30"/>
       <c r="I488" s="1"/>
       <c r="J488" s="1"/>
       <c r="K488" s="1"/>
@@ -15027,7 +15027,7 @@
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
       <c r="G489" s="1"/>
-      <c r="H489" s="50"/>
+      <c r="H489" s="30"/>
       <c r="I489" s="1"/>
       <c r="J489" s="1"/>
       <c r="K489" s="1"/>
@@ -15055,7 +15055,7 @@
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
       <c r="G490" s="1"/>
-      <c r="H490" s="50"/>
+      <c r="H490" s="30"/>
       <c r="I490" s="1"/>
       <c r="J490" s="1"/>
       <c r="K490" s="1"/>
@@ -15083,7 +15083,7 @@
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
       <c r="G491" s="1"/>
-      <c r="H491" s="50"/>
+      <c r="H491" s="30"/>
       <c r="I491" s="1"/>
       <c r="J491" s="1"/>
       <c r="K491" s="1"/>
@@ -15111,7 +15111,7 @@
       <c r="E492" s="1"/>
       <c r="F492" s="1"/>
       <c r="G492" s="1"/>
-      <c r="H492" s="50"/>
+      <c r="H492" s="30"/>
       <c r="I492" s="1"/>
       <c r="J492" s="1"/>
       <c r="K492" s="1"/>
@@ -15139,7 +15139,7 @@
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
       <c r="G493" s="1"/>
-      <c r="H493" s="50"/>
+      <c r="H493" s="30"/>
       <c r="I493" s="1"/>
       <c r="J493" s="1"/>
       <c r="K493" s="1"/>
@@ -15167,7 +15167,7 @@
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
       <c r="G494" s="1"/>
-      <c r="H494" s="50"/>
+      <c r="H494" s="30"/>
       <c r="I494" s="1"/>
       <c r="J494" s="1"/>
       <c r="K494" s="1"/>
@@ -15195,7 +15195,7 @@
       <c r="E495" s="1"/>
       <c r="F495" s="1"/>
       <c r="G495" s="1"/>
-      <c r="H495" s="50"/>
+      <c r="H495" s="30"/>
       <c r="I495" s="1"/>
       <c r="J495" s="1"/>
       <c r="K495" s="1"/>
@@ -15223,7 +15223,7 @@
       <c r="E496" s="1"/>
       <c r="F496" s="1"/>
       <c r="G496" s="1"/>
-      <c r="H496" s="50"/>
+      <c r="H496" s="30"/>
       <c r="I496" s="1"/>
       <c r="J496" s="1"/>
       <c r="K496" s="1"/>
@@ -15251,7 +15251,7 @@
       <c r="E497" s="1"/>
       <c r="F497" s="1"/>
       <c r="G497" s="1"/>
-      <c r="H497" s="50"/>
+      <c r="H497" s="30"/>
       <c r="I497" s="1"/>
       <c r="J497" s="1"/>
       <c r="K497" s="1"/>
@@ -15279,7 +15279,7 @@
       <c r="E498" s="1"/>
       <c r="F498" s="1"/>
       <c r="G498" s="1"/>
-      <c r="H498" s="50"/>
+      <c r="H498" s="30"/>
       <c r="I498" s="1"/>
       <c r="J498" s="1"/>
       <c r="K498" s="1"/>
@@ -15307,7 +15307,7 @@
       <c r="E499" s="1"/>
       <c r="F499" s="1"/>
       <c r="G499" s="1"/>
-      <c r="H499" s="50"/>
+      <c r="H499" s="30"/>
       <c r="I499" s="1"/>
       <c r="J499" s="1"/>
       <c r="K499" s="1"/>
@@ -15335,7 +15335,7 @@
       <c r="E500" s="1"/>
       <c r="F500" s="1"/>
       <c r="G500" s="1"/>
-      <c r="H500" s="50"/>
+      <c r="H500" s="30"/>
       <c r="I500" s="1"/>
       <c r="J500" s="1"/>
       <c r="K500" s="1"/>
@@ -15363,7 +15363,7 @@
       <c r="E501" s="1"/>
       <c r="F501" s="1"/>
       <c r="G501" s="1"/>
-      <c r="H501" s="50"/>
+      <c r="H501" s="30"/>
       <c r="I501" s="1"/>
       <c r="J501" s="1"/>
       <c r="K501" s="1"/>
@@ -15391,7 +15391,7 @@
       <c r="E502" s="1"/>
       <c r="F502" s="1"/>
       <c r="G502" s="1"/>
-      <c r="H502" s="50"/>
+      <c r="H502" s="30"/>
       <c r="I502" s="1"/>
       <c r="J502" s="1"/>
       <c r="K502" s="1"/>
@@ -15419,7 +15419,7 @@
       <c r="E503" s="1"/>
       <c r="F503" s="1"/>
       <c r="G503" s="1"/>
-      <c r="H503" s="50"/>
+      <c r="H503" s="30"/>
       <c r="I503" s="1"/>
       <c r="J503" s="1"/>
       <c r="K503" s="1"/>
@@ -15447,7 +15447,7 @@
       <c r="E504" s="1"/>
       <c r="F504" s="1"/>
       <c r="G504" s="1"/>
-      <c r="H504" s="50"/>
+      <c r="H504" s="30"/>
       <c r="I504" s="1"/>
       <c r="J504" s="1"/>
       <c r="K504" s="1"/>
@@ -15475,7 +15475,7 @@
       <c r="E505" s="1"/>
       <c r="F505" s="1"/>
       <c r="G505" s="1"/>
-      <c r="H505" s="50"/>
+      <c r="H505" s="30"/>
       <c r="I505" s="1"/>
       <c r="J505" s="1"/>
       <c r="K505" s="1"/>
@@ -15503,7 +15503,7 @@
       <c r="E506" s="1"/>
       <c r="F506" s="1"/>
       <c r="G506" s="1"/>
-      <c r="H506" s="50"/>
+      <c r="H506" s="30"/>
       <c r="I506" s="1"/>
       <c r="J506" s="1"/>
       <c r="K506" s="1"/>
@@ -15531,7 +15531,7 @@
       <c r="E507" s="1"/>
       <c r="F507" s="1"/>
       <c r="G507" s="1"/>
-      <c r="H507" s="50"/>
+      <c r="H507" s="30"/>
       <c r="I507" s="1"/>
       <c r="J507" s="1"/>
       <c r="K507" s="1"/>
@@ -15559,7 +15559,7 @@
       <c r="E508" s="1"/>
       <c r="F508" s="1"/>
       <c r="G508" s="1"/>
-      <c r="H508" s="50"/>
+      <c r="H508" s="30"/>
       <c r="I508" s="1"/>
       <c r="J508" s="1"/>
       <c r="K508" s="1"/>
@@ -15587,7 +15587,7 @@
       <c r="E509" s="1"/>
       <c r="F509" s="1"/>
       <c r="G509" s="1"/>
-      <c r="H509" s="50"/>
+      <c r="H509" s="30"/>
       <c r="I509" s="1"/>
       <c r="J509" s="1"/>
       <c r="K509" s="1"/>
@@ -15615,7 +15615,7 @@
       <c r="E510" s="1"/>
       <c r="F510" s="1"/>
       <c r="G510" s="1"/>
-      <c r="H510" s="50"/>
+      <c r="H510" s="30"/>
       <c r="I510" s="1"/>
       <c r="J510" s="1"/>
       <c r="K510" s="1"/>
@@ -15643,7 +15643,7 @@
       <c r="E511" s="1"/>
       <c r="F511" s="1"/>
       <c r="G511" s="1"/>
-      <c r="H511" s="50"/>
+      <c r="H511" s="30"/>
       <c r="I511" s="1"/>
       <c r="J511" s="1"/>
       <c r="K511" s="1"/>
@@ -15671,7 +15671,7 @@
       <c r="E512" s="1"/>
       <c r="F512" s="1"/>
       <c r="G512" s="1"/>
-      <c r="H512" s="50"/>
+      <c r="H512" s="30"/>
       <c r="I512" s="1"/>
       <c r="J512" s="1"/>
       <c r="K512" s="1"/>
@@ -15699,7 +15699,7 @@
       <c r="E513" s="1"/>
       <c r="F513" s="1"/>
       <c r="G513" s="1"/>
-      <c r="H513" s="50"/>
+      <c r="H513" s="30"/>
       <c r="I513" s="1"/>
       <c r="J513" s="1"/>
       <c r="K513" s="1"/>
@@ -15727,7 +15727,7 @@
       <c r="E514" s="1"/>
       <c r="F514" s="1"/>
       <c r="G514" s="1"/>
-      <c r="H514" s="50"/>
+      <c r="H514" s="30"/>
       <c r="I514" s="1"/>
       <c r="J514" s="1"/>
       <c r="K514" s="1"/>
@@ -15755,7 +15755,7 @@
       <c r="E515" s="1"/>
       <c r="F515" s="1"/>
       <c r="G515" s="1"/>
-      <c r="H515" s="50"/>
+      <c r="H515" s="30"/>
       <c r="I515" s="1"/>
       <c r="J515" s="1"/>
       <c r="K515" s="1"/>
@@ -15783,7 +15783,7 @@
       <c r="E516" s="1"/>
       <c r="F516" s="1"/>
       <c r="G516" s="1"/>
-      <c r="H516" s="50"/>
+      <c r="H516" s="30"/>
       <c r="I516" s="1"/>
       <c r="J516" s="1"/>
       <c r="K516" s="1"/>
@@ -15811,7 +15811,7 @@
       <c r="E517" s="1"/>
       <c r="F517" s="1"/>
       <c r="G517" s="1"/>
-      <c r="H517" s="50"/>
+      <c r="H517" s="30"/>
       <c r="I517" s="1"/>
       <c r="J517" s="1"/>
       <c r="K517" s="1"/>
@@ -15839,7 +15839,7 @@
       <c r="E518" s="1"/>
       <c r="F518" s="1"/>
       <c r="G518" s="1"/>
-      <c r="H518" s="50"/>
+      <c r="H518" s="30"/>
       <c r="I518" s="1"/>
       <c r="J518" s="1"/>
       <c r="K518" s="1"/>
@@ -15867,7 +15867,7 @@
       <c r="E519" s="1"/>
       <c r="F519" s="1"/>
       <c r="G519" s="1"/>
-      <c r="H519" s="50"/>
+      <c r="H519" s="30"/>
       <c r="I519" s="1"/>
       <c r="J519" s="1"/>
       <c r="K519" s="1"/>
@@ -15895,7 +15895,7 @@
       <c r="E520" s="1"/>
       <c r="F520" s="1"/>
       <c r="G520" s="1"/>
-      <c r="H520" s="50"/>
+      <c r="H520" s="30"/>
       <c r="I520" s="1"/>
       <c r="J520" s="1"/>
       <c r="K520" s="1"/>
@@ -15923,7 +15923,7 @@
       <c r="E521" s="1"/>
       <c r="F521" s="1"/>
       <c r="G521" s="1"/>
-      <c r="H521" s="50"/>
+      <c r="H521" s="30"/>
       <c r="I521" s="1"/>
       <c r="J521" s="1"/>
       <c r="K521" s="1"/>
@@ -15951,7 +15951,7 @@
       <c r="E522" s="1"/>
       <c r="F522" s="1"/>
       <c r="G522" s="1"/>
-      <c r="H522" s="50"/>
+      <c r="H522" s="30"/>
       <c r="I522" s="1"/>
       <c r="J522" s="1"/>
       <c r="K522" s="1"/>
@@ -15979,7 +15979,7 @@
       <c r="E523" s="1"/>
       <c r="F523" s="1"/>
       <c r="G523" s="1"/>
-      <c r="H523" s="50"/>
+      <c r="H523" s="30"/>
       <c r="I523" s="1"/>
       <c r="J523" s="1"/>
       <c r="K523" s="1"/>
@@ -16007,7 +16007,7 @@
       <c r="E524" s="1"/>
       <c r="F524" s="1"/>
       <c r="G524" s="1"/>
-      <c r="H524" s="50"/>
+      <c r="H524" s="30"/>
       <c r="I524" s="1"/>
       <c r="J524" s="1"/>
       <c r="K524" s="1"/>
@@ -16035,7 +16035,7 @@
       <c r="E525" s="1"/>
       <c r="F525" s="1"/>
       <c r="G525" s="1"/>
-      <c r="H525" s="50"/>
+      <c r="H525" s="30"/>
       <c r="I525" s="1"/>
       <c r="J525" s="1"/>
       <c r="K525" s="1"/>
@@ -16063,7 +16063,7 @@
       <c r="E526" s="1"/>
       <c r="F526" s="1"/>
       <c r="G526" s="1"/>
-      <c r="H526" s="50"/>
+      <c r="H526" s="30"/>
       <c r="I526" s="1"/>
       <c r="J526" s="1"/>
       <c r="K526" s="1"/>
@@ -16091,7 +16091,7 @@
       <c r="E527" s="1"/>
       <c r="F527" s="1"/>
       <c r="G527" s="1"/>
-      <c r="H527" s="50"/>
+      <c r="H527" s="30"/>
       <c r="I527" s="1"/>
       <c r="J527" s="1"/>
       <c r="K527" s="1"/>
@@ -16119,7 +16119,7 @@
       <c r="E528" s="1"/>
       <c r="F528" s="1"/>
       <c r="G528" s="1"/>
-      <c r="H528" s="50"/>
+      <c r="H528" s="30"/>
       <c r="I528" s="1"/>
       <c r="J528" s="1"/>
       <c r="K528" s="1"/>
@@ -16147,7 +16147,7 @@
       <c r="E529" s="1"/>
       <c r="F529" s="1"/>
       <c r="G529" s="1"/>
-      <c r="H529" s="50"/>
+      <c r="H529" s="30"/>
       <c r="I529" s="1"/>
       <c r="J529" s="1"/>
       <c r="K529" s="1"/>
@@ -16175,7 +16175,7 @@
       <c r="E530" s="1"/>
       <c r="F530" s="1"/>
       <c r="G530" s="1"/>
-      <c r="H530" s="50"/>
+      <c r="H530" s="30"/>
       <c r="I530" s="1"/>
       <c r="J530" s="1"/>
       <c r="K530" s="1"/>
@@ -16203,7 +16203,7 @@
       <c r="E531" s="1"/>
       <c r="F531" s="1"/>
       <c r="G531" s="1"/>
-      <c r="H531" s="50"/>
+      <c r="H531" s="30"/>
       <c r="I531" s="1"/>
       <c r="J531" s="1"/>
       <c r="K531" s="1"/>
@@ -16231,7 +16231,7 @@
       <c r="E532" s="1"/>
       <c r="F532" s="1"/>
       <c r="G532" s="1"/>
-      <c r="H532" s="50"/>
+      <c r="H532" s="30"/>
       <c r="I532" s="1"/>
       <c r="J532" s="1"/>
       <c r="K532" s="1"/>
@@ -16259,7 +16259,7 @@
       <c r="E533" s="1"/>
       <c r="F533" s="1"/>
       <c r="G533" s="1"/>
-      <c r="H533" s="50"/>
+      <c r="H533" s="30"/>
       <c r="I533" s="1"/>
       <c r="J533" s="1"/>
       <c r="K533" s="1"/>
@@ -16287,7 +16287,7 @@
       <c r="E534" s="1"/>
       <c r="F534" s="1"/>
       <c r="G534" s="1"/>
-      <c r="H534" s="50"/>
+      <c r="H534" s="30"/>
       <c r="I534" s="1"/>
       <c r="J534" s="1"/>
       <c r="K534" s="1"/>
@@ -16315,7 +16315,7 @@
       <c r="E535" s="1"/>
       <c r="F535" s="1"/>
       <c r="G535" s="1"/>
-      <c r="H535" s="50"/>
+      <c r="H535" s="30"/>
       <c r="I535" s="1"/>
       <c r="J535" s="1"/>
       <c r="K535" s="1"/>
@@ -16343,7 +16343,7 @@
       <c r="E536" s="1"/>
       <c r="F536" s="1"/>
       <c r="G536" s="1"/>
-      <c r="H536" s="50"/>
+      <c r="H536" s="30"/>
       <c r="I536" s="1"/>
       <c r="J536" s="1"/>
       <c r="K536" s="1"/>
@@ -16371,7 +16371,7 @@
       <c r="E537" s="1"/>
       <c r="F537" s="1"/>
       <c r="G537" s="1"/>
-      <c r="H537" s="50"/>
+      <c r="H537" s="30"/>
       <c r="I537" s="1"/>
       <c r="J537" s="1"/>
       <c r="K537" s="1"/>
@@ -16399,7 +16399,7 @@
       <c r="E538" s="1"/>
       <c r="F538" s="1"/>
       <c r="G538" s="1"/>
-      <c r="H538" s="50"/>
+      <c r="H538" s="30"/>
       <c r="I538" s="1"/>
       <c r="J538" s="1"/>
       <c r="K538" s="1"/>
@@ -16427,7 +16427,7 @@
       <c r="E539" s="1"/>
       <c r="F539" s="1"/>
       <c r="G539" s="1"/>
-      <c r="H539" s="50"/>
+      <c r="H539" s="30"/>
       <c r="I539" s="1"/>
       <c r="J539" s="1"/>
       <c r="K539" s="1"/>
@@ -16455,7 +16455,7 @@
       <c r="E540" s="1"/>
       <c r="F540" s="1"/>
       <c r="G540" s="1"/>
-      <c r="H540" s="50"/>
+      <c r="H540" s="30"/>
       <c r="I540" s="1"/>
       <c r="J540" s="1"/>
       <c r="K540" s="1"/>
@@ -16483,7 +16483,7 @@
       <c r="E541" s="1"/>
       <c r="F541" s="1"/>
       <c r="G541" s="1"/>
-      <c r="H541" s="50"/>
+      <c r="H541" s="30"/>
       <c r="I541" s="1"/>
       <c r="J541" s="1"/>
       <c r="K541" s="1"/>
@@ -16511,7 +16511,7 @@
       <c r="E542" s="1"/>
       <c r="F542" s="1"/>
       <c r="G542" s="1"/>
-      <c r="H542" s="50"/>
+      <c r="H542" s="30"/>
       <c r="I542" s="1"/>
       <c r="J542" s="1"/>
       <c r="K542" s="1"/>
@@ -16539,7 +16539,7 @@
       <c r="E543" s="1"/>
       <c r="F543" s="1"/>
       <c r="G543" s="1"/>
-      <c r="H543" s="50"/>
+      <c r="H543" s="30"/>
       <c r="I543" s="1"/>
       <c r="J543" s="1"/>
       <c r="K543" s="1"/>
@@ -16567,7 +16567,7 @@
       <c r="E544" s="1"/>
       <c r="F544" s="1"/>
       <c r="G544" s="1"/>
-      <c r="H544" s="50"/>
+      <c r="H544" s="30"/>
       <c r="I544" s="1"/>
       <c r="J544" s="1"/>
       <c r="K544" s="1"/>
@@ -16595,7 +16595,7 @@
       <c r="E545" s="1"/>
       <c r="F545" s="1"/>
       <c r="G545" s="1"/>
-      <c r="H545" s="50"/>
+      <c r="H545" s="30"/>
       <c r="I545" s="1"/>
       <c r="J545" s="1"/>
       <c r="K545" s="1"/>
@@ -16623,7 +16623,7 @@
       <c r="E546" s="1"/>
       <c r="F546" s="1"/>
       <c r="G546" s="1"/>
-      <c r="H546" s="50"/>
+      <c r="H546" s="30"/>
       <c r="I546" s="1"/>
       <c r="J546" s="1"/>
       <c r="K546" s="1"/>
@@ -16651,7 +16651,7 @@
       <c r="E547" s="1"/>
       <c r="F547" s="1"/>
       <c r="G547" s="1"/>
-      <c r="H547" s="50"/>
+      <c r="H547" s="30"/>
       <c r="I547" s="1"/>
       <c r="J547" s="1"/>
       <c r="K547" s="1"/>
@@ -16679,7 +16679,7 @@
       <c r="E548" s="1"/>
       <c r="F548" s="1"/>
       <c r="G548" s="1"/>
-      <c r="H548" s="50"/>
+      <c r="H548" s="30"/>
       <c r="I548" s="1"/>
       <c r="J548" s="1"/>
       <c r="K548" s="1"/>
@@ -16707,7 +16707,7 @@
       <c r="E549" s="1"/>
       <c r="F549" s="1"/>
       <c r="G549" s="1"/>
-      <c r="H549" s="50"/>
+      <c r="H549" s="30"/>
       <c r="I549" s="1"/>
       <c r="J549" s="1"/>
       <c r="K549" s="1"/>
@@ -16735,7 +16735,7 @@
       <c r="E550" s="1"/>
       <c r="F550" s="1"/>
       <c r="G550" s="1"/>
-      <c r="H550" s="50"/>
+      <c r="H550" s="30"/>
       <c r="I550" s="1"/>
       <c r="J550" s="1"/>
       <c r="K550" s="1"/>
@@ -16763,7 +16763,7 @@
       <c r="E551" s="1"/>
       <c r="F551" s="1"/>
       <c r="G551" s="1"/>
-      <c r="H551" s="50"/>
+      <c r="H551" s="30"/>
       <c r="I551" s="1"/>
       <c r="J551" s="1"/>
       <c r="K551" s="1"/>
@@ -16791,7 +16791,7 @@
       <c r="E552" s="1"/>
       <c r="F552" s="1"/>
       <c r="G552" s="1"/>
-      <c r="H552" s="50"/>
+      <c r="H552" s="30"/>
       <c r="I552" s="1"/>
       <c r="J552" s="1"/>
       <c r="K552" s="1"/>
@@ -16819,7 +16819,7 @@
       <c r="E553" s="1"/>
       <c r="F553" s="1"/>
       <c r="G553" s="1"/>
-      <c r="H553" s="50"/>
+      <c r="H553" s="30"/>
       <c r="I553" s="1"/>
       <c r="J553" s="1"/>
       <c r="K553" s="1"/>
@@ -16847,7 +16847,7 @@
       <c r="E554" s="1"/>
       <c r="F554" s="1"/>
       <c r="G554" s="1"/>
-      <c r="H554" s="50"/>
+      <c r="H554" s="30"/>
       <c r="I554" s="1"/>
       <c r="J554" s="1"/>
       <c r="K554" s="1"/>
@@ -16875,7 +16875,7 @@
       <c r="E555" s="1"/>
       <c r="F555" s="1"/>
       <c r="G555" s="1"/>
-      <c r="H555" s="50"/>
+      <c r="H555" s="30"/>
       <c r="I555" s="1"/>
       <c r="J555" s="1"/>
       <c r="K555" s="1"/>
@@ -16903,7 +16903,7 @@
       <c r="E556" s="1"/>
       <c r="F556" s="1"/>
       <c r="G556" s="1"/>
-      <c r="H556" s="50"/>
+      <c r="H556" s="30"/>
       <c r="I556" s="1"/>
       <c r="J556" s="1"/>
       <c r="K556" s="1"/>
@@ -16931,7 +16931,7 @@
       <c r="E557" s="1"/>
       <c r="F557" s="1"/>
       <c r="G557" s="1"/>
-      <c r="H557" s="50"/>
+      <c r="H557" s="30"/>
       <c r="I557" s="1"/>
       <c r="J557" s="1"/>
       <c r="K557" s="1"/>
@@ -16959,7 +16959,7 @@
       <c r="E558" s="1"/>
       <c r="F558" s="1"/>
       <c r="G558" s="1"/>
-      <c r="H558" s="50"/>
+      <c r="H558" s="30"/>
       <c r="I558" s="1"/>
       <c r="J558" s="1"/>
       <c r="K558" s="1"/>
@@ -16987,7 +16987,7 @@
       <c r="E559" s="1"/>
       <c r="F559" s="1"/>
       <c r="G559" s="1"/>
-      <c r="H559" s="50"/>
+      <c r="H559" s="30"/>
       <c r="I559" s="1"/>
       <c r="J559" s="1"/>
       <c r="K559" s="1"/>
@@ -17015,7 +17015,7 @@
       <c r="E560" s="1"/>
       <c r="F560" s="1"/>
       <c r="G560" s="1"/>
-      <c r="H560" s="50"/>
+      <c r="H560" s="30"/>
       <c r="I560" s="1"/>
       <c r="J560" s="1"/>
       <c r="K560" s="1"/>
@@ -17043,7 +17043,7 @@
       <c r="E561" s="1"/>
       <c r="F561" s="1"/>
       <c r="G561" s="1"/>
-      <c r="H561" s="50"/>
+      <c r="H561" s="30"/>
       <c r="I561" s="1"/>
       <c r="J561" s="1"/>
       <c r="K561" s="1"/>
@@ -17071,7 +17071,7 @@
       <c r="E562" s="1"/>
       <c r="F562" s="1"/>
       <c r="G562" s="1"/>
-      <c r="H562" s="50"/>
+      <c r="H562" s="30"/>
       <c r="I562" s="1"/>
       <c r="J562" s="1"/>
       <c r="K562" s="1"/>
@@ -17099,7 +17099,7 @@
       <c r="E563" s="1"/>
       <c r="F563" s="1"/>
       <c r="G563" s="1"/>
-      <c r="H563" s="50"/>
+      <c r="H563" s="30"/>
       <c r="I563" s="1"/>
       <c r="J563" s="1"/>
       <c r="K563" s="1"/>
@@ -17127,7 +17127,7 @@
       <c r="E564" s="1"/>
       <c r="F564" s="1"/>
       <c r="G564" s="1"/>
-      <c r="H564" s="50"/>
+      <c r="H564" s="30"/>
       <c r="I564" s="1"/>
       <c r="J564" s="1"/>
       <c r="K564" s="1"/>
@@ -17155,7 +17155,7 @@
       <c r="E565" s="1"/>
       <c r="F565" s="1"/>
       <c r="G565" s="1"/>
-      <c r="H565" s="50"/>
+      <c r="H565" s="30"/>
       <c r="I565" s="1"/>
       <c r="J565" s="1"/>
       <c r="K565" s="1"/>
@@ -17183,7 +17183,7 @@
       <c r="E566" s="1"/>
       <c r="F566" s="1"/>
       <c r="G566" s="1"/>
-      <c r="H566" s="50"/>
+      <c r="H566" s="30"/>
       <c r="I566" s="1"/>
       <c r="J566" s="1"/>
       <c r="K566" s="1"/>
@@ -17211,7 +17211,7 @@
       <c r="E567" s="1"/>
       <c r="F567" s="1"/>
       <c r="G567" s="1"/>
-      <c r="H567" s="50"/>
+      <c r="H567" s="30"/>
       <c r="I567" s="1"/>
       <c r="J567" s="1"/>
       <c r="K567" s="1"/>
@@ -17239,7 +17239,7 @@
       <c r="E568" s="1"/>
       <c r="F568" s="1"/>
       <c r="G568" s="1"/>
-      <c r="H568" s="50"/>
+      <c r="H568" s="30"/>
       <c r="I568" s="1"/>
       <c r="J568" s="1"/>
       <c r="K568" s="1"/>
@@ -17267,7 +17267,7 @@
       <c r="E569" s="1"/>
       <c r="F569" s="1"/>
       <c r="G569" s="1"/>
-      <c r="H569" s="50"/>
+      <c r="H569" s="30"/>
       <c r="I569" s="1"/>
       <c r="J569" s="1"/>
       <c r="K569" s="1"/>
@@ -17295,7 +17295,7 @@
       <c r="E570" s="1"/>
       <c r="F570" s="1"/>
       <c r="G570" s="1"/>
-      <c r="H570" s="50"/>
+      <c r="H570" s="30"/>
       <c r="I570" s="1"/>
       <c r="J570" s="1"/>
       <c r="K570" s="1"/>
@@ -17323,7 +17323,7 @@
       <c r="E571" s="1"/>
       <c r="F571" s="1"/>
       <c r="G571" s="1"/>
-      <c r="H571" s="50"/>
+      <c r="H571" s="30"/>
       <c r="I571" s="1"/>
       <c r="J571" s="1"/>
       <c r="K571" s="1"/>
@@ -17351,7 +17351,7 @@
       <c r="E572" s="1"/>
       <c r="F572" s="1"/>
       <c r="G572" s="1"/>
-      <c r="H572" s="50"/>
+      <c r="H572" s="30"/>
       <c r="I572" s="1"/>
       <c r="J572" s="1"/>
       <c r="K572" s="1"/>
@@ -17379,7 +17379,7 @@
       <c r="E573" s="1"/>
       <c r="F573" s="1"/>
       <c r="G573" s="1"/>
-      <c r="H573" s="50"/>
+      <c r="H573" s="30"/>
       <c r="I573" s="1"/>
       <c r="J573" s="1"/>
       <c r="K573" s="1"/>
@@ -17407,7 +17407,7 @@
       <c r="E574" s="1"/>
       <c r="F574" s="1"/>
       <c r="G574" s="1"/>
-      <c r="H574" s="50"/>
+      <c r="H574" s="30"/>
       <c r="I574" s="1"/>
       <c r="J574" s="1"/>
       <c r="K574" s="1"/>
@@ -17435,7 +17435,7 @@
       <c r="E575" s="1"/>
       <c r="F575" s="1"/>
       <c r="G575" s="1"/>
-      <c r="H575" s="50"/>
+      <c r="H575" s="30"/>
       <c r="I575" s="1"/>
       <c r="J575" s="1"/>
       <c r="K575" s="1"/>
@@ -17463,7 +17463,7 @@
       <c r="E576" s="1"/>
       <c r="F576" s="1"/>
       <c r="G576" s="1"/>
-      <c r="H576" s="50"/>
+      <c r="H576" s="30"/>
       <c r="I576" s="1"/>
       <c r="J576" s="1"/>
       <c r="K576" s="1"/>
@@ -17491,7 +17491,7 @@
       <c r="E577" s="1"/>
       <c r="F577" s="1"/>
       <c r="G577" s="1"/>
-      <c r="H577" s="50"/>
+      <c r="H577" s="30"/>
       <c r="I577" s="1"/>
       <c r="J577" s="1"/>
       <c r="K577" s="1"/>
@@ -17519,7 +17519,7 @@
       <c r="E578" s="1"/>
       <c r="F578" s="1"/>
       <c r="G578" s="1"/>
-      <c r="H578" s="50"/>
+      <c r="H578" s="30"/>
       <c r="I578" s="1"/>
       <c r="J578" s="1"/>
       <c r="K578" s="1"/>
@@ -17547,7 +17547,7 @@
       <c r="E579" s="1"/>
       <c r="F579" s="1"/>
       <c r="G579" s="1"/>
-      <c r="H579" s="50"/>
+      <c r="H579" s="30"/>
       <c r="I579" s="1"/>
       <c r="J579" s="1"/>
       <c r="K579" s="1"/>
@@ -17575,7 +17575,7 @@
       <c r="E580" s="1"/>
       <c r="F580" s="1"/>
       <c r="G580" s="1"/>
-      <c r="H580" s="50"/>
+      <c r="H580" s="30"/>
       <c r="I580" s="1"/>
       <c r="J580" s="1"/>
       <c r="K580" s="1"/>
@@ -17603,7 +17603,7 @@
       <c r="E581" s="1"/>
       <c r="F581" s="1"/>
       <c r="G581" s="1"/>
-      <c r="H581" s="50"/>
+      <c r="H581" s="30"/>
       <c r="I581" s="1"/>
       <c r="J581" s="1"/>
       <c r="K581" s="1"/>
@@ -17631,7 +17631,7 @@
       <c r="E582" s="1"/>
       <c r="F582" s="1"/>
       <c r="G582" s="1"/>
-      <c r="H582" s="50"/>
+      <c r="H582" s="30"/>
       <c r="I582" s="1"/>
       <c r="J582" s="1"/>
       <c r="K582" s="1"/>
@@ -17659,7 +17659,7 @@
       <c r="E583" s="1"/>
       <c r="F583" s="1"/>
       <c r="G583" s="1"/>
-      <c r="H583" s="50"/>
+      <c r="H583" s="30"/>
       <c r="I583" s="1"/>
       <c r="J583" s="1"/>
       <c r="K583" s="1"/>
@@ -17687,7 +17687,7 @@
       <c r="E584" s="1"/>
       <c r="F584" s="1"/>
       <c r="G584" s="1"/>
-      <c r="H584" s="50"/>
+      <c r="H584" s="30"/>
       <c r="I584" s="1"/>
       <c r="J584" s="1"/>
       <c r="K584" s="1"/>
@@ -17715,7 +17715,7 @@
       <c r="E585" s="1"/>
       <c r="F585" s="1"/>
       <c r="G585" s="1"/>
-      <c r="H585" s="50"/>
+      <c r="H585" s="30"/>
       <c r="I585" s="1"/>
       <c r="J585" s="1"/>
       <c r="K585" s="1"/>
@@ -17743,7 +17743,7 @@
       <c r="E586" s="1"/>
       <c r="F586" s="1"/>
       <c r="G586" s="1"/>
-      <c r="H586" s="50"/>
+      <c r="H586" s="30"/>
       <c r="I586" s="1"/>
       <c r="J586" s="1"/>
       <c r="K586" s="1"/>
@@ -17771,7 +17771,7 @@
       <c r="E587" s="1"/>
       <c r="F587" s="1"/>
       <c r="G587" s="1"/>
-      <c r="H587" s="50"/>
+      <c r="H587" s="30"/>
       <c r="I587" s="1"/>
       <c r="J587" s="1"/>
       <c r="K587" s="1"/>
@@ -17799,7 +17799,7 @@
       <c r="E588" s="1"/>
       <c r="F588" s="1"/>
       <c r="G588" s="1"/>
-      <c r="H588" s="50"/>
+      <c r="H588" s="30"/>
       <c r="I588" s="1"/>
       <c r="J588" s="1"/>
       <c r="K588" s="1"/>
@@ -17827,7 +17827,7 @@
       <c r="E589" s="1"/>
       <c r="F589" s="1"/>
       <c r="G589" s="1"/>
-      <c r="H589" s="50"/>
+      <c r="H589" s="30"/>
       <c r="I589" s="1"/>
       <c r="J589" s="1"/>
       <c r="K589" s="1"/>
@@ -17855,7 +17855,7 @@
       <c r="E590" s="1"/>
       <c r="F590" s="1"/>
       <c r="G590" s="1"/>
-      <c r="H590" s="50"/>
+      <c r="H590" s="30"/>
       <c r="I590" s="1"/>
       <c r="J590" s="1"/>
       <c r="K590" s="1"/>
@@ -17883,7 +17883,7 @@
       <c r="E591" s="1"/>
       <c r="F591" s="1"/>
       <c r="G591" s="1"/>
-      <c r="H591" s="50"/>
+      <c r="H591" s="30"/>
       <c r="I591" s="1"/>
       <c r="J591" s="1"/>
       <c r="K591" s="1"/>
@@ -17911,7 +17911,7 @@
       <c r="E592" s="1"/>
       <c r="F592" s="1"/>
       <c r="G592" s="1"/>
-      <c r="H592" s="50"/>
+      <c r="H592" s="30"/>
       <c r="I592" s="1"/>
       <c r="J592" s="1"/>
       <c r="K592" s="1"/>
@@ -17939,7 +17939,7 @@
       <c r="E593" s="1"/>
       <c r="F593" s="1"/>
       <c r="G593" s="1"/>
-      <c r="H593" s="50"/>
+      <c r="H593" s="30"/>
       <c r="I593" s="1"/>
       <c r="J593" s="1"/>
       <c r="K593" s="1"/>
@@ -17967,7 +17967,7 @@
       <c r="E594" s="1"/>
       <c r="F594" s="1"/>
       <c r="G594" s="1"/>
-      <c r="H594" s="50"/>
+      <c r="H594" s="30"/>
       <c r="I594" s="1"/>
       <c r="J594" s="1"/>
       <c r="K594" s="1"/>
@@ -17995,7 +17995,7 @@
       <c r="E595" s="1"/>
       <c r="F595" s="1"/>
       <c r="G595" s="1"/>
-      <c r="H595" s="50"/>
+      <c r="H595" s="30"/>
       <c r="I595" s="1"/>
       <c r="J595" s="1"/>
       <c r="K595" s="1"/>
@@ -18023,7 +18023,7 @@
       <c r="E596" s="1"/>
       <c r="F596" s="1"/>
       <c r="G596" s="1"/>
-      <c r="H596" s="50"/>
+      <c r="H596" s="30"/>
       <c r="I596" s="1"/>
       <c r="J596" s="1"/>
       <c r="K596" s="1"/>
@@ -18051,7 +18051,7 @@
       <c r="E597" s="1"/>
       <c r="F597" s="1"/>
       <c r="G597" s="1"/>
-      <c r="H597" s="50"/>
+      <c r="H597" s="30"/>
       <c r="I597" s="1"/>
       <c r="J597" s="1"/>
       <c r="K597" s="1"/>
@@ -18079,7 +18079,7 @@
       <c r="E598" s="1"/>
       <c r="F598" s="1"/>
       <c r="G598" s="1"/>
-      <c r="H598" s="50"/>
+      <c r="H598" s="30"/>
       <c r="I598" s="1"/>
       <c r="J598" s="1"/>
       <c r="K598" s="1"/>
@@ -18107,7 +18107,7 @@
       <c r="E599" s="1"/>
       <c r="F599" s="1"/>
       <c r="G599" s="1"/>
-      <c r="H599" s="50"/>
+      <c r="H599" s="30"/>
       <c r="I599" s="1"/>
       <c r="J599" s="1"/>
       <c r="K599" s="1"/>
@@ -18135,7 +18135,7 @@
       <c r="E600" s="1"/>
       <c r="F600" s="1"/>
       <c r="G600" s="1"/>
-      <c r="H600" s="50"/>
+      <c r="H600" s="30"/>
       <c r="I600" s="1"/>
       <c r="J600" s="1"/>
       <c r="K600" s="1"/>
@@ -18163,7 +18163,7 @@
       <c r="E601" s="1"/>
       <c r="F601" s="1"/>
       <c r="G601" s="1"/>
-      <c r="H601" s="50"/>
+      <c r="H601" s="30"/>
       <c r="I601" s="1"/>
       <c r="J601" s="1"/>
       <c r="K601" s="1"/>
@@ -18191,7 +18191,7 @@
       <c r="E602" s="1"/>
       <c r="F602" s="1"/>
       <c r="G602" s="1"/>
-      <c r="H602" s="50"/>
+      <c r="H602" s="30"/>
       <c r="I602" s="1"/>
       <c r="J602" s="1"/>
       <c r="K602" s="1"/>
@@ -18219,7 +18219,7 @@
       <c r="E603" s="1"/>
       <c r="F603" s="1"/>
       <c r="G603" s="1"/>
-      <c r="H603" s="50"/>
+      <c r="H603" s="30"/>
       <c r="I603" s="1"/>
       <c r="J603" s="1"/>
       <c r="K603" s="1"/>
@@ -18247,7 +18247,7 @@
       <c r="E604" s="1"/>
       <c r="F604" s="1"/>
       <c r="G604" s="1"/>
-      <c r="H604" s="50"/>
+      <c r="H604" s="30"/>
       <c r="I604" s="1"/>
       <c r="J604" s="1"/>
       <c r="K604" s="1"/>
@@ -18275,7 +18275,7 @@
       <c r="E605" s="1"/>
       <c r="F605" s="1"/>
       <c r="G605" s="1"/>
-      <c r="H605" s="50"/>
+      <c r="H605" s="30"/>
       <c r="I605" s="1"/>
       <c r="J605" s="1"/>
       <c r="K605" s="1"/>
@@ -18303,7 +18303,7 @@
       <c r="E606" s="1"/>
       <c r="F606" s="1"/>
       <c r="G606" s="1"/>
-      <c r="H606" s="50"/>
+      <c r="H606" s="30"/>
       <c r="I606" s="1"/>
       <c r="J606" s="1"/>
       <c r="K606" s="1"/>
@@ -18331,7 +18331,7 @@
       <c r="E607" s="1"/>
       <c r="F607" s="1"/>
       <c r="G607" s="1"/>
-      <c r="H607" s="50"/>
+      <c r="H607" s="30"/>
       <c r="I607" s="1"/>
       <c r="J607" s="1"/>
       <c r="K607" s="1"/>
@@ -18359,7 +18359,7 @@
       <c r="E608" s="1"/>
       <c r="F608" s="1"/>
       <c r="G608" s="1"/>
-      <c r="H608" s="50"/>
+      <c r="H608" s="30"/>
       <c r="I608" s="1"/>
       <c r="J608" s="1"/>
       <c r="K608" s="1"/>
@@ -18387,7 +18387,7 @@
       <c r="E609" s="1"/>
       <c r="F609" s="1"/>
       <c r="G609" s="1"/>
-      <c r="H609" s="50"/>
+      <c r="H609" s="30"/>
       <c r="I609" s="1"/>
       <c r="J609" s="1"/>
       <c r="K609" s="1"/>
@@ -18415,7 +18415,7 @@
       <c r="E610" s="1"/>
       <c r="F610" s="1"/>
       <c r="G610" s="1"/>
-      <c r="H610" s="50"/>
+      <c r="H610" s="30"/>
       <c r="I610" s="1"/>
       <c r="J610" s="1"/>
       <c r="K610" s="1"/>
@@ -18443,7 +18443,7 @@
       <c r="E611" s="1"/>
       <c r="F611" s="1"/>
       <c r="G611" s="1"/>
-      <c r="H611" s="50"/>
+      <c r="H611" s="30"/>
       <c r="I611" s="1"/>
       <c r="J611" s="1"/>
       <c r="K611" s="1"/>
@@ -18471,7 +18471,7 @@
       <c r="E612" s="1"/>
       <c r="F612" s="1"/>
       <c r="G612" s="1"/>
-      <c r="H612" s="50"/>
+      <c r="H612" s="30"/>
       <c r="I612" s="1"/>
       <c r="J612" s="1"/>
       <c r="K612" s="1"/>
@@ -18499,7 +18499,7 @@
       <c r="E613" s="1"/>
       <c r="F613" s="1"/>
       <c r="G613" s="1"/>
-      <c r="H613" s="50"/>
+      <c r="H613" s="30"/>
       <c r="I613" s="1"/>
       <c r="J613" s="1"/>
       <c r="K613" s="1"/>
@@ -18527,7 +18527,7 @@
       <c r="E614" s="1"/>
       <c r="F614" s="1"/>
       <c r="G614" s="1"/>
-      <c r="H614" s="50"/>
+      <c r="H614" s="30"/>
       <c r="I614" s="1"/>
       <c r="J614" s="1"/>
       <c r="K614" s="1"/>
@@ -18555,7 +18555,7 @@
       <c r="E615" s="1"/>
       <c r="F615" s="1"/>
       <c r="G615" s="1"/>
-      <c r="H615" s="50"/>
+      <c r="H615" s="30"/>
       <c r="I615" s="1"/>
       <c r="J615" s="1"/>
       <c r="K615" s="1"/>
@@ -18583,7 +18583,7 @@
       <c r="E616" s="1"/>
       <c r="F616" s="1"/>
       <c r="G616" s="1"/>
-      <c r="H616" s="50"/>
+      <c r="H616" s="30"/>
       <c r="I616" s="1"/>
       <c r="J616" s="1"/>
       <c r="K616" s="1"/>
@@ -18611,7 +18611,7 @@
       <c r="E617" s="1"/>
       <c r="F617" s="1"/>
       <c r="G617" s="1"/>
-      <c r="H617" s="50"/>
+      <c r="H617" s="30"/>
       <c r="I617" s="1"/>
       <c r="J617" s="1"/>
       <c r="K617" s="1"/>
@@ -18639,7 +18639,7 @@
       <c r="E618" s="1"/>
       <c r="F618" s="1"/>
       <c r="G618" s="1"/>
-      <c r="H618" s="50"/>
+      <c r="H618" s="30"/>
       <c r="I618" s="1"/>
       <c r="J618" s="1"/>
       <c r="K618" s="1"/>
@@ -18667,7 +18667,7 @@
       <c r="E619" s="1"/>
       <c r="F619" s="1"/>
       <c r="G619" s="1"/>
-      <c r="H619" s="50"/>
+      <c r="H619" s="30"/>
       <c r="I619" s="1"/>
       <c r="J619" s="1"/>
       <c r="K619" s="1"/>
@@ -18695,7 +18695,7 @@
       <c r="E620" s="1"/>
       <c r="F620" s="1"/>
       <c r="G620" s="1"/>
-      <c r="H620" s="50"/>
+      <c r="H620" s="30"/>
       <c r="I620" s="1"/>
       <c r="J620" s="1"/>
       <c r="K620" s="1"/>
@@ -18723,7 +18723,7 @@
       <c r="E621" s="1"/>
       <c r="F621" s="1"/>
       <c r="G621" s="1"/>
-      <c r="H621" s="50"/>
+      <c r="H621" s="30"/>
       <c r="I621" s="1"/>
       <c r="J621" s="1"/>
       <c r="K621" s="1"/>
@@ -18751,7 +18751,7 @@
       <c r="E622" s="1"/>
       <c r="F622" s="1"/>
       <c r="G622" s="1"/>
-      <c r="H622" s="50"/>
+      <c r="H622" s="30"/>
       <c r="I622" s="1"/>
       <c r="J622" s="1"/>
       <c r="K622" s="1"/>
@@ -18779,7 +18779,7 @@
       <c r="E623" s="1"/>
       <c r="F623" s="1"/>
       <c r="G623" s="1"/>
-      <c r="H623" s="50"/>
+      <c r="H623" s="30"/>
       <c r="I623" s="1"/>
       <c r="J623" s="1"/>
       <c r="K623" s="1"/>
@@ -18807,7 +18807,7 @@
       <c r="E624" s="1"/>
       <c r="F624" s="1"/>
       <c r="G624" s="1"/>
-      <c r="H624" s="50"/>
+      <c r="H624" s="30"/>
       <c r="I624" s="1"/>
       <c r="J624" s="1"/>
       <c r="K624" s="1"/>
@@ -18835,7 +18835,7 @@
       <c r="E625" s="1"/>
       <c r="F625" s="1"/>
       <c r="G625" s="1"/>
-      <c r="H625" s="50"/>
+      <c r="H625" s="30"/>
       <c r="I625" s="1"/>
       <c r="J625" s="1"/>
       <c r="K625" s="1"/>
@@ -18863,7 +18863,7 @@
       <c r="E626" s="1"/>
       <c r="F626" s="1"/>
       <c r="G626" s="1"/>
-      <c r="H626" s="50"/>
+      <c r="H626" s="30"/>
       <c r="I626" s="1"/>
       <c r="J626" s="1"/>
       <c r="K626" s="1"/>
@@ -18891,7 +18891,7 @@
       <c r="E627" s="1"/>
       <c r="F627" s="1"/>
       <c r="G627" s="1"/>
-      <c r="H627" s="50"/>
+      <c r="H627" s="30"/>
       <c r="I627" s="1"/>
       <c r="J627" s="1"/>
       <c r="K627" s="1"/>
@@ -18919,7 +18919,7 @@
       <c r="E628" s="1"/>
       <c r="F628" s="1"/>
       <c r="G628" s="1"/>
-      <c r="H628" s="50"/>
+      <c r="H628" s="30"/>
       <c r="I628" s="1"/>
       <c r="J628" s="1"/>
       <c r="K628" s="1"/>
@@ -18947,7 +18947,7 @@
       <c r="E629" s="1"/>
       <c r="F629" s="1"/>
       <c r="G629" s="1"/>
-      <c r="H629" s="50"/>
+      <c r="H629" s="30"/>
       <c r="I629" s="1"/>
       <c r="J629" s="1"/>
       <c r="K629" s="1"/>
@@ -18975,7 +18975,7 @@
       <c r="E630" s="1"/>
       <c r="F630" s="1"/>
       <c r="G630" s="1"/>
-      <c r="H630" s="50"/>
+      <c r="H630" s="30"/>
       <c r="I630" s="1"/>
       <c r="J630" s="1"/>
       <c r="K630" s="1"/>
@@ -19003,7 +19003,7 @@
       <c r="E631" s="1"/>
       <c r="F631" s="1"/>
       <c r="G631" s="1"/>
-      <c r="H631" s="50"/>
+      <c r="H631" s="30"/>
       <c r="I631" s="1"/>
       <c r="J631" s="1"/>
       <c r="K631" s="1"/>
@@ -19031,7 +19031,7 @@
       <c r="E632" s="1"/>
       <c r="F632" s="1"/>
       <c r="G632" s="1"/>
-      <c r="H632" s="50"/>
+      <c r="H632" s="30"/>
       <c r="I632" s="1"/>
       <c r="J632" s="1"/>
       <c r="K632" s="1"/>
@@ -19059,7 +19059,7 @@
       <c r="E633" s="1"/>
       <c r="F633" s="1"/>
       <c r="G633" s="1"/>
-      <c r="H633" s="50"/>
+      <c r="H633" s="30"/>
       <c r="I633" s="1"/>
       <c r="J633" s="1"/>
       <c r="K633" s="1"/>
@@ -19087,7 +19087,7 @@
       <c r="E634" s="1"/>
       <c r="F634" s="1"/>
       <c r="G634" s="1"/>
-      <c r="H634" s="50"/>
+      <c r="H634" s="30"/>
       <c r="I634" s="1"/>
       <c r="J634" s="1"/>
       <c r="K634" s="1"/>
@@ -19115,7 +19115,7 @@
       <c r="E635" s="1"/>
       <c r="F635" s="1"/>
       <c r="G635" s="1"/>
-      <c r="H635" s="50"/>
+      <c r="H635" s="30"/>
       <c r="I635" s="1"/>
       <c r="J635" s="1"/>
       <c r="K635" s="1"/>
@@ -19143,7 +19143,7 @@
       <c r="E636" s="1"/>
       <c r="F636" s="1"/>
       <c r="G636" s="1"/>
-      <c r="H636" s="50"/>
+      <c r="H636" s="30"/>
       <c r="I636" s="1"/>
       <c r="J636" s="1"/>
       <c r="K636" s="1"/>
@@ -19171,7 +19171,7 @@
       <c r="E637" s="1"/>
       <c r="F637" s="1"/>
       <c r="G637" s="1"/>
-      <c r="H637" s="50"/>
+      <c r="H637" s="30"/>
       <c r="I637" s="1"/>
       <c r="J637" s="1"/>
       <c r="K637" s="1"/>
@@ -19199,7 +19199,7 @@
       <c r="E638" s="1"/>
       <c r="F638" s="1"/>
       <c r="G638" s="1"/>
-      <c r="H638" s="50"/>
+      <c r="H638" s="30"/>
       <c r="I638" s="1"/>
       <c r="J638" s="1"/>
       <c r="K638" s="1"/>
@@ -19227,7 +19227,7 @@
       <c r="E639" s="1"/>
       <c r="F639" s="1"/>
       <c r="G639" s="1"/>
-      <c r="H639" s="50"/>
+      <c r="H639" s="30"/>
       <c r="I639" s="1"/>
       <c r="J639" s="1"/>
       <c r="K639" s="1"/>
@@ -19255,7 +19255,7 @@
       <c r="E640" s="1"/>
       <c r="F640" s="1"/>
       <c r="G640" s="1"/>
-      <c r="H640" s="50"/>
+      <c r="H640" s="30"/>
       <c r="I640" s="1"/>
       <c r="J640" s="1"/>
       <c r="K640" s="1"/>
@@ -19283,7 +19283,7 @@
       <c r="E641" s="1"/>
       <c r="F641" s="1"/>
       <c r="G641" s="1"/>
-      <c r="H641" s="50"/>
+      <c r="H641" s="30"/>
       <c r="I641" s="1"/>
       <c r="J641" s="1"/>
       <c r="K641" s="1"/>
@@ -19311,7 +19311,7 @@
       <c r="E642" s="1"/>
       <c r="F642" s="1"/>
       <c r="G642" s="1"/>
-      <c r="H642" s="50"/>
+      <c r="H642" s="30"/>
       <c r="I642" s="1"/>
       <c r="J642" s="1"/>
       <c r="K642" s="1"/>
@@ -19339,7 +19339,7 @@
       <c r="E643" s="1"/>
       <c r="F643" s="1"/>
       <c r="G643" s="1"/>
-      <c r="H643" s="50"/>
+      <c r="H643" s="30"/>
       <c r="I643" s="1"/>
       <c r="J643" s="1"/>
       <c r="K643" s="1"/>
@@ -19367,7 +19367,7 @@
       <c r="E644" s="1"/>
       <c r="F644" s="1"/>
       <c r="G644" s="1"/>
-      <c r="H644" s="50"/>
+      <c r="H644" s="30"/>
       <c r="I644" s="1"/>
       <c r="J644" s="1"/>
       <c r="K644" s="1"/>
@@ -19395,7 +19395,7 @@
       <c r="E645" s="1"/>
       <c r="F645" s="1"/>
       <c r="G645" s="1"/>
-      <c r="H645" s="50"/>
+      <c r="H645" s="30"/>
       <c r="I645" s="1"/>
       <c r="J645" s="1"/>
       <c r="K645" s="1"/>
@@ -19423,7 +19423,7 @@
       <c r="E646" s="1"/>
       <c r="F646" s="1"/>
       <c r="G646" s="1"/>
-      <c r="H646" s="50"/>
+      <c r="H646" s="30"/>
       <c r="I646" s="1"/>
       <c r="J646" s="1"/>
       <c r="K646" s="1"/>
@@ -19451,7 +19451,7 @@
       <c r="E647" s="1"/>
       <c r="F647" s="1"/>
       <c r="G647" s="1"/>
-      <c r="H647" s="50"/>
+      <c r="H647" s="30"/>
       <c r="I647" s="1"/>
       <c r="J647" s="1"/>
       <c r="K647" s="1"/>
@@ -19479,7 +19479,7 @@
       <c r="E648" s="1"/>
       <c r="F648" s="1"/>
       <c r="G648" s="1"/>
-      <c r="H648" s="50"/>
+      <c r="H648" s="30"/>
       <c r="I648" s="1"/>
       <c r="J648" s="1"/>
       <c r="K648" s="1"/>
@@ -19507,7 +19507,7 @@
       <c r="E649" s="1"/>
       <c r="F649" s="1"/>
       <c r="G649" s="1"/>
-      <c r="H649" s="50"/>
+      <c r="H649" s="30"/>
       <c r="I649" s="1"/>
       <c r="J649" s="1"/>
       <c r="K649" s="1"/>
@@ -19535,7 +19535,7 @@
       <c r="E650" s="1"/>
       <c r="F650" s="1"/>
       <c r="G650" s="1"/>
-      <c r="H650" s="50"/>
+      <c r="H650" s="30"/>
       <c r="I650" s="1"/>
       <c r="J650" s="1"/>
       <c r="K650" s="1"/>
@@ -19563,7 +19563,7 @@
       <c r="E651" s="1"/>
       <c r="F651" s="1"/>
       <c r="G651" s="1"/>
-      <c r="H651" s="50"/>
+      <c r="H651" s="30"/>
       <c r="I651" s="1"/>
       <c r="J651" s="1"/>
       <c r="K651" s="1"/>
@@ -19591,7 +19591,7 @@
       <c r="E652" s="1"/>
       <c r="F652" s="1"/>
       <c r="G652" s="1"/>
-      <c r="H652" s="50"/>
+      <c r="H652" s="30"/>
       <c r="I652" s="1"/>
       <c r="J652" s="1"/>
       <c r="K652" s="1"/>
@@ -19619,7 +19619,7 @@
       <c r="E653" s="1"/>
       <c r="F653" s="1"/>
       <c r="G653" s="1"/>
-      <c r="H653" s="50"/>
+      <c r="H653" s="30"/>
       <c r="I653" s="1"/>
       <c r="J653" s="1"/>
       <c r="K653" s="1"/>
@@ -19647,7 +19647,7 @@
       <c r="E654" s="1"/>
       <c r="F654" s="1"/>
       <c r="G654" s="1"/>
-      <c r="H654" s="50"/>
+      <c r="H654" s="30"/>
       <c r="I654" s="1"/>
       <c r="J654" s="1"/>
       <c r="K654" s="1"/>
@@ -19675,7 +19675,7 @@
       <c r="E655" s="1"/>
       <c r="F655" s="1"/>
       <c r="G655" s="1"/>
-      <c r="H655" s="50"/>
+      <c r="H655" s="30"/>
       <c r="I655" s="1"/>
       <c r="J655" s="1"/>
       <c r="K655" s="1"/>
@@ -19703,7 +19703,7 @@
       <c r="E656" s="1"/>
       <c r="F656" s="1"/>
       <c r="G656" s="1"/>
-      <c r="H656" s="50"/>
+      <c r="H656" s="30"/>
       <c r="I656" s="1"/>
       <c r="J656" s="1"/>
       <c r="K656" s="1"/>
@@ -19731,7 +19731,7 @@
       <c r="E657" s="1"/>
       <c r="F657" s="1"/>
       <c r="G657" s="1"/>
-      <c r="H657" s="50"/>
+      <c r="H657" s="30"/>
       <c r="I657" s="1"/>
       <c r="J657" s="1"/>
       <c r="K657" s="1"/>
@@ -19759,7 +19759,7 @@
       <c r="E658" s="1"/>
       <c r="F658" s="1"/>
       <c r="G658" s="1"/>
-      <c r="H658" s="50"/>
+      <c r="H658" s="30"/>
       <c r="I658" s="1"/>
       <c r="J658" s="1"/>
       <c r="K658" s="1"/>
@@ -19787,7 +19787,7 @@
       <c r="E659" s="1"/>
       <c r="F659" s="1"/>
       <c r="G659" s="1"/>
-      <c r="H659" s="50"/>
+      <c r="H659" s="30"/>
       <c r="I659" s="1"/>
       <c r="J659" s="1"/>
       <c r="K659" s="1"/>
@@ -19815,7 +19815,7 @@
       <c r="E660" s="1"/>
       <c r="F660" s="1"/>
       <c r="G660" s="1"/>
-      <c r="H660" s="50"/>
+      <c r="H660" s="30"/>
       <c r="I660" s="1"/>
       <c r="J660" s="1"/>
       <c r="K660" s="1"/>
@@ -19843,7 +19843,7 @@
       <c r="E661" s="1"/>
       <c r="F661" s="1"/>
       <c r="G661" s="1"/>
-      <c r="H661" s="50"/>
+      <c r="H661" s="30"/>
       <c r="I661" s="1"/>
       <c r="J661" s="1"/>
       <c r="K661" s="1"/>
@@ -19871,7 +19871,7 @@
       <c r="E662" s="1"/>
       <c r="F662" s="1"/>
       <c r="G662" s="1"/>
-      <c r="H662" s="50"/>
+      <c r="H662" s="30"/>
       <c r="I662" s="1"/>
       <c r="J662" s="1"/>
       <c r="K662" s="1"/>
@@ -19899,7 +19899,7 @@
       <c r="E663" s="1"/>
       <c r="F663" s="1"/>
       <c r="G663" s="1"/>
-      <c r="H663" s="50"/>
+      <c r="H663" s="30"/>
       <c r="I663" s="1"/>
       <c r="J663" s="1"/>
       <c r="K663" s="1"/>
@@ -19927,7 +19927,7 @@
       <c r="E664" s="1"/>
       <c r="F664" s="1"/>
       <c r="G664" s="1"/>
-      <c r="H664" s="50"/>
+      <c r="H664" s="30"/>
       <c r="I664" s="1"/>
       <c r="J664" s="1"/>
       <c r="K664" s="1"/>
@@ -19955,7 +19955,7 @@
       <c r="E665" s="1"/>
       <c r="F665" s="1"/>
       <c r="G665" s="1"/>
-      <c r="H665" s="50"/>
+      <c r="H665" s="30"/>
       <c r="I665" s="1"/>
       <c r="J665" s="1"/>
       <c r="K665" s="1"/>
@@ -19983,7 +19983,7 @@
       <c r="E666" s="1"/>
       <c r="F666" s="1"/>
       <c r="G666" s="1"/>
-      <c r="H666" s="50"/>
+      <c r="H666" s="30"/>
       <c r="I666" s="1"/>
       <c r="J666" s="1"/>
       <c r="K666" s="1"/>
@@ -20011,7 +20011,7 @@
       <c r="E667" s="1"/>
       <c r="F667" s="1"/>
       <c r="G667" s="1"/>
-      <c r="H667" s="50"/>
+      <c r="H667" s="30"/>
       <c r="I667" s="1"/>
       <c r="J667" s="1"/>
       <c r="K667" s="1"/>
@@ -20039,7 +20039,7 @@
       <c r="E668" s="1"/>
       <c r="F668" s="1"/>
       <c r="G668" s="1"/>
-      <c r="H668" s="50"/>
+      <c r="H668" s="30"/>
       <c r="I668" s="1"/>
       <c r="J668" s="1"/>
       <c r="K668" s="1"/>
@@ -20067,7 +20067,7 @@
       <c r="E669" s="1"/>
       <c r="F669" s="1"/>
       <c r="G669" s="1"/>
-      <c r="H669" s="50"/>
+      <c r="H669" s="30"/>
       <c r="I669" s="1"/>
       <c r="J669" s="1"/>
       <c r="K669" s="1"/>
@@ -20095,7 +20095,7 @@
       <c r="E670" s="1"/>
       <c r="F670" s="1"/>
       <c r="G670" s="1"/>
-      <c r="H670" s="50"/>
+      <c r="H670" s="30"/>
       <c r="I670" s="1"/>
       <c r="J670" s="1"/>
       <c r="K670" s="1"/>
@@ -20123,7 +20123,7 @@
       <c r="E671" s="1"/>
       <c r="F671" s="1"/>
       <c r="G671" s="1"/>
-      <c r="H671" s="50"/>
+      <c r="H671" s="30"/>
       <c r="I671" s="1"/>
       <c r="J671" s="1"/>
       <c r="K671" s="1"/>
@@ -20151,7 +20151,7 @@
       <c r="E672" s="1"/>
       <c r="F672" s="1"/>
       <c r="G672" s="1"/>
-      <c r="H672" s="50"/>
+      <c r="H672" s="30"/>
       <c r="I672" s="1"/>
       <c r="J672" s="1"/>
       <c r="K672" s="1"/>
@@ -20179,7 +20179,7 @@
       <c r="E673" s="1"/>
       <c r="F673" s="1"/>
       <c r="G673" s="1"/>
-      <c r="H673" s="50"/>
+      <c r="H673" s="30"/>
       <c r="I673" s="1"/>
       <c r="J673" s="1"/>
       <c r="K673" s="1"/>
@@ -20207,7 +20207,7 @@
       <c r="E674" s="1"/>
       <c r="F674" s="1"/>
       <c r="G674" s="1"/>
-      <c r="H674" s="50"/>
+      <c r="H674" s="30"/>
       <c r="I674" s="1"/>
       <c r="J674" s="1"/>
       <c r="K674" s="1"/>
@@ -20235,7 +20235,7 @@
       <c r="E675" s="1"/>
       <c r="F675" s="1"/>
       <c r="G675" s="1"/>
-      <c r="H675" s="50"/>
+      <c r="H675" s="30"/>
       <c r="I675" s="1"/>
       <c r="J675" s="1"/>
       <c r="K675" s="1"/>
@@ -20263,7 +20263,7 @@
       <c r="E676" s="1"/>
       <c r="F676" s="1"/>
       <c r="G676" s="1"/>
-      <c r="H676" s="50"/>
+      <c r="H676" s="30"/>
       <c r="I676" s="1"/>
       <c r="J676" s="1"/>
       <c r="K676" s="1"/>
@@ -20291,7 +20291,7 @@
       <c r="E677" s="1"/>
       <c r="F677" s="1"/>
       <c r="G677" s="1"/>
-      <c r="H677" s="50"/>
+      <c r="H677" s="30"/>
       <c r="I677" s="1"/>
       <c r="J677" s="1"/>
       <c r="K677" s="1"/>
@@ -20319,7 +20319,7 @@
       <c r="E678" s="1"/>
       <c r="F678" s="1"/>
       <c r="G678" s="1"/>
-      <c r="H678" s="50"/>
+      <c r="H678" s="30"/>
       <c r="I678" s="1"/>
       <c r="J678" s="1"/>
       <c r="K678" s="1"/>
@@ -20347,7 +20347,7 @@
       <c r="E679" s="1"/>
       <c r="F679" s="1"/>
       <c r="G679" s="1"/>
-      <c r="H679" s="50"/>
+      <c r="H679" s="30"/>
       <c r="I679" s="1"/>
       <c r="J679" s="1"/>
       <c r="K679" s="1"/>
@@ -20375,7 +20375,7 @@
       <c r="E680" s="1"/>
       <c r="F680" s="1"/>
       <c r="G680" s="1"/>
-      <c r="H680" s="50"/>
+      <c r="H680" s="30"/>
       <c r="I680" s="1"/>
       <c r="J680" s="1"/>
       <c r="K680" s="1"/>
@@ -20403,7 +20403,7 @@
       <c r="E681" s="1"/>
       <c r="F681" s="1"/>
       <c r="G681" s="1"/>
-      <c r="H681" s="50"/>
+      <c r="H681" s="30"/>
       <c r="I681" s="1"/>
       <c r="J681" s="1"/>
       <c r="K681" s="1"/>
@@ -20431,7 +20431,7 @@
       <c r="E682" s="1"/>
       <c r="F682" s="1"/>
       <c r="G682" s="1"/>
-      <c r="H682" s="50"/>
+      <c r="H682" s="30"/>
       <c r="I682" s="1"/>
       <c r="J682" s="1"/>
       <c r="K682" s="1"/>
@@ -20459,7 +20459,7 @@
       <c r="E683" s="1"/>
       <c r="F683" s="1"/>
       <c r="G683" s="1"/>
-      <c r="H683" s="50"/>
+      <c r="H683" s="30"/>
       <c r="I683" s="1"/>
       <c r="J683" s="1"/>
       <c r="K683" s="1"/>
@@ -20487,7 +20487,7 @@
       <c r="E684" s="1"/>
       <c r="F684" s="1"/>
       <c r="G684" s="1"/>
-      <c r="H684" s="50"/>
+      <c r="H684" s="30"/>
       <c r="I684" s="1"/>
       <c r="J684" s="1"/>
       <c r="K684" s="1"/>
@@ -20515,7 +20515,7 @@
       <c r="E685" s="1"/>
       <c r="F685" s="1"/>
       <c r="G685" s="1"/>
-      <c r="H685" s="50"/>
+      <c r="H685" s="30"/>
       <c r="I685" s="1"/>
       <c r="J685" s="1"/>
       <c r="K685" s="1"/>
@@ -20543,7 +20543,7 @@
       <c r="E686" s="1"/>
       <c r="F686" s="1"/>
       <c r="G686" s="1"/>
-      <c r="H686" s="50"/>
+      <c r="H686" s="30"/>
       <c r="I686" s="1"/>
       <c r="J686" s="1"/>
       <c r="K686" s="1"/>
@@ -20571,7 +20571,7 @@
       <c r="E687" s="1"/>
       <c r="F687" s="1"/>
       <c r="G687" s="1"/>
-      <c r="H687" s="50"/>
+      <c r="H687" s="30"/>
       <c r="I687" s="1"/>
       <c r="J687" s="1"/>
       <c r="K687" s="1"/>
@@ -20599,7 +20599,7 @@
       <c r="E688" s="1"/>
       <c r="F688" s="1"/>
       <c r="G688" s="1"/>
-      <c r="H688" s="50"/>
+      <c r="H688" s="30"/>
       <c r="I688" s="1"/>
       <c r="J688" s="1"/>
       <c r="K688" s="1"/>
@@ -20627,7 +20627,7 @@
       <c r="E689" s="1"/>
       <c r="F689" s="1"/>
       <c r="G689" s="1"/>
-      <c r="H689" s="50"/>
+      <c r="H689" s="30"/>
       <c r="I689" s="1"/>
       <c r="J689" s="1"/>
       <c r="K689" s="1"/>
@@ -20655,7 +20655,7 @@
       <c r="E690" s="1"/>
       <c r="F690" s="1"/>
       <c r="G690" s="1"/>
-      <c r="H690" s="50"/>
+      <c r="H690" s="30"/>
       <c r="I690" s="1"/>
       <c r="J690" s="1"/>
       <c r="K690" s="1"/>
@@ -20683,7 +20683,7 @@
       <c r="E691" s="1"/>
       <c r="F691" s="1"/>
       <c r="G691" s="1"/>
-      <c r="H691" s="50"/>
+      <c r="H691" s="30"/>
       <c r="I691" s="1"/>
       <c r="J691" s="1"/>
       <c r="K691" s="1"/>
@@ -20711,7 +20711,7 @@
       <c r="E692" s="1"/>
       <c r="F692" s="1"/>
       <c r="G692" s="1"/>
-      <c r="H692" s="50"/>
+      <c r="H692" s="30"/>
       <c r="I692" s="1"/>
       <c r="J692" s="1"/>
       <c r="K692" s="1"/>
@@ -20739,7 +20739,7 @@
       <c r="E693" s="1"/>
       <c r="F693" s="1"/>
       <c r="G693" s="1"/>
-      <c r="H693" s="50"/>
+      <c r="H693" s="30"/>
       <c r="I693" s="1"/>
       <c r="J693" s="1"/>
       <c r="K693" s="1"/>
@@ -20767,7 +20767,7 @@
       <c r="E694" s="1"/>
       <c r="F694" s="1"/>
       <c r="G694" s="1"/>
-      <c r="H694" s="50"/>
+      <c r="H694" s="30"/>
       <c r="I694" s="1"/>
       <c r="J694" s="1"/>
       <c r="K694" s="1"/>
@@ -20795,7 +20795,7 @@
       <c r="E695" s="1"/>
       <c r="F695" s="1"/>
       <c r="G695" s="1"/>
-      <c r="H695" s="50"/>
+      <c r="H695" s="30"/>
       <c r="I695" s="1"/>
       <c r="J695" s="1"/>
       <c r="K695" s="1"/>
@@ -20823,7 +20823,7 @@
       <c r="E696" s="1"/>
       <c r="F696" s="1"/>
       <c r="G696" s="1"/>
-      <c r="H696" s="50"/>
+      <c r="H696" s="30"/>
       <c r="I696" s="1"/>
       <c r="J696" s="1"/>
       <c r="K696" s="1"/>
@@ -20851,7 +20851,7 @@
       <c r="E697" s="1"/>
       <c r="F697" s="1"/>
       <c r="G697" s="1"/>
-      <c r="H697" s="50"/>
+      <c r="H697" s="30"/>
       <c r="I697" s="1"/>
       <c r="J697" s="1"/>
       <c r="K697" s="1"/>
@@ -20879,7 +20879,7 @@
       <c r="E698" s="1"/>
       <c r="F698" s="1"/>
       <c r="G698" s="1"/>
-      <c r="H698" s="50"/>
+      <c r="H698" s="30"/>
       <c r="I698" s="1"/>
       <c r="J698" s="1"/>
       <c r="K698" s="1"/>
@@ -20907,7 +20907,7 @@
       <c r="E699" s="1"/>
       <c r="F699" s="1"/>
       <c r="G699" s="1"/>
-      <c r="H699" s="50"/>
+      <c r="H699" s="30"/>
       <c r="I699" s="1"/>
       <c r="J699" s="1"/>
       <c r="K699" s="1"/>
@@ -20935,7 +20935,7 @@
       <c r="E700" s="1"/>
       <c r="F700" s="1"/>
       <c r="G700" s="1"/>
-      <c r="H700" s="50"/>
+      <c r="H700" s="30"/>
       <c r="I700" s="1"/>
       <c r="J700" s="1"/>
       <c r="K700" s="1"/>
@@ -20963,7 +20963,7 @@
       <c r="E701" s="1"/>
       <c r="F701" s="1"/>
       <c r="G701" s="1"/>
-      <c r="H701" s="50"/>
+      <c r="H701" s="30"/>
       <c r="I701" s="1"/>
       <c r="J701" s="1"/>
       <c r="K701" s="1"/>
@@ -20991,7 +20991,7 @@
       <c r="E702" s="1"/>
       <c r="F702" s="1"/>
       <c r="G702" s="1"/>
-      <c r="H702" s="50"/>
+      <c r="H702" s="30"/>
       <c r="I702" s="1"/>
       <c r="J702" s="1"/>
       <c r="K702" s="1"/>
@@ -21019,7 +21019,7 @@
       <c r="E703" s="1"/>
       <c r="F703" s="1"/>
       <c r="G703" s="1"/>
-      <c r="H703" s="50"/>
+      <c r="H703" s="30"/>
       <c r="I703" s="1"/>
       <c r="J703" s="1"/>
       <c r="K703" s="1"/>
@@ -21047,7 +21047,7 @@
       <c r="E704" s="1"/>
       <c r="F704" s="1"/>
       <c r="G704" s="1"/>
-      <c r="H704" s="50"/>
+      <c r="H704" s="30"/>
       <c r="I704" s="1"/>
       <c r="J704" s="1"/>
       <c r="K704" s="1"/>
@@ -21075,7 +21075,7 @@
       <c r="E705" s="1"/>
       <c r="F705" s="1"/>
       <c r="G705" s="1"/>
-      <c r="H705" s="50"/>
+      <c r="H705" s="30"/>
       <c r="I705" s="1"/>
       <c r="J705" s="1"/>
       <c r="K705" s="1"/>
@@ -21103,7 +21103,7 @@
       <c r="E706" s="1"/>
       <c r="F706" s="1"/>
       <c r="G706" s="1"/>
-      <c r="H706" s="50"/>
+      <c r="H706" s="30"/>
       <c r="I706" s="1"/>
       <c r="J706" s="1"/>
       <c r="K706" s="1"/>
@@ -21131,7 +21131,7 @@
       <c r="E707" s="1"/>
       <c r="F707" s="1"/>
       <c r="G707" s="1"/>
-      <c r="H707" s="50"/>
+      <c r="H707" s="30"/>
       <c r="I707" s="1"/>
       <c r="J707" s="1"/>
       <c r="K707" s="1"/>
@@ -21159,7 +21159,7 @@
       <c r="E708" s="1"/>
       <c r="F708" s="1"/>
       <c r="G708" s="1"/>
-      <c r="H708" s="50"/>
+      <c r="H708" s="30"/>
       <c r="I708" s="1"/>
       <c r="J708" s="1"/>
       <c r="K708" s="1"/>
@@ -21187,7 +21187,7 @@
       <c r="E709" s="1"/>
       <c r="F709" s="1"/>
       <c r="G709" s="1"/>
-      <c r="H709" s="50"/>
+      <c r="H709" s="30"/>
       <c r="I709" s="1"/>
       <c r="J709" s="1"/>
       <c r="K709" s="1"/>
@@ -21215,7 +21215,7 @@
       <c r="E710" s="1"/>
       <c r="F710" s="1"/>
       <c r="G710" s="1"/>
-      <c r="H710" s="50"/>
+      <c r="H710" s="30"/>
       <c r="I710" s="1"/>
       <c r="J710" s="1"/>
       <c r="K710" s="1"/>
@@ -21243,7 +21243,7 @@
       <c r="E711" s="1"/>
       <c r="F711" s="1"/>
       <c r="G711" s="1"/>
-      <c r="H711" s="50"/>
+      <c r="H711" s="30"/>
       <c r="I711" s="1"/>
       <c r="J711" s="1"/>
       <c r="K711" s="1"/>
@@ -21271,7 +21271,7 @@
       <c r="E712" s="1"/>
       <c r="F712" s="1"/>
       <c r="G712" s="1"/>
-      <c r="H712" s="50"/>
+      <c r="H712" s="30"/>
       <c r="I712" s="1"/>
       <c r="J712" s="1"/>
       <c r="K712" s="1"/>
@@ -21299,7 +21299,7 @@
       <c r="E713" s="1"/>
       <c r="F713" s="1"/>
       <c r="G713" s="1"/>
-      <c r="H713" s="50"/>
+      <c r="H713" s="30"/>
       <c r="I713" s="1"/>
       <c r="J713" s="1"/>
       <c r="K713" s="1"/>
@@ -21327,7 +21327,7 @@
       <c r="E714" s="1"/>
       <c r="F714" s="1"/>
       <c r="G714" s="1"/>
-      <c r="H714" s="50"/>
+      <c r="H714" s="30"/>
       <c r="I714" s="1"/>
       <c r="J714" s="1"/>
       <c r="K714" s="1"/>
@@ -21355,7 +21355,7 @@
       <c r="E715" s="1"/>
       <c r="F715" s="1"/>
       <c r="G715" s="1"/>
-      <c r="H715" s="50"/>
+      <c r="H715" s="30"/>
       <c r="I715" s="1"/>
       <c r="J715" s="1"/>
       <c r="K715" s="1"/>
@@ -21383,7 +21383,7 @@
       <c r="E716" s="1"/>
       <c r="F716" s="1"/>
       <c r="G716" s="1"/>
-      <c r="H716" s="50"/>
+      <c r="H716" s="30"/>
       <c r="I716" s="1"/>
       <c r="J716" s="1"/>
       <c r="K716" s="1"/>
@@ -21411,7 +21411,7 @@
       <c r="E717" s="1"/>
       <c r="F717" s="1"/>
       <c r="G717" s="1"/>
-      <c r="H717" s="50"/>
+      <c r="H717" s="30"/>
       <c r="I717" s="1"/>
       <c r="J717" s="1"/>
       <c r="K717" s="1"/>
@@ -21439,7 +21439,7 @@
       <c r="E718" s="1"/>
       <c r="F718" s="1"/>
       <c r="G718" s="1"/>
-      <c r="H718" s="50"/>
+      <c r="H718" s="30"/>
       <c r="I718" s="1"/>
       <c r="J718" s="1"/>
       <c r="K718" s="1"/>
@@ -21467,7 +21467,7 @@
       <c r="E719" s="1"/>
       <c r="F719" s="1"/>
       <c r="G719" s="1"/>
-      <c r="H719" s="50"/>
+      <c r="H719" s="30"/>
       <c r="I719" s="1"/>
       <c r="J719" s="1"/>
       <c r="K719" s="1"/>
@@ -21495,7 +21495,7 @@
       <c r="E720" s="1"/>
       <c r="F720" s="1"/>
       <c r="G720" s="1"/>
-      <c r="H720" s="50"/>
+      <c r="H720" s="30"/>
       <c r="I720" s="1"/>
       <c r="J720" s="1"/>
       <c r="K720" s="1"/>
@@ -21523,7 +21523,7 @@
       <c r="E721" s="1"/>
       <c r="F721" s="1"/>
       <c r="G721" s="1"/>
-      <c r="H721" s="50"/>
+      <c r="H721" s="30"/>
       <c r="I721" s="1"/>
       <c r="J721" s="1"/>
       <c r="K721" s="1"/>
@@ -21551,7 +21551,7 @@
       <c r="E722" s="1"/>
       <c r="F722" s="1"/>
       <c r="G722" s="1"/>
-      <c r="H722" s="50"/>
+      <c r="H722" s="30"/>
       <c r="I722" s="1"/>
       <c r="J722" s="1"/>
       <c r="K722" s="1"/>
@@ -21579,7 +21579,7 @@
       <c r="E723" s="1"/>
       <c r="F723" s="1"/>
       <c r="G723" s="1"/>
-      <c r="H723" s="50"/>
+      <c r="H723" s="30"/>
       <c r="I723" s="1"/>
       <c r="J723" s="1"/>
       <c r="K723" s="1"/>
@@ -21607,7 +21607,7 @@
       <c r="E724" s="1"/>
       <c r="F724" s="1"/>
       <c r="G724" s="1"/>
-      <c r="H724" s="50"/>
+      <c r="H724" s="30"/>
       <c r="I724" s="1"/>
       <c r="J724" s="1"/>
       <c r="K724" s="1"/>
@@ -21635,7 +21635,7 @@
       <c r="E725" s="1"/>
       <c r="F725" s="1"/>
       <c r="G725" s="1"/>
-      <c r="H725" s="50"/>
+      <c r="H725" s="30"/>
       <c r="I725" s="1"/>
       <c r="J725" s="1"/>
       <c r="K725" s="1"/>
@@ -21663,7 +21663,7 @@
       <c r="E726" s="1"/>
       <c r="F726" s="1"/>
       <c r="G726" s="1"/>
-      <c r="H726" s="50"/>
+      <c r="H726" s="30"/>
       <c r="I726" s="1"/>
       <c r="J726" s="1"/>
       <c r="K726" s="1"/>
@@ -21691,7 +21691,7 @@
       <c r="E727" s="1"/>
       <c r="F727" s="1"/>
       <c r="G727" s="1"/>
-      <c r="H727" s="50"/>
+      <c r="H727" s="30"/>
       <c r="I727" s="1"/>
       <c r="J727" s="1"/>
       <c r="K727" s="1"/>
@@ -21719,7 +21719,7 @@
       <c r="E728" s="1"/>
       <c r="F728" s="1"/>
       <c r="G728" s="1"/>
-      <c r="H728" s="50"/>
+      <c r="H728" s="30"/>
       <c r="I728" s="1"/>
       <c r="J728" s="1"/>
       <c r="K728" s="1"/>
@@ -21747,7 +21747,7 @@
       <c r="E729" s="1"/>
       <c r="F729" s="1"/>
       <c r="G729" s="1"/>
-      <c r="H729" s="50"/>
+      <c r="H729" s="30"/>
       <c r="I729" s="1"/>
       <c r="J729" s="1"/>
       <c r="K729" s="1"/>
@@ -21775,7 +21775,7 @@
       <c r="E730" s="1"/>
       <c r="F730" s="1"/>
       <c r="G730" s="1"/>
-      <c r="H730" s="50"/>
+      <c r="H730" s="30"/>
       <c r="I730" s="1"/>
       <c r="J730" s="1"/>
       <c r="K730" s="1"/>
@@ -21803,7 +21803,7 @@
       <c r="E731" s="1"/>
       <c r="F731" s="1"/>
       <c r="G731" s="1"/>
-      <c r="H731" s="50"/>
+      <c r="H731" s="30"/>
       <c r="I731" s="1"/>
       <c r="J731" s="1"/>
       <c r="K731" s="1"/>
@@ -21831,7 +21831,7 @@
       <c r="E732" s="1"/>
       <c r="F732" s="1"/>
       <c r="G732" s="1"/>
-      <c r="H732" s="50"/>
+      <c r="H732" s="30"/>
       <c r="I732" s="1"/>
       <c r="J732" s="1"/>
       <c r="K732" s="1"/>
@@ -21859,7 +21859,7 @@
       <c r="E733" s="1"/>
       <c r="F733" s="1"/>
       <c r="G733" s="1"/>
-      <c r="H733" s="50"/>
+      <c r="H733" s="30"/>
       <c r="I733" s="1"/>
       <c r="J733" s="1"/>
       <c r="K733" s="1"/>
@@ -21887,7 +21887,7 @@
       <c r="E734" s="1"/>
       <c r="F734" s="1"/>
       <c r="G734" s="1"/>
-      <c r="H734" s="50"/>
+      <c r="H734" s="30"/>
       <c r="I734" s="1"/>
       <c r="J734" s="1"/>
       <c r="K734" s="1"/>
@@ -21915,7 +21915,7 @@
       <c r="E735" s="1"/>
       <c r="F735" s="1"/>
       <c r="G735" s="1"/>
-      <c r="H735" s="50"/>
+      <c r="H735" s="30"/>
       <c r="I735" s="1"/>
       <c r="J735" s="1"/>
       <c r="K735" s="1"/>
@@ -21943,7 +21943,7 @@
       <c r="E736" s="1"/>
       <c r="F736" s="1"/>
       <c r="G736" s="1"/>
-      <c r="H736" s="50"/>
+      <c r="H736" s="30"/>
       <c r="I736" s="1"/>
       <c r="J736" s="1"/>
       <c r="K736" s="1"/>
@@ -21971,7 +21971,7 @@
       <c r="E737" s="1"/>
       <c r="F737" s="1"/>
       <c r="G737" s="1"/>
-      <c r="H737" s="50"/>
+      <c r="H737" s="30"/>
       <c r="I737" s="1"/>
       <c r="J737" s="1"/>
       <c r="K737" s="1"/>
@@ -21999,7 +21999,7 @@
       <c r="E738" s="1"/>
       <c r="F738" s="1"/>
       <c r="G738" s="1"/>
-      <c r="H738" s="50"/>
+      <c r="H738" s="30"/>
       <c r="I738" s="1"/>
       <c r="J738" s="1"/>
       <c r="K738" s="1"/>
@@ -22027,7 +22027,7 @@
       <c r="E739" s="1"/>
       <c r="F739" s="1"/>
       <c r="G739" s="1"/>
-      <c r="H739" s="50"/>
+      <c r="H739" s="30"/>
       <c r="I739" s="1"/>
       <c r="J739" s="1"/>
       <c r="K739" s="1"/>
@@ -22055,7 +22055,7 @@
       <c r="E740" s="1"/>
       <c r="F740" s="1"/>
       <c r="G740" s="1"/>
-      <c r="H740" s="50"/>
+      <c r="H740" s="30"/>
       <c r="I740" s="1"/>
       <c r="J740" s="1"/>
       <c r="K740" s="1"/>
@@ -22083,7 +22083,7 @@
       <c r="E741" s="1"/>
       <c r="F741" s="1"/>
       <c r="G741" s="1"/>
-      <c r="H741" s="50"/>
+      <c r="H741" s="30"/>
       <c r="I741" s="1"/>
       <c r="J741" s="1"/>
       <c r="K741" s="1"/>
@@ -22111,7 +22111,7 @@
       <c r="E742" s="1"/>
       <c r="F742" s="1"/>
       <c r="G742" s="1"/>
-      <c r="H742" s="50"/>
+      <c r="H742" s="30"/>
       <c r="I742" s="1"/>
       <c r="J742" s="1"/>
       <c r="K742" s="1"/>
@@ -22139,7 +22139,7 @@
       <c r="E743" s="1"/>
       <c r="F743" s="1"/>
       <c r="G743" s="1"/>
-      <c r="H743" s="50"/>
+      <c r="H743" s="30"/>
       <c r="I743" s="1"/>
       <c r="J743" s="1"/>
       <c r="K743" s="1"/>
@@ -22167,7 +22167,7 @@
       <c r="E744" s="1"/>
       <c r="F744" s="1"/>
       <c r="G744" s="1"/>
-      <c r="H744" s="50"/>
+      <c r="H744" s="30"/>
       <c r="I744" s="1"/>
       <c r="J744" s="1"/>
       <c r="K744" s="1"/>
@@ -22195,7 +22195,7 @@
       <c r="E745" s="1"/>
       <c r="F745" s="1"/>
       <c r="G745" s="1"/>
-      <c r="H745" s="50"/>
+      <c r="H745" s="30"/>
       <c r="I745" s="1"/>
       <c r="J745" s="1"/>
       <c r="K745" s="1"/>
@@ -22223,7 +22223,7 @@
       <c r="E746" s="1"/>
       <c r="F746" s="1"/>
       <c r="G746" s="1"/>
-      <c r="H746" s="50"/>
+      <c r="H746" s="30"/>
       <c r="I746" s="1"/>
       <c r="J746" s="1"/>
       <c r="K746" s="1"/>
@@ -22251,7 +22251,7 @@
       <c r="E747" s="1"/>
       <c r="F747" s="1"/>
       <c r="G747" s="1"/>
-      <c r="H747" s="50"/>
+      <c r="H747" s="30"/>
       <c r="I747" s="1"/>
       <c r="J747" s="1"/>
       <c r="K747" s="1"/>
@@ -22279,7 +22279,7 @@
       <c r="E748" s="1"/>
       <c r="F748" s="1"/>
       <c r="G748" s="1"/>
-      <c r="H748" s="50"/>
+      <c r="H748" s="30"/>
       <c r="I748" s="1"/>
       <c r="J748" s="1"/>
       <c r="K748" s="1"/>
@@ -22307,7 +22307,7 @@
       <c r="E749" s="1"/>
       <c r="F749" s="1"/>
       <c r="G749" s="1"/>
-      <c r="H749" s="50"/>
+      <c r="H749" s="30"/>
       <c r="I749" s="1"/>
       <c r="J749" s="1"/>
       <c r="K749" s="1"/>
@@ -22335,7 +22335,7 @@
       <c r="E750" s="1"/>
       <c r="F750" s="1"/>
       <c r="G750" s="1"/>
-      <c r="H750" s="50"/>
+      <c r="H750" s="30"/>
       <c r="I750" s="1"/>
       <c r="J750" s="1"/>
       <c r="K750" s="1"/>
@@ -22363,7 +22363,7 @@
       <c r="E751" s="1"/>
       <c r="F751" s="1"/>
       <c r="G751" s="1"/>
-      <c r="H751" s="50"/>
+      <c r="H751" s="30"/>
       <c r="I751" s="1"/>
       <c r="J751" s="1"/>
       <c r="K751" s="1"/>
@@ -22391,7 +22391,7 @@
       <c r="E752" s="1"/>
       <c r="F752" s="1"/>
       <c r="G752" s="1"/>
-      <c r="H752" s="50"/>
+      <c r="H752" s="30"/>
       <c r="I752" s="1"/>
       <c r="J752" s="1"/>
       <c r="K752" s="1"/>
@@ -22419,7 +22419,7 @@
       <c r="E753" s="1"/>
       <c r="F753" s="1"/>
       <c r="G753" s="1"/>
-      <c r="H753" s="50"/>
+      <c r="H753" s="30"/>
       <c r="I753" s="1"/>
       <c r="J753" s="1"/>
       <c r="K753" s="1"/>
@@ -22447,7 +22447,7 @@
       <c r="E754" s="1"/>
       <c r="F754" s="1"/>
       <c r="G754" s="1"/>
-      <c r="H754" s="50"/>
+      <c r="H754" s="30"/>
       <c r="I754" s="1"/>
       <c r="J754" s="1"/>
       <c r="K754" s="1"/>
@@ -22475,7 +22475,7 @@
       <c r="E755" s="1"/>
       <c r="F755" s="1"/>
       <c r="G755" s="1"/>
-      <c r="H755" s="50"/>
+      <c r="H755" s="30"/>
       <c r="I755" s="1"/>
       <c r="J755" s="1"/>
       <c r="K755" s="1"/>
@@ -22503,7 +22503,7 @@
       <c r="E756" s="1"/>
       <c r="F756" s="1"/>
       <c r="G756" s="1"/>
-      <c r="H756" s="50"/>
+      <c r="H756" s="30"/>
       <c r="I756" s="1"/>
       <c r="J756" s="1"/>
       <c r="K756" s="1"/>
@@ -22531,7 +22531,7 @@
       <c r="E757" s="1"/>
       <c r="F757" s="1"/>
       <c r="G757" s="1"/>
-      <c r="H757" s="50"/>
+      <c r="H757" s="30"/>
       <c r="I757" s="1"/>
       <c r="J757" s="1"/>
       <c r="K757" s="1"/>
@@ -22559,7 +22559,7 @@
       <c r="E758" s="1"/>
       <c r="F758" s="1"/>
       <c r="G758" s="1"/>
-      <c r="H758" s="50"/>
+      <c r="H758" s="30"/>
       <c r="I758" s="1"/>
       <c r="J758" s="1"/>
       <c r="K758" s="1"/>
@@ -22587,7 +22587,7 @@
       <c r="E759" s="1"/>
       <c r="F759" s="1"/>
       <c r="G759" s="1"/>
-      <c r="H759" s="50"/>
+      <c r="H759" s="30"/>
       <c r="I759" s="1"/>
       <c r="J759" s="1"/>
       <c r="K759" s="1"/>
@@ -22615,7 +22615,7 @@
       <c r="E760" s="1"/>
       <c r="F760" s="1"/>
       <c r="G760" s="1"/>
-      <c r="H760" s="50"/>
+      <c r="H760" s="30"/>
       <c r="I760" s="1"/>
       <c r="J760" s="1"/>
       <c r="K760" s="1"/>
@@ -22643,7 +22643,7 @@
       <c r="E761" s="1"/>
       <c r="F761" s="1"/>
       <c r="G761" s="1"/>
-      <c r="H761" s="50"/>
+      <c r="H761" s="30"/>
       <c r="I761" s="1"/>
       <c r="J761" s="1"/>
       <c r="K761" s="1"/>
@@ -22671,7 +22671,7 @@
       <c r="E762" s="1"/>
       <c r="F762" s="1"/>
       <c r="G762" s="1"/>
-      <c r="H762" s="50"/>
+      <c r="H762" s="30"/>
       <c r="I762" s="1"/>
       <c r="J762" s="1"/>
       <c r="K762" s="1"/>
@@ -22699,7 +22699,7 @@
       <c r="E763" s="1"/>
       <c r="F763" s="1"/>
       <c r="G763" s="1"/>
-      <c r="H763" s="50"/>
+      <c r="H763" s="30"/>
       <c r="I763" s="1"/>
       <c r="J763" s="1"/>
       <c r="K763" s="1"/>
@@ -22727,7 +22727,7 @@
       <c r="E764" s="1"/>
       <c r="F764" s="1"/>
       <c r="G764" s="1"/>
-      <c r="H764" s="50"/>
+      <c r="H764" s="30"/>
       <c r="I764" s="1"/>
       <c r="J764" s="1"/>
       <c r="K764" s="1"/>
@@ -22755,7 +22755,7 @@
       <c r="E765" s="1"/>
       <c r="F765" s="1"/>
       <c r="G765" s="1"/>
-      <c r="H765" s="50"/>
+      <c r="H765" s="30"/>
       <c r="I765" s="1"/>
       <c r="J765" s="1"/>
       <c r="K765" s="1"/>
@@ -22783,7 +22783,7 @@
       <c r="E766" s="1"/>
       <c r="F766" s="1"/>
       <c r="G766" s="1"/>
-      <c r="H766" s="50"/>
+      <c r="H766" s="30"/>
       <c r="I766" s="1"/>
       <c r="J766" s="1"/>
       <c r="K766" s="1"/>
@@ -22811,7 +22811,7 @@
       <c r="E767" s="1"/>
       <c r="F767" s="1"/>
       <c r="G767" s="1"/>
-      <c r="H767" s="50"/>
+      <c r="H767" s="30"/>
       <c r="I767" s="1"/>
       <c r="J767" s="1"/>
       <c r="K767" s="1"/>
@@ -22839,7 +22839,7 @@
       <c r="E768" s="1"/>
       <c r="F768" s="1"/>
       <c r="G768" s="1"/>
-      <c r="H768" s="50"/>
+      <c r="H768" s="30"/>
       <c r="I768" s="1"/>
       <c r="J768" s="1"/>
       <c r="K768" s="1"/>
@@ -22867,7 +22867,7 @@
       <c r="E769" s="1"/>
       <c r="F769" s="1"/>
       <c r="G769" s="1"/>
-      <c r="H769" s="50"/>
+      <c r="H769" s="30"/>
       <c r="I769" s="1"/>
       <c r="J769" s="1"/>
       <c r="K769" s="1"/>
@@ -22895,7 +22895,7 @@
       <c r="E770" s="1"/>
       <c r="F770" s="1"/>
       <c r="G770" s="1"/>
-      <c r="H770" s="50"/>
+      <c r="H770" s="30"/>
       <c r="I770" s="1"/>
       <c r="J770" s="1"/>
       <c r="K770" s="1"/>
@@ -22923,7 +22923,7 @@
       <c r="E771" s="1"/>
       <c r="F771" s="1"/>
       <c r="G771" s="1"/>
-      <c r="H771" s="50"/>
+      <c r="H771" s="30"/>
       <c r="I771" s="1"/>
       <c r="J771" s="1"/>
       <c r="K771" s="1"/>
@@ -22951,7 +22951,7 @@
       <c r="E772" s="1"/>
       <c r="F772" s="1"/>
       <c r="G772" s="1"/>
-      <c r="H772" s="50"/>
+      <c r="H772" s="30"/>
       <c r="I772" s="1"/>
       <c r="J772" s="1"/>
       <c r="K772" s="1"/>
@@ -22979,7 +22979,7 @@
       <c r="E773" s="1"/>
       <c r="F773" s="1"/>
       <c r="G773" s="1"/>
-      <c r="H773" s="50"/>
+      <c r="H773" s="30"/>
       <c r="I773" s="1"/>
       <c r="J773" s="1"/>
       <c r="K773" s="1"/>
@@ -23007,7 +23007,7 @@
       <c r="E774" s="1"/>
       <c r="F774" s="1"/>
       <c r="G774" s="1"/>
-      <c r="H774" s="50"/>
+      <c r="H774" s="30"/>
       <c r="I774" s="1"/>
       <c r="J774" s="1"/>
       <c r="K774" s="1"/>
@@ -23035,7 +23035,7 @@
       <c r="E775" s="1"/>
       <c r="F775" s="1"/>
       <c r="G775" s="1"/>
-      <c r="H775" s="50"/>
+      <c r="H775" s="30"/>
       <c r="I775" s="1"/>
       <c r="J775" s="1"/>
       <c r="K775" s="1"/>
@@ -23063,7 +23063,7 @@
       <c r="E776" s="1"/>
       <c r="F776" s="1"/>
       <c r="G776" s="1"/>
-      <c r="H776" s="50"/>
+      <c r="H776" s="30"/>
       <c r="I776" s="1"/>
       <c r="J776" s="1"/>
       <c r="K776" s="1"/>
@@ -23091,7 +23091,7 @@
       <c r="E777" s="1"/>
       <c r="F777" s="1"/>
       <c r="G777" s="1"/>
-      <c r="H777" s="50"/>
+      <c r="H777" s="30"/>
       <c r="I777" s="1"/>
       <c r="J777" s="1"/>
       <c r="K777" s="1"/>
@@ -23119,7 +23119,7 @@
       <c r="E778" s="1"/>
       <c r="F778" s="1"/>
       <c r="G778" s="1"/>
-      <c r="H778" s="50"/>
+      <c r="H778" s="30"/>
       <c r="I778" s="1"/>
       <c r="J778" s="1"/>
       <c r="K778" s="1"/>
@@ -23147,7 +23147,7 @@
       <c r="E779" s="1"/>
       <c r="F779" s="1"/>
       <c r="G779" s="1"/>
-      <c r="H779" s="50"/>
+      <c r="H779" s="30"/>
       <c r="I779" s="1"/>
       <c r="J779" s="1"/>
       <c r="K779" s="1"/>
@@ -23175,7 +23175,7 @@
       <c r="E780" s="1"/>
       <c r="F780" s="1"/>
       <c r="G780" s="1"/>
-      <c r="H780" s="50"/>
+      <c r="H780" s="30"/>
       <c r="I780" s="1"/>
       <c r="J780" s="1"/>
       <c r="K780" s="1"/>
@@ -23203,7 +23203,7 @@
       <c r="E781" s="1"/>
       <c r="F781" s="1"/>
       <c r="G781" s="1"/>
-      <c r="H781" s="50"/>
+      <c r="H781" s="30"/>
       <c r="I781" s="1"/>
       <c r="J781" s="1"/>
       <c r="K781" s="1"/>
@@ -23231,7 +23231,7 @@
       <c r="E782" s="1"/>
       <c r="F782" s="1"/>
       <c r="G782" s="1"/>
-      <c r="H782" s="50"/>
+      <c r="H782" s="30"/>
       <c r="I782" s="1"/>
       <c r="J782" s="1"/>
       <c r="K782" s="1"/>
@@ -23259,7 +23259,7 @@
       <c r="E783" s="1"/>
       <c r="F783" s="1"/>
       <c r="G783" s="1"/>
-      <c r="H783" s="50"/>
+      <c r="H783" s="30"/>
       <c r="I783" s="1"/>
       <c r="J783" s="1"/>
       <c r="K783" s="1"/>
@@ -23287,7 +23287,7 @@
       <c r="E784" s="1"/>
       <c r="F784" s="1"/>
       <c r="G784" s="1"/>
-      <c r="H784" s="50"/>
+      <c r="H784" s="30"/>
       <c r="I784" s="1"/>
       <c r="J784" s="1"/>
       <c r="K784" s="1"/>
@@ -23315,7 +23315,7 @@
       <c r="E785" s="1"/>
       <c r="F785" s="1"/>
       <c r="G785" s="1"/>
-      <c r="H785" s="50"/>
+      <c r="H785" s="30"/>
       <c r="I785" s="1"/>
       <c r="J785" s="1"/>
       <c r="K785" s="1"/>
@@ -23343,7 +23343,7 @@
       <c r="E786" s="1"/>
       <c r="F786" s="1"/>
       <c r="G786" s="1"/>
-      <c r="H786" s="50"/>
+      <c r="H786" s="30"/>
       <c r="I786" s="1"/>
       <c r="J786" s="1"/>
       <c r="K786" s="1"/>
@@ -23371,7 +23371,7 @@
       <c r="E787" s="1"/>
       <c r="F787" s="1"/>
       <c r="G787" s="1"/>
-      <c r="H787" s="50"/>
+      <c r="H787" s="30"/>
       <c r="I787" s="1"/>
       <c r="J787" s="1"/>
       <c r="K787" s="1"/>
@@ -23399,7 +23399,7 @@
       <c r="E788" s="1"/>
       <c r="F788" s="1"/>
       <c r="G788" s="1"/>
-      <c r="H788" s="50"/>
+      <c r="H788" s="30"/>
       <c r="I788" s="1"/>
       <c r="J788" s="1"/>
       <c r="K788" s="1"/>
@@ -23427,7 +23427,7 @@
       <c r="E789" s="1"/>
       <c r="F789" s="1"/>
       <c r="G789" s="1"/>
-      <c r="H789" s="50"/>
+      <c r="H789" s="30"/>
       <c r="I789" s="1"/>
       <c r="J789" s="1"/>
       <c r="K789" s="1"/>
@@ -23455,7 +23455,7 @@
       <c r="E790" s="1"/>
       <c r="F790" s="1"/>
       <c r="G790" s="1"/>
-      <c r="H790" s="50"/>
+      <c r="H790" s="30"/>
       <c r="I790" s="1"/>
       <c r="J790" s="1"/>
       <c r="K790" s="1"/>
@@ -23483,7 +23483,7 @@
       <c r="E791" s="1"/>
       <c r="F791" s="1"/>
       <c r="G791" s="1"/>
-      <c r="H791" s="50"/>
+      <c r="H791" s="30"/>
       <c r="I791" s="1"/>
       <c r="J791" s="1"/>
       <c r="K791" s="1"/>
@@ -23511,7 +23511,7 @@
       <c r="E792" s="1"/>
       <c r="F792" s="1"/>
       <c r="G792" s="1"/>
-      <c r="H792" s="50"/>
+      <c r="H792" s="30"/>
       <c r="I792" s="1"/>
       <c r="J792" s="1"/>
       <c r="K792" s="1"/>
@@ -23539,7 +23539,7 @@
       <c r="E793" s="1"/>
       <c r="F793" s="1"/>
       <c r="G793" s="1"/>
-      <c r="H793" s="50"/>
+      <c r="H793" s="30"/>
       <c r="I793" s="1"/>
       <c r="J793" s="1"/>
       <c r="K793" s="1"/>
@@ -23567,7 +23567,7 @@
       <c r="E794" s="1"/>
       <c r="F794" s="1"/>
       <c r="G794" s="1"/>
-      <c r="H794" s="50"/>
+      <c r="H794" s="30"/>
       <c r="I794" s="1"/>
       <c r="J794" s="1"/>
       <c r="K794" s="1"/>
@@ -23595,7 +23595,7 @@
       <c r="E795" s="1"/>
       <c r="F795" s="1"/>
       <c r="G795" s="1"/>
-      <c r="H795" s="50"/>
+      <c r="H795" s="30"/>
       <c r="I795" s="1"/>
       <c r="J795" s="1"/>
       <c r="K795" s="1"/>
@@ -23623,7 +23623,7 @@
       <c r="E796" s="1"/>
       <c r="F796" s="1"/>
       <c r="G796" s="1"/>
-      <c r="H796" s="50"/>
+      <c r="H796" s="30"/>
       <c r="I796" s="1"/>
       <c r="J796" s="1"/>
       <c r="K796" s="1"/>
@@ -23651,7 +23651,7 @@
       <c r="E797" s="1"/>
       <c r="F797" s="1"/>
       <c r="G797" s="1"/>
-      <c r="H797" s="50"/>
+      <c r="H797" s="30"/>
       <c r="I797" s="1"/>
       <c r="J797" s="1"/>
       <c r="K797" s="1"/>
@@ -23679,7 +23679,7 @@
       <c r="E798" s="1"/>
       <c r="F798" s="1"/>
       <c r="G798" s="1"/>
-      <c r="H798" s="50"/>
+      <c r="H798" s="30"/>
       <c r="I798" s="1"/>
       <c r="J798" s="1"/>
       <c r="K798" s="1"/>
@@ -23707,7 +23707,7 @@
       <c r="E799" s="1"/>
       <c r="F799" s="1"/>
       <c r="G799" s="1"/>
-      <c r="H799" s="50"/>
+      <c r="H799" s="30"/>
       <c r="I799" s="1"/>
       <c r="J799" s="1"/>
       <c r="K799" s="1"/>
@@ -23735,7 +23735,7 @@
       <c r="E800" s="1"/>
       <c r="F800" s="1"/>
       <c r="G800" s="1"/>
-      <c r="H800" s="50"/>
+      <c r="H800" s="30"/>
       <c r="I800" s="1"/>
       <c r="J800" s="1"/>
       <c r="K800" s="1"/>
@@ -23763,7 +23763,7 @@
       <c r="E801" s="1"/>
       <c r="F801" s="1"/>
       <c r="G801" s="1"/>
-      <c r="H801" s="50"/>
+      <c r="H801" s="30"/>
       <c r="I801" s="1"/>
       <c r="J801" s="1"/>
       <c r="K801" s="1"/>
@@ -23791,7 +23791,7 @@
       <c r="E802" s="1"/>
       <c r="F802" s="1"/>
       <c r="G802" s="1"/>
-      <c r="H802" s="50"/>
+      <c r="H802" s="30"/>
       <c r="I802" s="1"/>
       <c r="J802" s="1"/>
       <c r="K802" s="1"/>
@@ -23819,7 +23819,7 @@
       <c r="E803" s="1"/>
       <c r="F803" s="1"/>
       <c r="G803" s="1"/>
-      <c r="H803" s="50"/>
+      <c r="H803" s="30"/>
       <c r="I803" s="1"/>
       <c r="J803" s="1"/>
       <c r="K803" s="1"/>
@@ -23847,7 +23847,7 @@
       <c r="E804" s="1"/>
       <c r="F804" s="1"/>
       <c r="G804" s="1"/>
-      <c r="H804" s="50"/>
+      <c r="H804" s="30"/>
       <c r="I804" s="1"/>
       <c r="J804" s="1"/>
       <c r="K804" s="1"/>
@@ -23875,7 +23875,7 @@
       <c r="E805" s="1"/>
       <c r="F805" s="1"/>
       <c r="G805" s="1"/>
-      <c r="H805" s="50"/>
+      <c r="H805" s="30"/>
       <c r="I805" s="1"/>
       <c r="J805" s="1"/>
       <c r="K805" s="1"/>
@@ -23903,7 +23903,7 @@
       <c r="E806" s="1"/>
       <c r="F806" s="1"/>
       <c r="G806" s="1"/>
-      <c r="H806" s="50"/>
+      <c r="H806" s="30"/>
       <c r="I806" s="1"/>
       <c r="J806" s="1"/>
       <c r="K806" s="1"/>
@@ -23931,7 +23931,7 @@
       <c r="E807" s="1"/>
       <c r="F807" s="1"/>
       <c r="G807" s="1"/>
-      <c r="H807" s="50"/>
+      <c r="H807" s="30"/>
       <c r="I807" s="1"/>
       <c r="J807" s="1"/>
       <c r="K807" s="1"/>
@@ -23959,7 +23959,7 @@
       <c r="E808" s="1"/>
       <c r="F808" s="1"/>
       <c r="G808" s="1"/>
-      <c r="H808" s="50"/>
+      <c r="H808" s="30"/>
       <c r="I808" s="1"/>
       <c r="J808" s="1"/>
       <c r="K808" s="1"/>
@@ -23987,7 +23987,7 @@
       <c r="E809" s="1"/>
       <c r="F809" s="1"/>
       <c r="G809" s="1"/>
-      <c r="H809" s="50"/>
+      <c r="H809" s="30"/>
       <c r="I809" s="1"/>
       <c r="J809" s="1"/>
       <c r="K809" s="1"/>
@@ -24015,7 +24015,7 @@
       <c r="E810" s="1"/>
       <c r="F810" s="1"/>
       <c r="G810" s="1"/>
-      <c r="H810" s="50"/>
+      <c r="H810" s="30"/>
       <c r="I810" s="1"/>
       <c r="J810" s="1"/>
       <c r="K810" s="1"/>
@@ -24043,7 +24043,7 @@
       <c r="E811" s="1"/>
       <c r="F811" s="1"/>
       <c r="G811" s="1"/>
-      <c r="H811" s="50"/>
+      <c r="H811" s="30"/>
       <c r="I811" s="1"/>
       <c r="J811" s="1"/>
       <c r="K811" s="1"/>
@@ -24071,7 +24071,7 @@
       <c r="E812" s="1"/>
       <c r="F812" s="1"/>
       <c r="G812" s="1"/>
-      <c r="H812" s="50"/>
+      <c r="H812" s="30"/>
       <c r="I812" s="1"/>
       <c r="J812" s="1"/>
       <c r="K812" s="1"/>
@@ -24099,7 +24099,7 @@
       <c r="E813" s="1"/>
       <c r="F813" s="1"/>
       <c r="G813" s="1"/>
-      <c r="H813" s="50"/>
+      <c r="H813" s="30"/>
       <c r="I813" s="1"/>
       <c r="J813" s="1"/>
       <c r="K813" s="1"/>
@@ -24127,7 +24127,7 @@
       <c r="E814" s="1"/>
       <c r="F814" s="1"/>
       <c r="G814" s="1"/>
-      <c r="H814" s="50"/>
+      <c r="H814" s="30"/>
       <c r="I814" s="1"/>
       <c r="J814" s="1"/>
       <c r="K814" s="1"/>
@@ -24155,7 +24155,7 @@
       <c r="E815" s="1"/>
       <c r="F815" s="1"/>
       <c r="G815" s="1"/>
-      <c r="H815" s="50"/>
+      <c r="H815" s="30"/>
       <c r="I815" s="1"/>
       <c r="J815" s="1"/>
       <c r="K815" s="1"/>
@@ -24183,7 +24183,7 @@
       <c r="E816" s="1"/>
       <c r="F816" s="1"/>
       <c r="G816" s="1"/>
-      <c r="H816" s="50"/>
+      <c r="H816" s="30"/>
       <c r="I816" s="1"/>
       <c r="J816" s="1"/>
       <c r="K816" s="1"/>
@@ -24211,7 +24211,7 @@
       <c r="E817" s="1"/>
       <c r="F817" s="1"/>
       <c r="G817" s="1"/>
-      <c r="H817" s="50"/>
+      <c r="H817" s="30"/>
       <c r="I817" s="1"/>
       <c r="J817" s="1"/>
       <c r="K817" s="1"/>
@@ -24239,7 +24239,7 @@
       <c r="E818" s="1"/>
       <c r="F818" s="1"/>
       <c r="G818" s="1"/>
-      <c r="H818" s="50"/>
+      <c r="H818" s="30"/>
       <c r="I818" s="1"/>
       <c r="J818" s="1"/>
       <c r="K818" s="1"/>
@@ -24267,7 +24267,7 @@
       <c r="E819" s="1"/>
       <c r="F819" s="1"/>
       <c r="G819" s="1"/>
-      <c r="H819" s="50"/>
+      <c r="H819" s="30"/>
       <c r="I819" s="1"/>
       <c r="J819" s="1"/>
       <c r="K819" s="1"/>
@@ -24295,7 +24295,7 @@
       <c r="E820" s="1"/>
       <c r="F820" s="1"/>
       <c r="G820" s="1"/>
-      <c r="H820" s="50"/>
+      <c r="H820" s="30"/>
       <c r="I820" s="1"/>
       <c r="J820" s="1"/>
       <c r="K820" s="1"/>
@@ -24323,7 +24323,7 @@
       <c r="E821" s="1"/>
       <c r="F821" s="1"/>
       <c r="G821" s="1"/>
-      <c r="H821" s="50"/>
+      <c r="H821" s="30"/>
       <c r="I821" s="1"/>
       <c r="J821" s="1"/>
       <c r="K821" s="1"/>
@@ -24351,7 +24351,7 @@
       <c r="E822" s="1"/>
       <c r="F822" s="1"/>
       <c r="G822" s="1"/>
-      <c r="H822" s="50"/>
+      <c r="H822" s="30"/>
       <c r="I822" s="1"/>
       <c r="J822" s="1"/>
       <c r="K822" s="1"/>
@@ -24379,7 +24379,7 @@
       <c r="E823" s="1"/>
       <c r="F823" s="1"/>
       <c r="G823" s="1"/>
-      <c r="H823" s="50"/>
+      <c r="H823" s="30"/>
       <c r="I823" s="1"/>
       <c r="J823" s="1"/>
       <c r="K823" s="1"/>
@@ -24407,7 +24407,7 @@
       <c r="E824" s="1"/>
       <c r="F824" s="1"/>
       <c r="G824" s="1"/>
-      <c r="H824" s="50"/>
+      <c r="H824" s="30"/>
       <c r="I824" s="1"/>
       <c r="J824" s="1"/>
       <c r="K824" s="1"/>
@@ -24435,7 +24435,7 @@
       <c r="E825" s="1"/>
       <c r="F825" s="1"/>
       <c r="G825" s="1"/>
-      <c r="H825" s="50"/>
+      <c r="H825" s="30"/>
       <c r="I825" s="1"/>
       <c r="J825" s="1"/>
       <c r="K825" s="1"/>
@@ -24463,7 +24463,7 @@
       <c r="E826" s="1"/>
       <c r="F826" s="1"/>
       <c r="G826" s="1"/>
-      <c r="H826" s="50"/>
+      <c r="H826" s="30"/>
       <c r="I826" s="1"/>
       <c r="J826" s="1"/>
       <c r="K826" s="1"/>
@@ -24491,7 +24491,7 @@
       <c r="E827" s="1"/>
       <c r="F827" s="1"/>
       <c r="G827" s="1"/>
-      <c r="H827" s="50"/>
+      <c r="H827" s="30"/>
       <c r="I827" s="1"/>
       <c r="J827" s="1"/>
       <c r="K827" s="1"/>
@@ -24519,7 +24519,7 @@
       <c r="E828" s="1"/>
       <c r="F828" s="1"/>
       <c r="G828" s="1"/>
-      <c r="H828" s="50"/>
+      <c r="H828" s="30"/>
       <c r="I828" s="1"/>
       <c r="J828" s="1"/>
       <c r="K828" s="1"/>
@@ -24547,7 +24547,7 @@
       <c r="E829" s="1"/>
       <c r="F829" s="1"/>
       <c r="G829" s="1"/>
-      <c r="H829" s="50"/>
+      <c r="H829" s="30"/>
       <c r="I829" s="1"/>
       <c r="J829" s="1"/>
       <c r="K829" s="1"/>
@@ -24575,7 +24575,7 @@
       <c r="E830" s="1"/>
       <c r="F830" s="1"/>
       <c r="G830" s="1"/>
-      <c r="H830" s="50"/>
+      <c r="H830" s="30"/>
       <c r="I830" s="1"/>
       <c r="J830" s="1"/>
       <c r="K830" s="1"/>
@@ -24603,7 +24603,7 @@
       <c r="E831" s="1"/>
       <c r="F831" s="1"/>
       <c r="G831" s="1"/>
-      <c r="H831" s="50"/>
+      <c r="H831" s="30"/>
       <c r="I831" s="1"/>
       <c r="J831" s="1"/>
       <c r="K831" s="1"/>
@@ -24631,7 +24631,7 @@
       <c r="E832" s="1"/>
       <c r="F832" s="1"/>
       <c r="G832" s="1"/>
-      <c r="H832" s="50"/>
+      <c r="H832" s="30"/>
       <c r="I832" s="1"/>
       <c r="J832" s="1"/>
       <c r="K832" s="1"/>
@@ -24659,7 +24659,7 @@
       <c r="E833" s="1"/>
       <c r="F833" s="1"/>
       <c r="G833" s="1"/>
-      <c r="H833" s="50"/>
+      <c r="H833" s="30"/>
       <c r="I833" s="1"/>
       <c r="J833" s="1"/>
       <c r="K833" s="1"/>
@@ -24687,7 +24687,7 @@
       <c r="E834" s="1"/>
       <c r="F834" s="1"/>
       <c r="G834" s="1"/>
-      <c r="H834" s="50"/>
+      <c r="H834" s="30"/>
       <c r="I834" s="1"/>
       <c r="J834" s="1"/>
       <c r="K834" s="1"/>
@@ -24715,7 +24715,7 @@
       <c r="E835" s="1"/>
       <c r="F835" s="1"/>
       <c r="G835" s="1"/>
-      <c r="H835" s="50"/>
+      <c r="H835" s="30"/>
       <c r="I835" s="1"/>
       <c r="J835" s="1"/>
       <c r="K835" s="1"/>
@@ -24743,7 +24743,7 @@
       <c r="E836" s="1"/>
       <c r="F836" s="1"/>
       <c r="G836" s="1"/>
-      <c r="H836" s="50"/>
+      <c r="H836" s="30"/>
       <c r="I836" s="1"/>
       <c r="J836" s="1"/>
       <c r="K836" s="1"/>
@@ -24771,7 +24771,7 @@
       <c r="E837" s="1"/>
       <c r="F837" s="1"/>
       <c r="G837" s="1"/>
-      <c r="H837" s="50"/>
+      <c r="H837" s="30"/>
       <c r="I837" s="1"/>
       <c r="J837" s="1"/>
       <c r="K837" s="1"/>
@@ -24799,7 +24799,7 @@
       <c r="E838" s="1"/>
       <c r="F838" s="1"/>
       <c r="G838" s="1"/>
-      <c r="H838" s="50"/>
+      <c r="H838" s="30"/>
       <c r="I838" s="1"/>
       <c r="J838" s="1"/>
       <c r="K838" s="1"/>
@@ -24827,7 +24827,7 @@
       <c r="E839" s="1"/>
       <c r="F839" s="1"/>
       <c r="G839" s="1"/>
-      <c r="H839" s="50"/>
+      <c r="H839" s="30"/>
       <c r="I839" s="1"/>
       <c r="J839" s="1"/>
       <c r="K839" s="1"/>
@@ -24855,7 +24855,7 @@
       <c r="E840" s="1"/>
       <c r="F840" s="1"/>
       <c r="G840" s="1"/>
-      <c r="H840" s="50"/>
+      <c r="H840" s="30"/>
       <c r="I840" s="1"/>
       <c r="J840" s="1"/>
       <c r="K840" s="1"/>
@@ -24883,7 +24883,7 @@
       <c r="E841" s="1"/>
       <c r="F841" s="1"/>
       <c r="G841" s="1"/>
-      <c r="H841" s="50"/>
+      <c r="H841" s="30"/>
       <c r="I841" s="1"/>
       <c r="J841" s="1"/>
       <c r="K841" s="1"/>
@@ -24911,7 +24911,7 @@
       <c r="E842" s="1"/>
       <c r="F842" s="1"/>
       <c r="G842" s="1"/>
-      <c r="H842" s="50"/>
+      <c r="H842" s="30"/>
       <c r="I842" s="1"/>
       <c r="J842" s="1"/>
       <c r="K842" s="1"/>
@@ -24939,7 +24939,7 @@
       <c r="E843" s="1"/>
       <c r="F843" s="1"/>
       <c r="G843" s="1"/>
-      <c r="H843" s="50"/>
+      <c r="H843" s="30"/>
       <c r="I843" s="1"/>
       <c r="J843" s="1"/>
       <c r="K843" s="1"/>
@@ -24967,7 +24967,7 @@
       <c r="E844" s="1"/>
       <c r="F844" s="1"/>
       <c r="G844" s="1"/>
-      <c r="H844" s="50"/>
+      <c r="H844" s="30"/>
       <c r="I844" s="1"/>
       <c r="J844" s="1"/>
       <c r="K844" s="1"/>
@@ -24995,7 +24995,7 @@
       <c r="E845" s="1"/>
       <c r="F845" s="1"/>
       <c r="G845" s="1"/>
-      <c r="H845" s="50"/>
+      <c r="H845" s="30"/>
       <c r="I845" s="1"/>
       <c r="J845" s="1"/>
       <c r="K845" s="1"/>
@@ -25023,7 +25023,7 @@
       <c r="E846" s="1"/>
       <c r="F846" s="1"/>
       <c r="G846" s="1"/>
-      <c r="H846" s="50"/>
+      <c r="H846" s="30"/>
       <c r="I846" s="1"/>
       <c r="J846" s="1"/>
       <c r="K846" s="1"/>
@@ -25051,7 +25051,7 @@
       <c r="E847" s="1"/>
       <c r="F847" s="1"/>
       <c r="G847" s="1"/>
-      <c r="H847" s="50"/>
+      <c r="H847" s="30"/>
       <c r="I847" s="1"/>
       <c r="J847" s="1"/>
       <c r="K847" s="1"/>
@@ -25079,7 +25079,7 @@
       <c r="E848" s="1"/>
       <c r="F848" s="1"/>
       <c r="G848" s="1"/>
-      <c r="H848" s="50"/>
+      <c r="H848" s="30"/>
       <c r="I848" s="1"/>
       <c r="J848" s="1"/>
       <c r="K848" s="1"/>
@@ -25107,7 +25107,7 @@
       <c r="E849" s="1"/>
       <c r="F849" s="1"/>
       <c r="G849" s="1"/>
-      <c r="H849" s="50"/>
+      <c r="H849" s="30"/>
       <c r="I849" s="1"/>
       <c r="J849" s="1"/>
       <c r="K849" s="1"/>
@@ -25135,7 +25135,7 @@
       <c r="E850" s="1"/>
       <c r="F850" s="1"/>
       <c r="G850" s="1"/>
-      <c r="H850" s="50"/>
+      <c r="H850" s="30"/>
       <c r="I850" s="1"/>
       <c r="J850" s="1"/>
       <c r="K850" s="1"/>
@@ -25163,7 +25163,7 @@
       <c r="E851" s="1"/>
       <c r="F851" s="1"/>
       <c r="G851" s="1"/>
-      <c r="H851" s="50"/>
+      <c r="H851" s="30"/>
       <c r="I851" s="1"/>
       <c r="J851" s="1"/>
       <c r="K851" s="1"/>
@@ -25191,7 +25191,7 @@
       <c r="E852" s="1"/>
       <c r="F852" s="1"/>
       <c r="G852" s="1"/>
-      <c r="H852" s="50"/>
+      <c r="H852" s="30"/>
       <c r="I852" s="1"/>
       <c r="J852" s="1"/>
       <c r="K852" s="1"/>
@@ -25219,7 +25219,7 @@
       <c r="E853" s="1"/>
       <c r="F853" s="1"/>
       <c r="G853" s="1"/>
-      <c r="H853" s="50"/>
+      <c r="H853" s="30"/>
       <c r="I853" s="1"/>
       <c r="J853" s="1"/>
       <c r="K853" s="1"/>
@@ -25247,7 +25247,7 @@
       <c r="E854" s="1"/>
       <c r="F854" s="1"/>
       <c r="G854" s="1"/>
-      <c r="H854" s="50"/>
+      <c r="H854" s="30"/>
       <c r="I854" s="1"/>
       <c r="J854" s="1"/>
       <c r="K854" s="1"/>
@@ -25275,7 +25275,7 @@
       <c r="E855" s="1"/>
       <c r="F855" s="1"/>
       <c r="G855" s="1"/>
-      <c r="H855" s="50"/>
+      <c r="H855" s="30"/>
       <c r="I855" s="1"/>
       <c r="J855" s="1"/>
       <c r="K855" s="1"/>
@@ -25303,7 +25303,7 @@
       <c r="E856" s="1"/>
       <c r="F856" s="1"/>
       <c r="G856" s="1"/>
-      <c r="H856" s="50"/>
+      <c r="H856" s="30"/>
       <c r="I856" s="1"/>
       <c r="J856" s="1"/>
       <c r="K856" s="1"/>
@@ -25331,7 +25331,7 @@
       <c r="E857" s="1"/>
       <c r="F857" s="1"/>
       <c r="G857" s="1"/>
-      <c r="H857" s="50"/>
+      <c r="H857" s="30"/>
       <c r="I857" s="1"/>
       <c r="J857" s="1"/>
       <c r="K857" s="1"/>
@@ -25359,7 +25359,7 @@
       <c r="E858" s="1"/>
       <c r="F858" s="1"/>
       <c r="G858" s="1"/>
-      <c r="H858" s="50"/>
+      <c r="H858" s="30"/>
       <c r="I858" s="1"/>
       <c r="J858" s="1"/>
       <c r="K858" s="1"/>
@@ -25387,7 +25387,7 @@
       <c r="E859" s="1"/>
       <c r="F859" s="1"/>
       <c r="G859" s="1"/>
-      <c r="H859" s="50"/>
+      <c r="H859" s="30"/>
       <c r="I859" s="1"/>
       <c r="J859" s="1"/>
       <c r="K859" s="1"/>
@@ -25415,7 +25415,7 @@
       <c r="E860" s="1"/>
       <c r="F860" s="1"/>
       <c r="G860" s="1"/>
-      <c r="H860" s="50"/>
+      <c r="H860" s="30"/>
       <c r="I860" s="1"/>
       <c r="J860" s="1"/>
       <c r="K860" s="1"/>
@@ -25443,7 +25443,7 @@
       <c r="E861" s="1"/>
       <c r="F861" s="1"/>
       <c r="G861" s="1"/>
-      <c r="H861" s="50"/>
+      <c r="H861" s="30"/>
       <c r="I861" s="1"/>
       <c r="J861" s="1"/>
       <c r="K861" s="1"/>
@@ -25471,7 +25471,7 @@
       <c r="E862" s="1"/>
       <c r="F862" s="1"/>
       <c r="G862" s="1"/>
-      <c r="H862" s="50"/>
+      <c r="H862" s="30"/>
       <c r="I862" s="1"/>
       <c r="J862" s="1"/>
       <c r="K862" s="1"/>
@@ -25499,7 +25499,7 @@
       <c r="E863" s="1"/>
       <c r="F863" s="1"/>
       <c r="G863" s="1"/>
-      <c r="H863" s="50"/>
+      <c r="H863" s="30"/>
       <c r="I863" s="1"/>
       <c r="J863" s="1"/>
       <c r="K863" s="1"/>
@@ -25527,7 +25527,7 @@
       <c r="E864" s="1"/>
       <c r="F864" s="1"/>
       <c r="G864" s="1"/>
-      <c r="H864" s="50"/>
+      <c r="H864" s="30"/>
       <c r="I864" s="1"/>
       <c r="J864" s="1"/>
       <c r="K864" s="1"/>
@@ -25555,7 +25555,7 @@
       <c r="E865" s="1"/>
       <c r="F865" s="1"/>
       <c r="G865" s="1"/>
-      <c r="H865" s="50"/>
+      <c r="H865" s="30"/>
       <c r="I865" s="1"/>
       <c r="J865" s="1"/>
       <c r="K865" s="1"/>
@@ -25583,7 +25583,7 @@
       <c r="E866" s="1"/>
       <c r="F866" s="1"/>
       <c r="G866" s="1"/>
-      <c r="H866" s="50"/>
+      <c r="H866" s="30"/>
       <c r="I866" s="1"/>
       <c r="J866" s="1"/>
       <c r="K866" s="1"/>
@@ -25611,7 +25611,7 @@
       <c r="E867" s="1"/>
       <c r="F867" s="1"/>
       <c r="G867" s="1"/>
-      <c r="H867" s="50"/>
+      <c r="H867" s="30"/>
       <c r="I867" s="1"/>
       <c r="J867" s="1"/>
       <c r="K867" s="1"/>
@@ -25639,7 +25639,7 @@
       <c r="E868" s="1"/>
       <c r="F868" s="1"/>
       <c r="G868" s="1"/>
-      <c r="H868" s="50"/>
+      <c r="H868" s="30"/>
       <c r="I868" s="1"/>
       <c r="J868" s="1"/>
       <c r="K868" s="1"/>
@@ -25667,7 +25667,7 @@
       <c r="E869" s="1"/>
       <c r="F869" s="1"/>
       <c r="G869" s="1"/>
-      <c r="H869" s="50"/>
+      <c r="H869" s="30"/>
       <c r="I869" s="1"/>
       <c r="J869" s="1"/>
       <c r="K869" s="1"/>
@@ -25695,7 +25695,7 @@
       <c r="E870" s="1"/>
       <c r="F870" s="1"/>
       <c r="G870" s="1"/>
-      <c r="H870" s="50"/>
+      <c r="H870" s="30"/>
       <c r="I870" s="1"/>
       <c r="J870" s="1"/>
       <c r="K870" s="1"/>
@@ -25723,7 +25723,7 @@
       <c r="E871" s="1"/>
       <c r="F871" s="1"/>
       <c r="G871" s="1"/>
-      <c r="H871" s="50"/>
+      <c r="H871" s="30"/>
       <c r="I871" s="1"/>
       <c r="J871" s="1"/>
       <c r="K871" s="1"/>
@@ -25751,7 +25751,7 @@
       <c r="E872" s="1"/>
       <c r="F872" s="1"/>
       <c r="G872" s="1"/>
-      <c r="H872" s="50"/>
+      <c r="H872" s="30"/>
       <c r="I872" s="1"/>
       <c r="J872" s="1"/>
       <c r="K872" s="1"/>
@@ -25779,7 +25779,7 @@
       <c r="E873" s="1"/>
       <c r="F873" s="1"/>
       <c r="G873" s="1"/>
-      <c r="H873" s="50"/>
+      <c r="H873" s="30"/>
       <c r="I873" s="1"/>
       <c r="J873" s="1"/>
       <c r="K873" s="1"/>
@@ -25807,7 +25807,7 @@
       <c r="E874" s="1"/>
       <c r="F874" s="1"/>
       <c r="G874" s="1"/>
-      <c r="H874" s="50"/>
+      <c r="H874" s="30"/>
       <c r="I874" s="1"/>
       <c r="J874" s="1"/>
       <c r="K874" s="1"/>
@@ -25835,7 +25835,7 @@
       <c r="E875" s="1"/>
       <c r="F875" s="1"/>
       <c r="G875" s="1"/>
-      <c r="H875" s="50"/>
+      <c r="H875" s="30"/>
       <c r="I875" s="1"/>
       <c r="J875" s="1"/>
       <c r="K875" s="1"/>
@@ -25863,7 +25863,7 @@
       <c r="E876" s="1"/>
       <c r="F876" s="1"/>
       <c r="G876" s="1"/>
-      <c r="H876" s="50"/>
+      <c r="H876" s="30"/>
       <c r="I876" s="1"/>
       <c r="J876" s="1"/>
       <c r="K876" s="1"/>
@@ -25891,7 +25891,7 @@
       <c r="E877" s="1"/>
       <c r="F877" s="1"/>
       <c r="G877" s="1"/>
-      <c r="H877" s="50"/>
+      <c r="H877" s="30"/>
       <c r="I877" s="1"/>
       <c r="J877" s="1"/>
       <c r="K877" s="1"/>
@@ -25919,7 +25919,7 @@
       <c r="E878" s="1"/>
       <c r="F878" s="1"/>
       <c r="G878" s="1"/>
-      <c r="H878" s="50"/>
+      <c r="H878" s="30"/>
       <c r="I878" s="1"/>
       <c r="J878" s="1"/>
       <c r="K878" s="1"/>
@@ -25947,7 +25947,7 @@
       <c r="E879" s="1"/>
       <c r="F879" s="1"/>
       <c r="G879" s="1"/>
-      <c r="H879" s="50"/>
+      <c r="H879" s="30"/>
       <c r="I879" s="1"/>
       <c r="J879" s="1"/>
       <c r="K879" s="1"/>
@@ -25975,7 +25975,7 @@
       <c r="E880" s="1"/>
       <c r="F880" s="1"/>
       <c r="G880" s="1"/>
-      <c r="H880" s="50"/>
+      <c r="H880" s="30"/>
       <c r="I880" s="1"/>
       <c r="J880" s="1"/>
       <c r="K880" s="1"/>
@@ -26003,7 +26003,7 @@
       <c r="E881" s="1"/>
       <c r="F881" s="1"/>
       <c r="G881" s="1"/>
-      <c r="H881" s="50"/>
+      <c r="H881" s="30"/>
       <c r="I881" s="1"/>
       <c r="J881" s="1"/>
       <c r="K881" s="1"/>
@@ -26031,7 +26031,7 @@
       <c r="E882" s="1"/>
       <c r="F882" s="1"/>
       <c r="G882" s="1"/>
-      <c r="H882" s="50"/>
+      <c r="H882" s="30"/>
       <c r="I882" s="1"/>
       <c r="J882" s="1"/>
       <c r="K882" s="1"/>
@@ -26059,7 +26059,7 @@
       <c r="E883" s="1"/>
       <c r="F883" s="1"/>
       <c r="G883" s="1"/>
-      <c r="H883" s="50"/>
+      <c r="H883" s="30"/>
       <c r="I883" s="1"/>
       <c r="J883" s="1"/>
       <c r="K883" s="1"/>
@@ -26087,7 +26087,7 @@
       <c r="E884" s="1"/>
       <c r="F884" s="1"/>
       <c r="G884" s="1"/>
-      <c r="H884" s="50"/>
+      <c r="H884" s="30"/>
       <c r="I884" s="1"/>
       <c r="J884" s="1"/>
       <c r="K884" s="1"/>
@@ -26115,7 +26115,7 @@
       <c r="E885" s="1"/>
       <c r="F885" s="1"/>
       <c r="G885" s="1"/>
-      <c r="H885" s="50"/>
+      <c r="H885" s="30"/>
       <c r="I885" s="1"/>
       <c r="J885" s="1"/>
       <c r="K885" s="1"/>
@@ -26143,7 +26143,7 @@
       <c r="E886" s="1"/>
       <c r="F886" s="1"/>
       <c r="G886" s="1"/>
-      <c r="H886" s="50"/>
+      <c r="H886" s="30"/>
       <c r="I886" s="1"/>
       <c r="J886" s="1"/>
       <c r="K886" s="1"/>
@@ -26171,7 +26171,7 @@
       <c r="E887" s="1"/>
       <c r="F887" s="1"/>
       <c r="G887" s="1"/>
-      <c r="H887" s="50"/>
+      <c r="H887" s="30"/>
       <c r="I887" s="1"/>
       <c r="J887" s="1"/>
       <c r="K887" s="1"/>
@@ -26199,7 +26199,7 @@
       <c r="E888" s="1"/>
       <c r="F888" s="1"/>
       <c r="G888" s="1"/>
-      <c r="H888" s="50"/>
+      <c r="H888" s="30"/>
       <c r="I888" s="1"/>
       <c r="J888" s="1"/>
       <c r="K888" s="1"/>
@@ -26227,7 +26227,7 @@
       <c r="E889" s="1"/>
       <c r="F889" s="1"/>
       <c r="G889" s="1"/>
-      <c r="H889" s="50"/>
+      <c r="H889" s="30"/>
       <c r="I889" s="1"/>
       <c r="J889" s="1"/>
       <c r="K889" s="1"/>
@@ -26255,7 +26255,7 @@
       <c r="E890" s="1"/>
       <c r="F890" s="1"/>
       <c r="G890" s="1"/>
-      <c r="H890" s="50"/>
+      <c r="H890" s="30"/>
       <c r="I890" s="1"/>
       <c r="J890" s="1"/>
       <c r="K890" s="1"/>
@@ -26283,7 +26283,7 @@
       <c r="E891" s="1"/>
       <c r="F891" s="1"/>
       <c r="G891" s="1"/>
-      <c r="H891" s="50"/>
+      <c r="H891" s="30"/>
       <c r="I891" s="1"/>
       <c r="J891" s="1"/>
       <c r="K891" s="1"/>
@@ -26311,7 +26311,7 @@
       <c r="E892" s="1"/>
       <c r="F892" s="1"/>
       <c r="G892" s="1"/>
-      <c r="H892" s="50"/>
+      <c r="H892" s="30"/>
       <c r="I892" s="1"/>
       <c r="J892" s="1"/>
       <c r="K892" s="1"/>
@@ -26339,7 +26339,7 @@
       <c r="E893" s="1"/>
       <c r="F893" s="1"/>
       <c r="G893" s="1"/>
-      <c r="H893" s="50"/>
+      <c r="H893" s="30"/>
       <c r="I893" s="1"/>
       <c r="J893" s="1"/>
       <c r="K893" s="1"/>
@@ -26367,7 +26367,7 @@
       <c r="E894" s="1"/>
       <c r="F894" s="1"/>
       <c r="G894" s="1"/>
-      <c r="H894" s="50"/>
+      <c r="H894" s="30"/>
       <c r="I894" s="1"/>
       <c r="J894" s="1"/>
       <c r="K894" s="1"/>
@@ -26395,7 +26395,7 @@
       <c r="E895" s="1"/>
       <c r="F895" s="1"/>
       <c r="G895" s="1"/>
-      <c r="H895" s="50"/>
+      <c r="H895" s="30"/>
       <c r="I895" s="1"/>
       <c r="J895" s="1"/>
       <c r="K895" s="1"/>
@@ -26423,7 +26423,7 @@
       <c r="E896" s="1"/>
       <c r="F896" s="1"/>
       <c r="G896" s="1"/>
-      <c r="H896" s="50"/>
+      <c r="H896" s="30"/>
       <c r="I896" s="1"/>
       <c r="J896" s="1"/>
       <c r="K896" s="1"/>
@@ -26451,7 +26451,7 @@
       <c r="E897" s="1"/>
       <c r="F897" s="1"/>
       <c r="G897" s="1"/>
-      <c r="H897" s="50"/>
+      <c r="H897" s="30"/>
       <c r="I897" s="1"/>
       <c r="J897" s="1"/>
       <c r="K897" s="1"/>
@@ -26479,7 +26479,7 @@
       <c r="E898" s="1"/>
       <c r="F898" s="1"/>
       <c r="G898" s="1"/>
-      <c r="H898" s="50"/>
+      <c r="H898" s="30"/>
       <c r="I898" s="1"/>
       <c r="J898" s="1"/>
       <c r="K898" s="1"/>
@@ -26507,7 +26507,7 @@
       <c r="E899" s="1"/>
       <c r="F899" s="1"/>
       <c r="G899" s="1"/>
-      <c r="H899" s="50"/>
+      <c r="H899" s="30"/>
       <c r="I899" s="1"/>
       <c r="J899" s="1"/>
       <c r="K899" s="1"/>
@@ -26535,7 +26535,7 @@
       <c r="E900" s="1"/>
       <c r="F900" s="1"/>
       <c r="G900" s="1"/>
-      <c r="H900" s="50"/>
+      <c r="H900" s="30"/>
       <c r="I900" s="1"/>
       <c r="J900" s="1"/>
       <c r="K900" s="1"/>
@@ -26563,7 +26563,7 @@
       <c r="E901" s="1"/>
       <c r="F901" s="1"/>
       <c r="G901" s="1"/>
-      <c r="H901" s="50"/>
+      <c r="H901" s="30"/>
       <c r="I901" s="1"/>
       <c r="J901" s="1"/>
       <c r="K901" s="1"/>
@@ -26591,7 +26591,7 @@
       <c r="E902" s="1"/>
       <c r="F902" s="1"/>
       <c r="G902" s="1"/>
-      <c r="H902" s="50"/>
+      <c r="H902" s="30"/>
       <c r="I902" s="1"/>
       <c r="J902" s="1"/>
       <c r="K902" s="1"/>
@@ -26619,7 +26619,7 @@
       <c r="E903" s="1"/>
       <c r="F903" s="1"/>
       <c r="G903" s="1"/>
-      <c r="H903" s="50"/>
+      <c r="H903" s="30"/>
       <c r="I903" s="1"/>
       <c r="J903" s="1"/>
       <c r="K903" s="1"/>
@@ -26647,7 +26647,7 @@
       <c r="E904" s="1"/>
       <c r="F904" s="1"/>
       <c r="G904" s="1"/>
-      <c r="H904" s="50"/>
+      <c r="H904" s="30"/>
       <c r="I904" s="1"/>
       <c r="J904" s="1"/>
       <c r="K904" s="1"/>
@@ -26675,7 +26675,7 @@
       <c r="E905" s="1"/>
       <c r="F905" s="1"/>
       <c r="G905" s="1"/>
-      <c r="H905" s="50"/>
+      <c r="H905" s="30"/>
       <c r="I905" s="1"/>
       <c r="J905" s="1"/>
       <c r="K905" s="1"/>
@@ -26703,7 +26703,7 @@
       <c r="E906" s="1"/>
       <c r="F906" s="1"/>
       <c r="G906" s="1"/>
-      <c r="H906" s="50"/>
+      <c r="H906" s="30"/>
       <c r="I906" s="1"/>
       <c r="J906" s="1"/>
       <c r="K906" s="1"/>
@@ -26731,7 +26731,7 @@
       <c r="E907" s="1"/>
       <c r="F907" s="1"/>
       <c r="G907" s="1"/>
-      <c r="H907" s="50"/>
+      <c r="H907" s="30"/>
       <c r="I907" s="1"/>
       <c r="J907" s="1"/>
       <c r="K907" s="1"/>
@@ -26759,7 +26759,7 @@
       <c r="E908" s="1"/>
       <c r="F908" s="1"/>
       <c r="G908" s="1"/>
-      <c r="H908" s="50"/>
+      <c r="H908" s="30"/>
       <c r="I908" s="1"/>
       <c r="J908" s="1"/>
       <c r="K908" s="1"/>
@@ -26787,7 +26787,7 @@
       <c r="E909" s="1"/>
       <c r="F909" s="1"/>
       <c r="G909" s="1"/>
-      <c r="H909" s="50"/>
+      <c r="H909" s="30"/>
       <c r="I909" s="1"/>
       <c r="J909" s="1"/>
       <c r="K909" s="1"/>
@@ -26815,7 +26815,7 @@
       <c r="E910" s="1"/>
       <c r="F910" s="1"/>
       <c r="G910" s="1"/>
-      <c r="H910" s="50"/>
+      <c r="H910" s="30"/>
       <c r="I910" s="1"/>
       <c r="J910" s="1"/>
       <c r="K910" s="1"/>
@@ -26843,7 +26843,7 @@
       <c r="E911" s="1"/>
       <c r="F911" s="1"/>
       <c r="G911" s="1"/>
-      <c r="H911" s="50"/>
+      <c r="H911" s="30"/>
       <c r="I911" s="1"/>
       <c r="J911" s="1"/>
       <c r="K911" s="1"/>
@@ -26871,7 +26871,7 @@
       <c r="E912" s="1"/>
       <c r="F912" s="1"/>
       <c r="G912" s="1"/>
-      <c r="H912" s="50"/>
+      <c r="H912" s="30"/>
       <c r="I912" s="1"/>
       <c r="J912" s="1"/>
       <c r="K912" s="1"/>
@@ -26899,7 +26899,7 @@
       <c r="E913" s="1"/>
       <c r="F913" s="1"/>
       <c r="G913" s="1"/>
-      <c r="H913" s="50"/>
+      <c r="H913" s="30"/>
       <c r="I913" s="1"/>
       <c r="J913" s="1"/>
       <c r="K913" s="1"/>
@@ -26927,7 +26927,7 @@
       <c r="E914" s="1"/>
       <c r="F914" s="1"/>
       <c r="G914" s="1"/>
-      <c r="H914" s="50"/>
+      <c r="H914" s="30"/>
       <c r="I914" s="1"/>
       <c r="J914" s="1"/>
       <c r="K914" s="1"/>
@@ -26955,7 +26955,7 @@
       <c r="E915" s="1"/>
       <c r="F915" s="1"/>
       <c r="G915" s="1"/>
-      <c r="H915" s="50"/>
+      <c r="H915" s="30"/>
       <c r="I915" s="1"/>
       <c r="J915" s="1"/>
       <c r="K915" s="1"/>
@@ -26983,7 +26983,7 @@
       <c r="E916" s="1"/>
       <c r="F916" s="1"/>
       <c r="G916" s="1"/>
-      <c r="H916" s="50"/>
+      <c r="H916" s="30"/>
       <c r="I916" s="1"/>
       <c r="J916" s="1"/>
       <c r="K916" s="1"/>
@@ -27011,7 +27011,7 @@
       <c r="E917" s="1"/>
       <c r="F917" s="1"/>
       <c r="G917" s="1"/>
-      <c r="H917" s="50"/>
+      <c r="H917" s="30"/>
       <c r="I917" s="1"/>
       <c r="J917" s="1"/>
       <c r="K917" s="1"/>
@@ -27039,7 +27039,7 @@
       <c r="E918" s="1"/>
       <c r="F918" s="1"/>
       <c r="G918" s="1"/>
-      <c r="H918" s="50"/>
+      <c r="H918" s="30"/>
       <c r="I918" s="1"/>
       <c r="J918" s="1"/>
       <c r="K918" s="1"/>
@@ -27067,7 +27067,7 @@
       <c r="E919" s="1"/>
       <c r="F919" s="1"/>
       <c r="G919" s="1"/>
-      <c r="H919" s="50"/>
+      <c r="H919" s="30"/>
       <c r="I919" s="1"/>
       <c r="J919" s="1"/>
       <c r="K919" s="1"/>
@@ -27095,7 +27095,7 @@
       <c r="E920" s="1"/>
       <c r="F920" s="1"/>
       <c r="G920" s="1"/>
-      <c r="H920" s="50"/>
+      <c r="H920" s="30"/>
       <c r="I920" s="1"/>
       <c r="J920" s="1"/>
       <c r="K920" s="1"/>
@@ -27123,7 +27123,7 @@
       <c r="E921" s="1"/>
       <c r="F921" s="1"/>
       <c r="G921" s="1"/>
-      <c r="H921" s="50"/>
+      <c r="H921" s="30"/>
       <c r="I921" s="1"/>
       <c r="J921" s="1"/>
       <c r="K921" s="1"/>
@@ -27151,7 +27151,7 @@
       <c r="E922" s="1"/>
       <c r="F922" s="1"/>
       <c r="G922" s="1"/>
-      <c r="H922" s="50"/>
+      <c r="H922" s="30"/>
       <c r="I922" s="1"/>
       <c r="J922" s="1"/>
       <c r="K922" s="1"/>
@@ -27179,7 +27179,7 @@
       <c r="E923" s="1"/>
       <c r="F923" s="1"/>
       <c r="G923" s="1"/>
-      <c r="H923" s="50"/>
+      <c r="H923" s="30"/>
       <c r="I923" s="1"/>
       <c r="J923" s="1"/>
       <c r="K923" s="1"/>
@@ -27207,7 +27207,7 @@
       <c r="E924" s="1"/>
       <c r="F924" s="1"/>
       <c r="G924" s="1"/>
-      <c r="H924" s="50"/>
+      <c r="H924" s="30"/>
       <c r="I924" s="1"/>
       <c r="J924" s="1"/>
       <c r="K924" s="1"/>
@@ -27235,7 +27235,7 @@
       <c r="E925" s="1"/>
       <c r="F925" s="1"/>
       <c r="G925" s="1"/>
-      <c r="H925" s="50"/>
+      <c r="H925" s="30"/>
       <c r="I925" s="1"/>
       <c r="J925" s="1"/>
       <c r="K925" s="1"/>
@@ -27263,7 +27263,7 @@
       <c r="E926" s="1"/>
       <c r="F926" s="1"/>
       <c r="G926" s="1"/>
-      <c r="H926" s="50"/>
+      <c r="H926" s="30"/>
       <c r="I926" s="1"/>
       <c r="J926" s="1"/>
       <c r="K926" s="1"/>
@@ -27291,7 +27291,7 @@
       <c r="E927" s="1"/>
       <c r="F927" s="1"/>
       <c r="G927" s="1"/>
-      <c r="H927" s="50"/>
+      <c r="H927" s="30"/>
       <c r="I927" s="1"/>
       <c r="J927" s="1"/>
       <c r="K927" s="1"/>
@@ -27319,7 +27319,7 @@
       <c r="E928" s="1"/>
       <c r="F928" s="1"/>
       <c r="G928" s="1"/>
-      <c r="H928" s="50"/>
+      <c r="H928" s="30"/>
       <c r="I928" s="1"/>
       <c r="J928" s="1"/>
       <c r="K928" s="1"/>
@@ -27347,7 +27347,7 @@
       <c r="E929" s="1"/>
       <c r="F929" s="1"/>
       <c r="G929" s="1"/>
-      <c r="H929" s="50"/>
+      <c r="H929" s="30"/>
       <c r="I929" s="1"/>
       <c r="J929" s="1"/>
       <c r="K929" s="1"/>
@@ -27375,7 +27375,7 @@
       <c r="E930" s="1"/>
       <c r="F930" s="1"/>
       <c r="G930" s="1"/>
-      <c r="H930" s="50"/>
+      <c r="H930" s="30"/>
       <c r="I930" s="1"/>
       <c r="J930" s="1"/>
       <c r="K930" s="1"/>
@@ -27403,7 +27403,7 @@
       <c r="E931" s="1"/>
       <c r="F931" s="1"/>
       <c r="G931" s="1"/>
-      <c r="H931" s="50"/>
+      <c r="H931" s="30"/>
       <c r="I931" s="1"/>
       <c r="J931" s="1"/>
       <c r="K931" s="1"/>
@@ -27431,7 +27431,7 @@
       <c r="E932" s="1"/>
       <c r="F932" s="1"/>
       <c r="G932" s="1"/>
-      <c r="H932" s="50"/>
+      <c r="H932" s="30"/>
       <c r="I932" s="1"/>
       <c r="J932" s="1"/>
       <c r="K932" s="1"/>
@@ -27459,7 +27459,7 @@
       <c r="E933" s="1"/>
       <c r="F933" s="1"/>
       <c r="G933" s="1"/>
-      <c r="H933" s="50"/>
+      <c r="H933" s="30"/>
       <c r="I933" s="1"/>
       <c r="J933" s="1"/>
       <c r="K933" s="1"/>
@@ -27487,7 +27487,7 @@
       <c r="E934" s="1"/>
       <c r="F934" s="1"/>
       <c r="G934" s="1"/>
-      <c r="H934" s="50"/>
+      <c r="H934" s="30"/>
       <c r="I934" s="1"/>
       <c r="J934" s="1"/>
       <c r="K934" s="1"/>
@@ -27515,7 +27515,7 @@
       <c r="E935" s="1"/>
       <c r="F935" s="1"/>
       <c r="G935" s="1"/>
-      <c r="H935" s="50"/>
+      <c r="H935" s="30"/>
       <c r="I935" s="1"/>
       <c r="J935" s="1"/>
       <c r="K935" s="1"/>
@@ -27543,7 +27543,7 @@
       <c r="E936" s="1"/>
       <c r="F936" s="1"/>
       <c r="G936" s="1"/>
-      <c r="H936" s="50"/>
+      <c r="H936" s="30"/>
       <c r="I936" s="1"/>
       <c r="J936" s="1"/>
       <c r="K936" s="1"/>
@@ -27571,7 +27571,7 @@
       <c r="E937" s="1"/>
       <c r="F937" s="1"/>
       <c r="G937" s="1"/>
-      <c r="H937" s="50"/>
+      <c r="H937" s="30"/>
       <c r="I937" s="1"/>
       <c r="J937" s="1"/>
       <c r="K937" s="1"/>
@@ -27599,7 +27599,7 @@
       <c r="E938" s="1"/>
       <c r="F938" s="1"/>
       <c r="G938" s="1"/>
-      <c r="H938" s="50"/>
+      <c r="H938" s="30"/>
       <c r="I938" s="1"/>
       <c r="J938" s="1"/>
       <c r="K938" s="1"/>
@@ -27627,7 +27627,7 @@
       <c r="E939" s="1"/>
       <c r="F939" s="1"/>
       <c r="G939" s="1"/>
-      <c r="H939" s="50"/>
+      <c r="H939" s="30"/>
       <c r="I939" s="1"/>
       <c r="J939" s="1"/>
       <c r="K939" s="1"/>
@@ -27655,7 +27655,7 @@
       <c r="E940" s="1"/>
       <c r="F940" s="1"/>
       <c r="G940" s="1"/>
-      <c r="H940" s="50"/>
+      <c r="H940" s="30"/>
       <c r="I940" s="1"/>
       <c r="J940" s="1"/>
       <c r="K940" s="1"/>
@@ -27683,7 +27683,7 @@
       <c r="E941" s="1"/>
       <c r="F941" s="1"/>
       <c r="G941" s="1"/>
-      <c r="H941" s="50"/>
+      <c r="H941" s="30"/>
       <c r="I941" s="1"/>
       <c r="J941" s="1"/>
       <c r="K941" s="1"/>
@@ -27711,7 +27711,7 @@
       <c r="E942" s="1"/>
       <c r="F942" s="1"/>
       <c r="G942" s="1"/>
-      <c r="H942" s="50"/>
+      <c r="H942" s="30"/>
       <c r="I942" s="1"/>
       <c r="J942" s="1"/>
       <c r="K942" s="1"/>
@@ -27739,7 +27739,7 @@
       <c r="E943" s="1"/>
       <c r="F943" s="1"/>
       <c r="G943" s="1"/>
-      <c r="H943" s="50"/>
+      <c r="H943" s="30"/>
       <c r="I943" s="1"/>
       <c r="J943" s="1"/>
       <c r="K943" s="1"/>
@@ -27767,7 +27767,7 @@
       <c r="E944" s="1"/>
       <c r="F944" s="1"/>
       <c r="G944" s="1"/>
-      <c r="H944" s="50"/>
+      <c r="H944" s="30"/>
       <c r="I944" s="1"/>
       <c r="J944" s="1"/>
       <c r="K944" s="1"/>
@@ -27795,7 +27795,7 @@
       <c r="E945" s="1"/>
       <c r="F945" s="1"/>
       <c r="G945" s="1"/>
-      <c r="H945" s="50"/>
+      <c r="H945" s="30"/>
       <c r="I945" s="1"/>
       <c r="J945" s="1"/>
       <c r="K945" s="1"/>
@@ -27823,7 +27823,7 @@
       <c r="E946" s="1"/>
       <c r="F946" s="1"/>
       <c r="G946" s="1"/>
-      <c r="H946" s="50"/>
+      <c r="H946" s="30"/>
       <c r="I946" s="1"/>
       <c r="J946" s="1"/>
       <c r="K946" s="1"/>
@@ -27851,7 +27851,7 @@
       <c r="E947" s="1"/>
       <c r="F947" s="1"/>
       <c r="G947" s="1"/>
-      <c r="H947" s="50"/>
+      <c r="H947" s="30"/>
       <c r="I947" s="1"/>
       <c r="J947" s="1"/>
       <c r="K947" s="1"/>
@@ -27879,7 +27879,7 @@
       <c r="E948" s="1"/>
       <c r="F948" s="1"/>
       <c r="G948" s="1"/>
-      <c r="H948" s="50"/>
+      <c r="H948" s="30"/>
       <c r="I948" s="1"/>
       <c r="J948" s="1"/>
       <c r="K948" s="1"/>
@@ -27907,7 +27907,7 @@
       <c r="E949" s="1"/>
       <c r="F949" s="1"/>
       <c r="G949" s="1"/>
-      <c r="H949" s="50"/>
+      <c r="H949" s="30"/>
       <c r="I949" s="1"/>
       <c r="J949" s="1"/>
       <c r="K949" s="1"/>
@@ -27935,7 +27935,7 @@
       <c r="E950" s="1"/>
       <c r="F950" s="1"/>
       <c r="G950" s="1"/>
-      <c r="H950" s="50"/>
+      <c r="H950" s="30"/>
       <c r="I950" s="1"/>
       <c r="J950" s="1"/>
       <c r="K950" s="1"/>
@@ -27963,7 +27963,7 @@
       <c r="E951" s="1"/>
       <c r="F951" s="1"/>
       <c r="G951" s="1"/>
-      <c r="H951" s="50"/>
+      <c r="H951" s="30"/>
       <c r="I951" s="1"/>
       <c r="J951" s="1"/>
       <c r="K951" s="1"/>
@@ -27991,7 +27991,7 @@
       <c r="E952" s="1"/>
       <c r="F952" s="1"/>
       <c r="G952" s="1"/>
-      <c r="H952" s="50"/>
+      <c r="H952" s="30"/>
       <c r="I952" s="1"/>
       <c r="J952" s="1"/>
       <c r="K952" s="1"/>
@@ -28019,7 +28019,7 @@
       <c r="E953" s="1"/>
       <c r="F953" s="1"/>
       <c r="G953" s="1"/>
-      <c r="H953" s="50"/>
+      <c r="H953" s="30"/>
       <c r="I953" s="1"/>
       <c r="J953" s="1"/>
       <c r="K953" s="1"/>
@@ -28047,7 +28047,7 @@
       <c r="E954" s="1"/>
       <c r="F954" s="1"/>
       <c r="G954" s="1"/>
-      <c r="H954" s="50"/>
+      <c r="H954" s="30"/>
       <c r="I954" s="1"/>
       <c r="J954" s="1"/>
       <c r="K954" s="1"/>
@@ -28075,7 +28075,7 @@
       <c r="E955" s="1"/>
       <c r="F955" s="1"/>
       <c r="G955" s="1"/>
-      <c r="H955" s="50"/>
+      <c r="H955" s="30"/>
       <c r="I955" s="1"/>
       <c r="J955" s="1"/>
       <c r="K955" s="1"/>
@@ -28103,7 +28103,7 @@
       <c r="E956" s="1"/>
       <c r="F956" s="1"/>
       <c r="G956" s="1"/>
-      <c r="H956" s="50"/>
+      <c r="H956" s="30"/>
       <c r="I956" s="1"/>
       <c r="J956" s="1"/>
       <c r="K956" s="1"/>
@@ -28131,7 +28131,7 @@
       <c r="E957" s="1"/>
       <c r="F957" s="1"/>
       <c r="G957" s="1"/>
-      <c r="H957" s="50"/>
+      <c r="H957" s="30"/>
       <c r="I957" s="1"/>
       <c r="J957" s="1"/>
       <c r="K957" s="1"/>
@@ -28159,7 +28159,7 @@
       <c r="E958" s="1"/>
       <c r="F958" s="1"/>
       <c r="G958" s="1"/>
-      <c r="H958" s="50"/>
+      <c r="H958" s="30"/>
       <c r="I958" s="1"/>
       <c r="J958" s="1"/>
       <c r="K958" s="1"/>
@@ -28187,7 +28187,7 @@
       <c r="E959" s="1"/>
       <c r="F959" s="1"/>
       <c r="G959" s="1"/>
-      <c r="H959" s="50"/>
+      <c r="H959" s="30"/>
       <c r="I959" s="1"/>
       <c r="J959" s="1"/>
       <c r="K959" s="1"/>
@@ -28215,7 +28215,7 @@
       <c r="E960" s="1"/>
       <c r="F960" s="1"/>
       <c r="G960" s="1"/>
-      <c r="H960" s="50"/>
+      <c r="H960" s="30"/>
       <c r="I960" s="1"/>
       <c r="J960" s="1"/>
       <c r="K960" s="1"/>
@@ -28243,7 +28243,7 @@
       <c r="E961" s="1"/>
       <c r="F961" s="1"/>
       <c r="G961" s="1"/>
-      <c r="H961" s="50"/>
+      <c r="H961" s="30"/>
       <c r="I961" s="1"/>
       <c r="J961" s="1"/>
       <c r="K961" s="1"/>
@@ -28271,7 +28271,7 @@
       <c r="E962" s="1"/>
       <c r="F962" s="1"/>
       <c r="G962" s="1"/>
-      <c r="H962" s="50"/>
+      <c r="H962" s="30"/>
       <c r="I962" s="1"/>
       <c r="J962" s="1"/>
       <c r="K962" s="1"/>
@@ -28299,7 +28299,7 @@
       <c r="E963" s="1"/>
       <c r="F963" s="1"/>
       <c r="G963" s="1"/>
-      <c r="H963" s="50"/>
+      <c r="H963" s="30"/>
       <c r="I963" s="1"/>
       <c r="J963" s="1"/>
       <c r="K963" s="1"/>
@@ -28327,7 +28327,7 @@
       <c r="E964" s="1"/>
       <c r="F964" s="1"/>
       <c r="G964" s="1"/>
-      <c r="H964" s="50"/>
+      <c r="H964" s="30"/>
       <c r="I964" s="1"/>
       <c r="J964" s="1"/>
       <c r="K964" s="1"/>
@@ -28355,7 +28355,7 @@
       <c r="E965" s="1"/>
       <c r="F965" s="1"/>
       <c r="G965" s="1"/>
-      <c r="H965" s="50"/>
+      <c r="H965" s="30"/>
       <c r="I965" s="1"/>
       <c r="J965" s="1"/>
       <c r="K965" s="1"/>
@@ -28383,7 +28383,7 @@
       <c r="E966" s="1"/>
       <c r="F966" s="1"/>
       <c r="G966" s="1"/>
-      <c r="H966" s="50"/>
+      <c r="H966" s="30"/>
       <c r="I966" s="1"/>
       <c r="J966" s="1"/>
       <c r="K966" s="1"/>
@@ -28411,7 +28411,7 @@
       <c r="E967" s="1"/>
       <c r="F967" s="1"/>
       <c r="G967" s="1"/>
-      <c r="H967" s="50"/>
+      <c r="H967" s="30"/>
       <c r="I967" s="1"/>
       <c r="J967" s="1"/>
       <c r="K967" s="1"/>
@@ -28439,7 +28439,7 @@
       <c r="E968" s="1"/>
       <c r="F968" s="1"/>
       <c r="G968" s="1"/>
-      <c r="H968" s="50"/>
+      <c r="H968" s="30"/>
       <c r="I968" s="1"/>
       <c r="J968" s="1"/>
       <c r="K968" s="1"/>
@@ -28467,7 +28467,7 @@
       <c r="E969" s="1"/>
       <c r="F969" s="1"/>
       <c r="G969" s="1"/>
-      <c r="H969" s="50"/>
+      <c r="H969" s="30"/>
       <c r="I969" s="1"/>
       <c r="J969" s="1"/>
       <c r="K969" s="1"/>
@@ -28495,7 +28495,7 @@
       <c r="E970" s="1"/>
       <c r="F970" s="1"/>
       <c r="G970" s="1"/>
-      <c r="H970" s="50"/>
+      <c r="H970" s="30"/>
       <c r="I970" s="1"/>
       <c r="J970" s="1"/>
       <c r="K970" s="1"/>
@@ -28523,7 +28523,7 @@
       <c r="E971" s="1"/>
       <c r="F971" s="1"/>
       <c r="G971" s="1"/>
-      <c r="H971" s="50"/>
+      <c r="H971" s="30"/>
       <c r="I971" s="1"/>
       <c r="J971" s="1"/>
       <c r="K971" s="1"/>
@@ -28551,7 +28551,7 @@
       <c r="E972" s="1"/>
       <c r="F972" s="1"/>
       <c r="G972" s="1"/>
-      <c r="H972" s="50"/>
+      <c r="H972" s="30"/>
       <c r="I972" s="1"/>
       <c r="J972" s="1"/>
       <c r="K972" s="1"/>
@@ -28579,7 +28579,7 @@
       <c r="E973" s="1"/>
       <c r="F973" s="1"/>
       <c r="G973" s="1"/>
-      <c r="H973" s="50"/>
+      <c r="H973" s="30"/>
       <c r="I973" s="1"/>
       <c r="J973" s="1"/>
       <c r="K973" s="1"/>
@@ -28607,7 +28607,7 @@
       <c r="E974" s="1"/>
       <c r="F974" s="1"/>
       <c r="G974" s="1"/>
-      <c r="H974" s="50"/>
+      <c r="H974" s="30"/>
       <c r="I974" s="1"/>
       <c r="J974" s="1"/>
       <c r="K974" s="1"/>
@@ -28635,7 +28635,7 @@
       <c r="E975" s="1"/>
       <c r="F975" s="1"/>
       <c r="G975" s="1"/>
-      <c r="H975" s="50"/>
+      <c r="H975" s="30"/>
       <c r="I975" s="1"/>
       <c r="J975" s="1"/>
       <c r="K975" s="1"/>
@@ -28663,7 +28663,7 @@
       <c r="E976" s="1"/>
       <c r="F976" s="1"/>
       <c r="G976" s="1"/>
-      <c r="H976" s="50"/>
+      <c r="H976" s="30"/>
       <c r="I976" s="1"/>
       <c r="J976" s="1"/>
       <c r="K976" s="1"/>
@@ -28691,7 +28691,7 @@
       <c r="E977" s="1"/>
       <c r="F977" s="1"/>
       <c r="G977" s="1"/>
-      <c r="H977" s="50"/>
+      <c r="H977" s="30"/>
       <c r="I977" s="1"/>
       <c r="J977" s="1"/>
       <c r="K977" s="1"/>
@@ -28719,7 +28719,7 @@
       <c r="E978" s="1"/>
       <c r="F978" s="1"/>
       <c r="G978" s="1"/>
-      <c r="H978" s="50"/>
+      <c r="H978" s="30"/>
       <c r="I978" s="1"/>
       <c r="J978" s="1"/>
       <c r="K978" s="1"/>
@@ -28747,7 +28747,7 @@
       <c r="E979" s="1"/>
       <c r="F979" s="1"/>
       <c r="G979" s="1"/>
-      <c r="H979" s="50"/>
+      <c r="H979" s="30"/>
       <c r="I979" s="1"/>
       <c r="J979" s="1"/>
       <c r="K979" s="1"/>
@@ -28775,7 +28775,7 @@
       <c r="E980" s="1"/>
       <c r="F980" s="1"/>
       <c r="G980" s="1"/>
-      <c r="H980" s="50"/>
+      <c r="H980" s="30"/>
       <c r="I980" s="1"/>
       <c r="J980" s="1"/>
       <c r="K980" s="1"/>
@@ -28803,7 +28803,7 @@
       <c r="E981" s="1"/>
       <c r="F981" s="1"/>
       <c r="G981" s="1"/>
-      <c r="H981" s="50"/>
+      <c r="H981" s="30"/>
       <c r="I981" s="1"/>
       <c r="J981" s="1"/>
       <c r="K981" s="1"/>
@@ -28831,7 +28831,7 @@
       <c r="E982" s="1"/>
       <c r="F982" s="1"/>
       <c r="G982" s="1"/>
-      <c r="H982" s="50"/>
+      <c r="H982" s="30"/>
       <c r="I982" s="1"/>
       <c r="J982" s="1"/>
       <c r="K982" s="1"/>
@@ -28859,7 +28859,7 @@
       <c r="E983" s="1"/>
       <c r="F983" s="1"/>
       <c r="G983" s="1"/>
-      <c r="H983" s="50"/>
+      <c r="H983" s="30"/>
       <c r="I983" s="1"/>
       <c r="J983" s="1"/>
       <c r="K983" s="1"/>
@@ -28887,7 +28887,7 @@
       <c r="E984" s="1"/>
       <c r="F984" s="1"/>
       <c r="G984" s="1"/>
-      <c r="H984" s="50"/>
+      <c r="H984" s="30"/>
       <c r="I984" s="1"/>
       <c r="J984" s="1"/>
       <c r="K984" s="1"/>
@@ -28915,7 +28915,7 @@
       <c r="E985" s="1"/>
       <c r="F985" s="1"/>
       <c r="G985" s="1"/>
-      <c r="H985" s="50"/>
+      <c r="H985" s="30"/>
       <c r="I985" s="1"/>
       <c r="J985" s="1"/>
       <c r="K985" s="1"/>
@@ -28943,7 +28943,7 @@
       <c r="E986" s="1"/>
       <c r="F986" s="1"/>
       <c r="G986" s="1"/>
-      <c r="H986" s="50"/>
+      <c r="H986" s="30"/>
       <c r="I986" s="1"/>
       <c r="J986" s="1"/>
       <c r="K986" s="1"/>
@@ -28971,7 +28971,7 @@
       <c r="E987" s="1"/>
       <c r="F987" s="1"/>
       <c r="G987" s="1"/>
-      <c r="H987" s="50"/>
+      <c r="H987" s="30"/>
       <c r="I987" s="1"/>
       <c r="J987" s="1"/>
       <c r="K987" s="1"/>
@@ -28999,7 +28999,7 @@
       <c r="E988" s="1"/>
       <c r="F988" s="1"/>
       <c r="G988" s="1"/>
-      <c r="H988" s="50"/>
+      <c r="H988" s="30"/>
       <c r="I988" s="1"/>
       <c r="J988" s="1"/>
       <c r="K988" s="1"/>
@@ -29027,7 +29027,7 @@
       <c r="E989" s="1"/>
       <c r="F989" s="1"/>
       <c r="G989" s="1"/>
-      <c r="H989" s="50"/>
+      <c r="H989" s="30"/>
       <c r="I989" s="1"/>
       <c r="J989" s="1"/>
       <c r="K989" s="1"/>
@@ -29055,7 +29055,7 @@
       <c r="E990" s="1"/>
       <c r="F990" s="1"/>
       <c r="G990" s="1"/>
-      <c r="H990" s="50"/>
+      <c r="H990" s="30"/>
       <c r="I990" s="1"/>
       <c r="J990" s="1"/>
       <c r="K990" s="1"/>
@@ -29083,7 +29083,7 @@
       <c r="E991" s="1"/>
       <c r="F991" s="1"/>
       <c r="G991" s="1"/>
-      <c r="H991" s="50"/>
+      <c r="H991" s="30"/>
       <c r="I991" s="1"/>
       <c r="J991" s="1"/>
       <c r="K991" s="1"/>
@@ -29111,7 +29111,7 @@
       <c r="E992" s="1"/>
       <c r="F992" s="1"/>
       <c r="G992" s="1"/>
-      <c r="H992" s="50"/>
+      <c r="H992" s="30"/>
       <c r="I992" s="1"/>
       <c r="J992" s="1"/>
       <c r="K992" s="1"/>
@@ -29139,7 +29139,7 @@
       <c r="E993" s="1"/>
       <c r="F993" s="1"/>
       <c r="G993" s="1"/>
-      <c r="H993" s="50"/>
+      <c r="H993" s="30"/>
       <c r="I993" s="1"/>
       <c r="J993" s="1"/>
       <c r="K993" s="1"/>
@@ -29167,7 +29167,7 @@
       <c r="E994" s="1"/>
       <c r="F994" s="1"/>
       <c r="G994" s="1"/>
-      <c r="H994" s="50"/>
+      <c r="H994" s="30"/>
       <c r="I994" s="1"/>
       <c r="J994" s="1"/>
       <c r="K994" s="1"/>
@@ -29195,7 +29195,7 @@
       <c r="E995" s="1"/>
       <c r="F995" s="1"/>
       <c r="G995" s="1"/>
-      <c r="H995" s="50"/>
+      <c r="H995" s="30"/>
       <c r="I995" s="1"/>
       <c r="J995" s="1"/>
       <c r="K995" s="1"/>
@@ -29223,7 +29223,7 @@
       <c r="E996" s="1"/>
       <c r="F996" s="1"/>
       <c r="G996" s="1"/>
-      <c r="H996" s="50"/>
+      <c r="H996" s="30"/>
       <c r="I996" s="1"/>
       <c r="J996" s="1"/>
       <c r="K996" s="1"/>
@@ -29251,7 +29251,7 @@
       <c r="E997" s="1"/>
       <c r="F997" s="1"/>
       <c r="G997" s="1"/>
-      <c r="H997" s="50"/>
+      <c r="H997" s="30"/>
       <c r="I997" s="1"/>
       <c r="J997" s="1"/>
       <c r="K997" s="1"/>
@@ -29279,7 +29279,7 @@
       <c r="E998" s="1"/>
       <c r="F998" s="1"/>
       <c r="G998" s="1"/>
-      <c r="H998" s="50"/>
+      <c r="H998" s="30"/>
       <c r="I998" s="1"/>
       <c r="J998" s="1"/>
       <c r="K998" s="1"/>
@@ -29307,7 +29307,7 @@
       <c r="E999" s="1"/>
       <c r="F999" s="1"/>
       <c r="G999" s="1"/>
-      <c r="H999" s="50"/>
+      <c r="H999" s="30"/>
       <c r="I999" s="1"/>
       <c r="J999" s="1"/>
       <c r="K999" s="1"/>
@@ -29335,7 +29335,7 @@
       <c r="E1000" s="1"/>
       <c r="F1000" s="1"/>
       <c r="G1000" s="1"/>
-      <c r="H1000" s="50"/>
+      <c r="H1000" s="30"/>
       <c r="I1000" s="1"/>
       <c r="J1000" s="1"/>
       <c r="K1000" s="1"/>
@@ -29378,6 +29378,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2796E0B3-9893-450C-A5A5-CE049C1AE4BD}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29393,21 +29394,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="38" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="39" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="26" t="s">
@@ -29421,7 +29422,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="40" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="26" t="s">
@@ -29491,7 +29492,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="39" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="26" t="s">
